--- a/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9518439998348921</v>
+      </c>
+      <c r="D3">
+        <v>0.9413475918122129</v>
+      </c>
+      <c r="E3">
         <v>1.002853755966888</v>
-      </c>
-      <c r="D3">
-        <v>1.862650488274755</v>
-      </c>
-      <c r="E3">
-        <v>1.440273933037233</v>
       </c>
       <c r="F3">
         <v>1.002853755966888</v>
@@ -659,19 +671,19 @@
         <v>0.98688276428229</v>
       </c>
       <c r="I3">
-        <v>1.002853755968567</v>
+        <v>1.440273933037233</v>
       </c>
       <c r="J3">
         <v>1.862650488274755</v>
       </c>
       <c r="K3">
+        <v>1.002853755968567</v>
+      </c>
+      <c r="L3">
+        <v>1.862650488274755</v>
+      </c>
+      <c r="M3">
         <v>1.286431746921009</v>
-      </c>
-      <c r="L3">
-        <v>0.9518439998348921</v>
-      </c>
-      <c r="M3">
-        <v>0.9413475918122129</v>
       </c>
       <c r="N3">
         <v>1.002853755966888</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.094766638821215</v>
+      </c>
+      <c r="D4">
+        <v>1.001838806798646</v>
+      </c>
+      <c r="E4">
         <v>1.443800398608962</v>
-      </c>
-      <c r="D4">
-        <v>2.991034724528391</v>
-      </c>
-      <c r="E4">
-        <v>1.803825817211899</v>
       </c>
       <c r="F4">
         <v>1.443800398608962</v>
       </c>
       <c r="G4">
-        <v>0.8111440266393396</v>
+        <v>0.8111440266393395</v>
       </c>
       <c r="H4">
         <v>0.836670235240165</v>
       </c>
       <c r="I4">
-        <v>1.443800398609963</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="J4">
         <v>2.991034724528391</v>
       </c>
       <c r="K4">
+        <v>1.443800398609963</v>
+      </c>
+      <c r="L4">
+        <v>2.991034724528391</v>
+      </c>
+      <c r="M4">
         <v>1.79393951256975</v>
-      </c>
-      <c r="L4">
-        <v>1.094766638821215</v>
-      </c>
-      <c r="M4">
-        <v>1.001838806798646</v>
       </c>
       <c r="N4">
         <v>1.443800398608962</v>
@@ -783,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.2127976468002453</v>
+      </c>
+      <c r="D5">
+        <v>0.3563809111954455</v>
+      </c>
+      <c r="E5">
         <v>4.325800911525429</v>
-      </c>
-      <c r="D5">
-        <v>9.546682800245824</v>
-      </c>
-      <c r="E5">
-        <v>1.104178410367038</v>
       </c>
       <c r="F5">
         <v>4.325800911525429</v>
@@ -801,19 +813,19 @@
         <v>0.6684795119019331</v>
       </c>
       <c r="I5">
-        <v>4.325800911526835</v>
+        <v>1.104178410367038</v>
       </c>
       <c r="J5">
         <v>9.546682800245824</v>
       </c>
       <c r="K5">
+        <v>4.325800911526835</v>
+      </c>
+      <c r="L5">
+        <v>9.546682800245824</v>
+      </c>
+      <c r="M5">
         <v>2.231337790024087</v>
-      </c>
-      <c r="L5">
-        <v>0.2127976468002453</v>
-      </c>
-      <c r="M5">
-        <v>0.3563809111954455</v>
       </c>
       <c r="N5">
         <v>4.325800911525429</v>
@@ -854,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.064405177639875</v>
+      </c>
+      <c r="D6">
+        <v>0.05172949035102603</v>
+      </c>
+      <c r="E6">
         <v>0.01289803527428562</v>
-      </c>
-      <c r="D6">
-        <v>19.85370541956058</v>
-      </c>
-      <c r="E6">
-        <v>10.54075553230764</v>
       </c>
       <c r="F6">
         <v>0.01289803527428562</v>
@@ -872,19 +884,19 @@
         <v>0.003654682730435186</v>
       </c>
       <c r="I6">
-        <v>0.01289803527428562</v>
+        <v>10.54075553230764</v>
       </c>
       <c r="J6">
         <v>19.85370541956058</v>
       </c>
       <c r="K6">
+        <v>0.01289803527428562</v>
+      </c>
+      <c r="L6">
+        <v>19.85370541956058</v>
+      </c>
+      <c r="M6">
         <v>3.606664172698842</v>
-      </c>
-      <c r="L6">
-        <v>1.064405177639875</v>
-      </c>
-      <c r="M6">
-        <v>0.05172949035102603</v>
       </c>
       <c r="N6">
         <v>0.01289803527428562</v>
@@ -925,58 +937,58 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.024943893890108</v>
+      </c>
+      <c r="D7">
+        <v>1.0125102840993</v>
+      </c>
+      <c r="E7">
         <v>1.062896450397883</v>
-      </c>
-      <c r="D7">
-        <v>1.25001949770131</v>
-      </c>
-      <c r="E7">
-        <v>1.078871386231727</v>
       </c>
       <c r="F7">
         <v>1.062896450397883</v>
       </c>
       <c r="G7">
-        <v>0.9684918214344008</v>
+        <v>0.9684918214344014</v>
       </c>
       <c r="H7">
-        <v>0.9884185465195101</v>
+        <v>0.9884185465195107</v>
       </c>
       <c r="I7">
-        <v>1.062896450399661</v>
+        <v>1.078871386231728</v>
       </c>
       <c r="J7">
         <v>1.25001949770131</v>
       </c>
       <c r="K7">
-        <v>1.000354597821867</v>
+        <v>1.062896450399661</v>
       </c>
       <c r="L7">
-        <v>1.024943893890109</v>
+        <v>1.25001949770131</v>
       </c>
       <c r="M7">
-        <v>1.0125102840993</v>
+        <v>1.000354597821868</v>
       </c>
       <c r="N7">
         <v>1.062896450397883</v>
       </c>
       <c r="O7">
-        <v>1.078871386231727</v>
+        <v>1.078871386231728</v>
       </c>
       <c r="P7">
-        <v>1.164445441966518</v>
+        <v>1.164445441966519</v>
       </c>
       <c r="Q7">
-        <v>1.023681603833064</v>
+        <v>1.023681603833065</v>
       </c>
       <c r="R7">
-        <v>1.130595778110306</v>
+        <v>1.130595778110307</v>
       </c>
       <c r="S7">
-        <v>1.099127568455812</v>
+        <v>1.099127568455813</v>
       </c>
       <c r="T7">
-        <v>1.130595778110306</v>
+        <v>1.130595778110307</v>
       </c>
       <c r="U7">
         <v>1.09006978894133</v>
@@ -985,7 +997,7 @@
         <v>1.084635121232641</v>
       </c>
       <c r="W7">
-        <v>1.048313309762013</v>
+        <v>1.048313309762014</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.068961970420817</v>
+        <v>1.021664274477626</v>
       </c>
       <c r="D8">
-        <v>1.579652501667937</v>
+        <v>1.01798871746466</v>
       </c>
       <c r="E8">
-        <v>1.028985008112403</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="F8">
-        <v>1.068961970420817</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="G8">
-        <v>0.9714498775150758</v>
+        <v>0.9714498775150737</v>
       </c>
       <c r="H8">
-        <v>0.9591648694763121</v>
+        <v>0.9591648694763109</v>
       </c>
       <c r="I8">
-        <v>1.068961970422596</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="J8">
-        <v>1.579652501667937</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="K8">
-        <v>0.9995439322213686</v>
+        <v>1.068961970422598</v>
       </c>
       <c r="L8">
-        <v>1.021664274477626</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="M8">
-        <v>1.017988717464659</v>
+        <v>0.9995439322213695</v>
       </c>
       <c r="N8">
-        <v>1.068961970420817</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="O8">
-        <v>1.028985008112403</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="P8">
-        <v>1.30431875489017</v>
+        <v>1.30431875489019</v>
       </c>
       <c r="Q8">
-        <v>1.000217442813739</v>
+        <v>1.000217442813738</v>
       </c>
       <c r="R8">
-        <v>1.225866493400386</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="S8">
-        <v>1.193362462431805</v>
+        <v>1.193362462431818</v>
       </c>
       <c r="T8">
-        <v>1.225866493400386</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="U8">
-        <v>1.162262339429058</v>
+        <v>1.162262339429068</v>
       </c>
       <c r="V8">
-        <v>1.14360226562741</v>
+        <v>1.143602265627418</v>
       </c>
       <c r="W8">
-        <v>1.080926393919525</v>
+        <v>1.08092639391953</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9742049012523942</v>
+      </c>
+      <c r="D9">
+        <v>0.9877424830965877</v>
+      </c>
+      <c r="E9">
         <v>1.015425301342157</v>
-      </c>
-      <c r="D9">
-        <v>2.031858066989684</v>
-      </c>
-      <c r="E9">
-        <v>1.213106083665407</v>
       </c>
       <c r="F9">
         <v>1.015425301342157</v>
       </c>
       <c r="G9">
-        <v>0.986533148259705</v>
+        <v>0.9865331482597052</v>
       </c>
       <c r="H9">
         <v>0.9861735050139437</v>
       </c>
       <c r="I9">
-        <v>1.015425301344283</v>
+        <v>1.213106083665407</v>
       </c>
       <c r="J9">
         <v>2.031858066989684</v>
       </c>
       <c r="K9">
+        <v>1.015425301344283</v>
+      </c>
+      <c r="L9">
+        <v>2.031858066989684</v>
+      </c>
+      <c r="M9">
         <v>0.9192412441951973</v>
-      </c>
-      <c r="L9">
-        <v>0.9742049012523942</v>
-      </c>
-      <c r="M9">
-        <v>0.9877424830965882</v>
       </c>
       <c r="N9">
         <v>1.015425301342157</v>
@@ -1121,7 +1133,7 @@
         <v>1.420129817332416</v>
       </c>
       <c r="U9">
-        <v>1.311730650064238</v>
+        <v>1.311730650064239</v>
       </c>
       <c r="V9">
         <v>1.252469580319822</v>
@@ -1138,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.969201385146827</v>
+      </c>
+      <c r="D10">
+        <v>1.181994563490855</v>
+      </c>
+      <c r="E10">
         <v>1.263274683534825</v>
-      </c>
-      <c r="D10">
-        <v>3.387889300122104</v>
-      </c>
-      <c r="E10">
-        <v>0.9356322853881385</v>
       </c>
       <c r="F10">
         <v>1.263274683534825</v>
@@ -1156,31 +1168,31 @@
         <v>1.091409663660522</v>
       </c>
       <c r="I10">
-        <v>1.263274683537503</v>
+        <v>0.9356322853881383</v>
       </c>
       <c r="J10">
         <v>3.387889300122104</v>
       </c>
       <c r="K10">
-        <v>0.8882846229752195</v>
+        <v>1.263274683537503</v>
       </c>
       <c r="L10">
-        <v>0.9692013851468267</v>
+        <v>3.387889300122104</v>
       </c>
       <c r="M10">
-        <v>1.181994563490855</v>
+        <v>0.8882846229752197</v>
       </c>
       <c r="N10">
         <v>1.263274683534825</v>
       </c>
       <c r="O10">
-        <v>0.9356322853881385</v>
+        <v>0.9356322853881383</v>
       </c>
       <c r="P10">
         <v>2.161760792755121</v>
       </c>
       <c r="Q10">
-        <v>0.9016938688934497</v>
+        <v>0.9016938688934495</v>
       </c>
       <c r="R10">
         <v>1.862265423015022</v>
@@ -1209,46 +1221,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.249841841394507</v>
+        <v>1.283220587449607</v>
       </c>
       <c r="D11">
-        <v>5.274845913743877</v>
+        <v>0.9891917288258566</v>
       </c>
       <c r="E11">
-        <v>2.519729572959945</v>
+        <v>0.2498418413945074</v>
       </c>
       <c r="F11">
-        <v>0.249841841394507</v>
+        <v>0.2498418413945074</v>
       </c>
       <c r="G11">
         <v>1.226500934908157</v>
       </c>
       <c r="H11">
-        <v>1.220456279489806</v>
+        <v>1.220456279489805</v>
       </c>
       <c r="I11">
-        <v>0.2498418413982929</v>
+        <v>2.519729572959944</v>
       </c>
       <c r="J11">
         <v>5.274845913743877</v>
       </c>
       <c r="K11">
+        <v>0.2498418413982934</v>
+      </c>
+      <c r="L11">
+        <v>5.274845913743877</v>
+      </c>
+      <c r="M11">
         <v>0.8132505138282461</v>
       </c>
-      <c r="L11">
-        <v>1.283220587449607</v>
-      </c>
-      <c r="M11">
-        <v>0.9891917288258566</v>
-      </c>
       <c r="N11">
-        <v>0.249841841394507</v>
+        <v>0.2498418413945074</v>
       </c>
       <c r="O11">
-        <v>2.519729572959945</v>
+        <v>2.519729572959944</v>
       </c>
       <c r="P11">
-        <v>3.897287743351911</v>
+        <v>3.89728774335191</v>
       </c>
       <c r="Q11">
         <v>1.873115253934051</v>
@@ -1257,7 +1269,7 @@
         <v>2.681472442699443</v>
       </c>
       <c r="S11">
-        <v>3.00702547387066</v>
+        <v>3.007025473870659</v>
       </c>
       <c r="T11">
         <v>2.681472442699443</v>
@@ -1280,67 +1292,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4085801478222011</v>
+        <v>-0.001502850586985293</v>
       </c>
       <c r="D12">
-        <v>0.003550294424097214</v>
+        <v>0.2744561344533932</v>
       </c>
       <c r="E12">
-        <v>0.003429442486612059</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="F12">
-        <v>0.4085801478222011</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="G12">
-        <v>2.614807624490453</v>
+        <v>2.614807624490462</v>
       </c>
       <c r="H12">
-        <v>0.03254713084656053</v>
+        <v>0.03254713084656045</v>
       </c>
       <c r="I12">
-        <v>0.4085801478222011</v>
+        <v>0.003429442486612062</v>
       </c>
       <c r="J12">
-        <v>0.003550294424097214</v>
+        <v>0.003550294424097217</v>
       </c>
       <c r="K12">
-        <v>-0.001257431911578388</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="L12">
-        <v>-0.001502850586985298</v>
+        <v>0.003550294424097217</v>
       </c>
       <c r="M12">
-        <v>0.2744561344533947</v>
+        <v>-0.001257431911578386</v>
       </c>
       <c r="N12">
-        <v>0.4085801478222011</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="O12">
-        <v>0.003429442486612059</v>
+        <v>0.003429442486612062</v>
       </c>
       <c r="P12">
-        <v>0.003489868455354637</v>
+        <v>0.00348986845535464</v>
       </c>
       <c r="Q12">
-        <v>1.309118533488532</v>
+        <v>1.309118533488537</v>
       </c>
       <c r="R12">
-        <v>0.1385199615776368</v>
+        <v>0.1385199615776367</v>
       </c>
       <c r="S12">
-        <v>0.8739291204670541</v>
+        <v>0.8739291204670571</v>
       </c>
       <c r="T12">
-        <v>0.1385199615776368</v>
+        <v>0.1385199615776367</v>
       </c>
       <c r="U12">
-        <v>0.7575918773058409</v>
+        <v>0.757591877305843</v>
       </c>
       <c r="V12">
-        <v>0.6877895314091129</v>
+        <v>0.6877895314091146</v>
       </c>
       <c r="W12">
-        <v>0.4168263115030943</v>
+        <v>0.4168263115030952</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1363,67 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.04034612682130263</v>
+      </c>
+      <c r="D13">
+        <v>0.03795029131287164</v>
+      </c>
+      <c r="E13">
         <v>0.2668842195185722</v>
-      </c>
-      <c r="D13">
-        <v>0.0761201067922304</v>
-      </c>
-      <c r="E13">
-        <v>1.6972548188454</v>
       </c>
       <c r="F13">
         <v>0.2668842195185722</v>
       </c>
       <c r="G13">
-        <v>-0.0005346634239876027</v>
+        <v>-0.0005346634239876048</v>
       </c>
       <c r="H13">
-        <v>0.6139002432027741</v>
+        <v>0.6139002432027721</v>
       </c>
       <c r="I13">
-        <v>0.2668842195185722</v>
+        <v>1.697254818845404</v>
       </c>
       <c r="J13">
         <v>0.0761201067922304</v>
       </c>
       <c r="K13">
-        <v>2.705339109436881</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="L13">
-        <v>0.0403461268213026</v>
+        <v>0.0761201067922304</v>
       </c>
       <c r="M13">
-        <v>0.03795029131287173</v>
+        <v>2.705339109436882</v>
       </c>
       <c r="N13">
         <v>0.2668842195185722</v>
       </c>
       <c r="O13">
-        <v>1.6972548188454</v>
+        <v>1.697254818845404</v>
       </c>
       <c r="P13">
-        <v>0.8866874628188154</v>
+        <v>0.8866874628188169</v>
       </c>
       <c r="Q13">
-        <v>0.8483600777107064</v>
+        <v>0.848360077710708</v>
       </c>
       <c r="R13">
-        <v>0.6800863817187343</v>
+        <v>0.6800863817187354</v>
       </c>
       <c r="S13">
-        <v>0.5909467540712144</v>
+        <v>0.5909467540712154</v>
       </c>
       <c r="T13">
-        <v>0.6800863817187343</v>
+        <v>0.6800863817187354</v>
       </c>
       <c r="U13">
-        <v>0.5099311204330538</v>
+        <v>0.5099311204330546</v>
       </c>
       <c r="V13">
-        <v>0.4613217402501575</v>
+        <v>0.4613217402501581</v>
       </c>
       <c r="W13">
-        <v>0.6796575315632556</v>
+        <v>0.6796575315632558</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1434,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0009333249709170212</v>
+        <v>-0.001364000892881431</v>
       </c>
       <c r="D14">
-        <v>0.001299818628763659</v>
+        <v>0.0006595902111376068</v>
       </c>
       <c r="E14">
-        <v>5.662840107515388</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="F14">
-        <v>0.0009333249709170212</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="G14">
-        <v>0.001016163595548627</v>
+        <v>0.001016163595548628</v>
       </c>
       <c r="H14">
         <v>1.991361344825924</v>
       </c>
       <c r="I14">
-        <v>0.0009333249709170212</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="J14">
-        <v>0.001299818628763659</v>
+        <v>0.00129981862876366</v>
       </c>
       <c r="K14">
-        <v>1.902531458530388</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="L14">
-        <v>-0.001364000892881435</v>
+        <v>0.00129981862876366</v>
       </c>
       <c r="M14">
-        <v>0.0006595902111376061</v>
+        <v>1.90253145853039</v>
       </c>
       <c r="N14">
-        <v>0.0009333249709170212</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="O14">
-        <v>5.662840107515388</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="P14">
-        <v>2.832069963072076</v>
+        <v>2.832069963072077</v>
       </c>
       <c r="Q14">
-        <v>2.831928135555468</v>
+        <v>2.83192813555547</v>
       </c>
       <c r="R14">
-        <v>1.888357750371689</v>
+        <v>1.88835775037169</v>
       </c>
       <c r="S14">
-        <v>1.888385363246567</v>
+        <v>1.888385363246568</v>
       </c>
       <c r="T14">
-        <v>1.88835775037169</v>
+        <v>1.888357750371691</v>
       </c>
       <c r="U14">
-        <v>1.416522353677654</v>
+        <v>1.416522353677655</v>
       </c>
       <c r="V14">
-        <v>1.133404547936307</v>
+        <v>1.133404547936308</v>
       </c>
       <c r="W14">
-        <v>1.194909725923148</v>
+        <v>1.194909725923149</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,40 +1505,40 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.005684776776117817</v>
+        <v>3.858319634524489</v>
       </c>
       <c r="D15">
-        <v>0.07655865009750248</v>
+        <v>3.807085785628126</v>
       </c>
       <c r="E15">
-        <v>-0.003057026860527989</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="F15">
-        <v>0.005684776776117817</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="G15">
-        <v>2.936446157337572</v>
+        <v>2.93644615733757</v>
       </c>
       <c r="H15">
         <v>0.01875732023250777</v>
       </c>
       <c r="I15">
-        <v>0.005684776776117817</v>
+        <v>-0.003057026860527989</v>
       </c>
       <c r="J15">
         <v>0.07655865009750248</v>
       </c>
       <c r="K15">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="L15">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="M15">
         <v>0.7129752475942677</v>
       </c>
-      <c r="L15">
-        <v>3.858319634524488</v>
-      </c>
-      <c r="M15">
-        <v>3.807085785628126</v>
-      </c>
       <c r="N15">
-        <v>0.005684776776117817</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="O15">
         <v>-0.003057026860527989</v>
@@ -1535,25 +1547,25 @@
         <v>0.03675081161848725</v>
       </c>
       <c r="Q15">
-        <v>1.466694565238522</v>
+        <v>1.466694565238521</v>
       </c>
       <c r="R15">
         <v>0.02639546667103077</v>
       </c>
       <c r="S15">
-        <v>1.003315926858182</v>
+        <v>1.003315926858181</v>
       </c>
       <c r="T15">
         <v>0.02639546667103077</v>
       </c>
       <c r="U15">
-        <v>0.7539081393376661</v>
+        <v>0.7539081393376657</v>
       </c>
       <c r="V15">
-        <v>0.6042634668253564</v>
+        <v>0.604263466825356</v>
       </c>
       <c r="W15">
-        <v>1.426596318166257</v>
+        <v>1.426596318166256</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.062218107741695</v>
+        <v>0.2179671887376412</v>
       </c>
       <c r="D16">
-        <v>1.150893446067447</v>
+        <v>0.3092177493034216</v>
       </c>
       <c r="E16">
-        <v>1.060023662965842</v>
+        <v>0.2119613283250014</v>
       </c>
       <c r="F16">
-        <v>1.062218107741695</v>
+        <v>0.2119613283250014</v>
       </c>
       <c r="G16">
-        <v>0.9686661833691701</v>
+        <v>0.2352422879143565</v>
       </c>
       <c r="H16">
-        <v>0.9910141812646014</v>
+        <v>0.2028186778581423</v>
       </c>
       <c r="I16">
-        <v>1.062218107743488</v>
+        <v>5.90432915905315</v>
       </c>
       <c r="J16">
-        <v>1.150893446067447</v>
+        <v>13.47578997523037</v>
       </c>
       <c r="K16">
-        <v>1.029839181484024</v>
+        <v>0.2119613283252929</v>
       </c>
       <c r="L16">
-        <v>1.026248589124736</v>
+        <v>13.47578997523037</v>
       </c>
       <c r="M16">
-        <v>1.007594885056926</v>
+        <v>5.505987311570028</v>
       </c>
       <c r="N16">
-        <v>1.062218107741695</v>
+        <v>0.2119613283250014</v>
       </c>
       <c r="O16">
-        <v>1.060023662965842</v>
+        <v>5.90432915905315</v>
       </c>
       <c r="P16">
-        <v>1.105458554516645</v>
+        <v>9.690059567141759</v>
       </c>
       <c r="Q16">
-        <v>1.014344923167506</v>
+        <v>3.069785723483753</v>
       </c>
       <c r="R16">
-        <v>1.091045072258328</v>
+        <v>6.530693487536173</v>
       </c>
       <c r="S16">
-        <v>1.059861097467486</v>
+        <v>6.538453807399292</v>
       </c>
       <c r="T16">
-        <v>1.091045072258328</v>
+        <v>6.530693487536173</v>
       </c>
       <c r="U16">
-        <v>1.060450350036038</v>
+        <v>4.956830687630719</v>
       </c>
       <c r="V16">
-        <v>1.06080390157717</v>
+        <v>4.007856815769575</v>
       </c>
       <c r="W16">
-        <v>1.037062279634305</v>
+        <v>3.257914209749013</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.049812161454246</v>
+        <v>0.4299333893958047</v>
       </c>
       <c r="D17">
-        <v>1.034561228736717</v>
+        <v>0.6203857807520221</v>
       </c>
       <c r="E17">
-        <v>1.269180127219735</v>
+        <v>0.4159938373276375</v>
       </c>
       <c r="F17">
-        <v>1.049812161454246</v>
+        <v>0.4159938373276375</v>
       </c>
       <c r="G17">
-        <v>0.952757878276176</v>
+        <v>0.4680117329088131</v>
       </c>
       <c r="H17">
-        <v>0.9725321742630381</v>
+        <v>0.3991036309063067</v>
       </c>
       <c r="I17">
-        <v>1.049812161456146</v>
+        <v>4.233642389959091</v>
       </c>
       <c r="J17">
-        <v>1.034561228736717</v>
+        <v>11.97567895452779</v>
       </c>
       <c r="K17">
-        <v>0.9909104060911842</v>
+        <v>0.4159938373282199</v>
       </c>
       <c r="L17">
-        <v>1.027091435416443</v>
+        <v>11.97567895452779</v>
       </c>
       <c r="M17">
-        <v>1.045230815256589</v>
+        <v>3.98526017832451</v>
       </c>
       <c r="N17">
-        <v>1.049812161454246</v>
+        <v>0.4159938373276375</v>
       </c>
       <c r="O17">
-        <v>1.269180127219735</v>
+        <v>4.233642389959091</v>
       </c>
       <c r="P17">
-        <v>1.151870677978226</v>
+        <v>8.104660672243439</v>
       </c>
       <c r="Q17">
-        <v>1.110969002747956</v>
+        <v>2.350827061433952</v>
       </c>
       <c r="R17">
-        <v>1.117851172470232</v>
+        <v>5.541771727271505</v>
       </c>
       <c r="S17">
-        <v>1.085499744744209</v>
+        <v>5.559111025798564</v>
       </c>
       <c r="T17">
-        <v>1.117851172470232</v>
+        <v>5.541771727271505</v>
       </c>
       <c r="U17">
-        <v>1.076577848921718</v>
+        <v>4.273331728680832</v>
       </c>
       <c r="V17">
-        <v>1.071224711428224</v>
+        <v>3.501864150410193</v>
       </c>
       <c r="W17">
-        <v>1.042759528339266</v>
+        <v>2.816001236762746</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.104064999356279</v>
+        <v>0.6219307062740942</v>
       </c>
       <c r="D18">
-        <v>2.775420529397656</v>
+        <v>1.475463281627245</v>
       </c>
       <c r="E18">
-        <v>0.8758428683238579</v>
+        <v>0.3942072804449904</v>
       </c>
       <c r="F18">
-        <v>1.104064999356279</v>
+        <v>0.3942072804449904</v>
       </c>
       <c r="G18">
-        <v>1.104437088293052</v>
+        <v>1.10013486560604</v>
       </c>
       <c r="H18">
-        <v>1.17910866446508</v>
+        <v>0.7433270848639471</v>
       </c>
       <c r="I18">
-        <v>1.104064999358227</v>
+        <v>0.900996048696729</v>
       </c>
       <c r="J18">
-        <v>2.775420529397656</v>
+        <v>9.234534788900751</v>
       </c>
       <c r="K18">
-        <v>0.992795326911782</v>
+        <v>0.3942072804474389</v>
       </c>
       <c r="L18">
-        <v>1.498199338225459</v>
+        <v>9.234534788900751</v>
       </c>
       <c r="M18">
-        <v>0.6992874811572578</v>
+        <v>0.9993344601236707</v>
       </c>
       <c r="N18">
-        <v>1.104064999356279</v>
+        <v>0.3942072804449904</v>
       </c>
       <c r="O18">
-        <v>0.8758428683238579</v>
+        <v>0.900996048696729</v>
       </c>
       <c r="P18">
-        <v>1.825631698860757</v>
+        <v>5.06776541879874</v>
       </c>
       <c r="Q18">
-        <v>0.9901399783084548</v>
+        <v>1.000565457151384</v>
       </c>
       <c r="R18">
-        <v>1.585109465692598</v>
+        <v>3.509912706014157</v>
       </c>
       <c r="S18">
-        <v>1.585233495338189</v>
+        <v>3.74522190106784</v>
       </c>
       <c r="T18">
-        <v>1.585109465692597</v>
+        <v>3.509912706014157</v>
       </c>
       <c r="U18">
-        <v>1.464941371342711</v>
+        <v>2.907468245912127</v>
       </c>
       <c r="V18">
-        <v>1.392766096945425</v>
+        <v>2.4048160528187</v>
       </c>
       <c r="W18">
-        <v>1.278644537016303</v>
+        <v>1.933741064567183</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.941458222140377</v>
+      </c>
+      <c r="D19">
+        <v>1.21897293243506</v>
+      </c>
+      <c r="E19">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="F19">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="G19">
+        <v>0.9548825966132696</v>
+      </c>
+      <c r="H19">
+        <v>0.8801780364445475</v>
+      </c>
+      <c r="I19">
+        <v>1.868943493929029</v>
+      </c>
+      <c r="J19">
+        <v>12.06395099672126</v>
+      </c>
+      <c r="K19">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="L19">
+        <v>12.06395099672126</v>
+      </c>
+      <c r="M19">
+        <v>1.076693989248792</v>
+      </c>
+      <c r="N19">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="O19">
+        <v>1.868943493929029</v>
+      </c>
+      <c r="P19">
+        <v>6.966447245325142</v>
+      </c>
+      <c r="Q19">
+        <v>1.411913045271149</v>
+      </c>
+      <c r="R19">
+        <v>5.560276627873215</v>
+      </c>
+      <c r="S19">
+        <v>4.962592362421185</v>
+      </c>
+      <c r="T19">
+        <v>5.560276627873215</v>
+      </c>
+      <c r="U19">
+        <v>4.408928120058229</v>
+      </c>
+      <c r="V19">
+        <v>4.076729574640455</v>
+      </c>
+      <c r="W19">
+        <v>2.719126957562711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.026248589124736</v>
+      </c>
+      <c r="D20">
+        <v>1.007594885056926</v>
+      </c>
+      <c r="E20">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="F20">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="G20">
+        <v>0.9686661833691709</v>
+      </c>
+      <c r="H20">
+        <v>0.9910141812646016</v>
+      </c>
+      <c r="I20">
+        <v>1.060023662965844</v>
+      </c>
+      <c r="J20">
+        <v>1.150893446067454</v>
+      </c>
+      <c r="K20">
+        <v>1.062218107743487</v>
+      </c>
+      <c r="L20">
+        <v>1.150893446067454</v>
+      </c>
+      <c r="M20">
+        <v>1.029839181484026</v>
+      </c>
+      <c r="N20">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="O20">
+        <v>1.060023662965844</v>
+      </c>
+      <c r="P20">
+        <v>1.105458554516649</v>
+      </c>
+      <c r="Q20">
+        <v>1.014344923167507</v>
+      </c>
+      <c r="R20">
+        <v>1.091045072258331</v>
+      </c>
+      <c r="S20">
+        <v>1.05986109746749</v>
+      </c>
+      <c r="T20">
+        <v>1.091045072258331</v>
+      </c>
+      <c r="U20">
+        <v>1.060450350036041</v>
+      </c>
+      <c r="V20">
+        <v>1.060803901577172</v>
+      </c>
+      <c r="W20">
+        <v>1.037062279634307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.027091435416442</v>
+      </c>
+      <c r="D21">
+        <v>1.045230815256589</v>
+      </c>
+      <c r="E21">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="F21">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="G21">
+        <v>0.9527578782761765</v>
+      </c>
+      <c r="H21">
+        <v>0.9725321742630381</v>
+      </c>
+      <c r="I21">
+        <v>1.269180127219735</v>
+      </c>
+      <c r="J21">
+        <v>1.034561228736723</v>
+      </c>
+      <c r="K21">
+        <v>1.049812161456146</v>
+      </c>
+      <c r="L21">
+        <v>1.034561228736723</v>
+      </c>
+      <c r="M21">
+        <v>0.9909104060911872</v>
+      </c>
+      <c r="N21">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="O21">
+        <v>1.269180127219735</v>
+      </c>
+      <c r="P21">
+        <v>1.151870677978229</v>
+      </c>
+      <c r="Q21">
+        <v>1.110969002747956</v>
+      </c>
+      <c r="R21">
+        <v>1.117851172470234</v>
+      </c>
+      <c r="S21">
+        <v>1.085499744744211</v>
+      </c>
+      <c r="T21">
+        <v>1.117851172470234</v>
+      </c>
+      <c r="U21">
+        <v>1.07657784892172</v>
+      </c>
+      <c r="V21">
+        <v>1.071224711428225</v>
+      </c>
+      <c r="W21">
+        <v>1.042759528339267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.498199338225459</v>
+      </c>
+      <c r="D22">
+        <v>0.6992874811572577</v>
+      </c>
+      <c r="E22">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="F22">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="G22">
+        <v>1.104437088293051</v>
+      </c>
+      <c r="H22">
+        <v>1.179108664465079</v>
+      </c>
+      <c r="I22">
+        <v>0.8758428683238585</v>
+      </c>
+      <c r="J22">
+        <v>2.775420529397673</v>
+      </c>
+      <c r="K22">
+        <v>1.10406499935823</v>
+      </c>
+      <c r="L22">
+        <v>2.775420529397673</v>
+      </c>
+      <c r="M22">
+        <v>0.9927953269117892</v>
+      </c>
+      <c r="N22">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="O22">
+        <v>0.8758428683238585</v>
+      </c>
+      <c r="P22">
+        <v>1.825631698860766</v>
+      </c>
+      <c r="Q22">
+        <v>0.9901399783084548</v>
+      </c>
+      <c r="R22">
+        <v>1.585109465692604</v>
+      </c>
+      <c r="S22">
+        <v>1.585233495338194</v>
+      </c>
+      <c r="T22">
+        <v>1.585109465692604</v>
+      </c>
+      <c r="U22">
+        <v>1.464941371342716</v>
+      </c>
+      <c r="V22">
+        <v>1.392766096945429</v>
+      </c>
+      <c r="W22">
+        <v>1.278644537016306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7871375055268828</v>
+      </c>
+      <c r="D23">
+        <v>0.6028551504708676</v>
+      </c>
+      <c r="E23">
         <v>4.028139937888379</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>4.028139937888379</v>
+      </c>
+      <c r="G23">
+        <v>1.117218460343187</v>
+      </c>
+      <c r="H23">
+        <v>0.4713707287678641</v>
+      </c>
+      <c r="I23">
+        <v>2.310621415691346</v>
+      </c>
+      <c r="J23">
         <v>3.197212598329465</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>4.028139937894657</v>
+      </c>
+      <c r="L23">
+        <v>3.197212598329465</v>
+      </c>
+      <c r="M23">
+        <v>1.794258923332996</v>
+      </c>
+      <c r="N23">
+        <v>4.028139937888379</v>
+      </c>
+      <c r="O23">
         <v>2.310621415691346</v>
       </c>
-      <c r="F19">
-        <v>4.028139937888379</v>
-      </c>
-      <c r="G19">
-        <v>1.117218460343187</v>
-      </c>
-      <c r="H19">
-        <v>0.4713707287678641</v>
-      </c>
-      <c r="I19">
-        <v>4.028139937894657</v>
-      </c>
-      <c r="J19">
-        <v>3.197212598329465</v>
-      </c>
-      <c r="K19">
-        <v>1.794258923332996</v>
-      </c>
-      <c r="L19">
-        <v>0.7871375055268828</v>
-      </c>
-      <c r="M19">
-        <v>0.6028551504708675</v>
-      </c>
-      <c r="N19">
-        <v>4.028139937888379</v>
-      </c>
-      <c r="O19">
-        <v>2.310621415691346</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>2.753917007010406</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.713919938017267</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>3.17865798396973</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>2.208350824787999</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>3.17865798396973</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>2.663298103063094</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>2.936266470028151</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.788601840043873</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9518439998348921</v>
+        <v>0.8033994200670552</v>
       </c>
       <c r="D3">
-        <v>0.9413475918122129</v>
+        <v>1.168532644563931</v>
       </c>
       <c r="E3">
-        <v>1.002853755966888</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="F3">
-        <v>1.002853755966888</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="G3">
-        <v>0.9057265489535908</v>
+        <v>0.8782780386560352</v>
       </c>
       <c r="H3">
-        <v>0.98688276428229</v>
+        <v>0.7445996272450731</v>
       </c>
       <c r="I3">
-        <v>1.440273933037233</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="J3">
-        <v>1.862650488274755</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="K3">
-        <v>1.002853755968567</v>
+        <v>0.7757359682528834</v>
       </c>
       <c r="L3">
-        <v>1.862650488274755</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="M3">
-        <v>1.286431746921009</v>
+        <v>1.137166396854141</v>
       </c>
       <c r="N3">
-        <v>1.002853755966888</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="O3">
-        <v>1.440273933037233</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="P3">
-        <v>1.651462210655994</v>
+        <v>7.922845433970477</v>
       </c>
       <c r="Q3">
-        <v>1.173000240995412</v>
+        <v>0.993437926983901</v>
       </c>
       <c r="R3">
-        <v>1.435259392426292</v>
+        <v>5.540475612064246</v>
       </c>
       <c r="S3">
-        <v>1.402883656755193</v>
+        <v>5.574656302198997</v>
       </c>
       <c r="T3">
-        <v>1.435259392426292</v>
+        <v>5.540475612064248</v>
       </c>
       <c r="U3">
-        <v>1.302876181558117</v>
+        <v>4.374926218712194</v>
       </c>
       <c r="V3">
-        <v>1.242871696439871</v>
+        <v>3.655088168620113</v>
       </c>
       <c r="W3">
-        <v>1.172251353635359</v>
+        <v>2.669175370447372</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.094766638821215</v>
+        <v>0.831150818423395</v>
       </c>
       <c r="D4">
-        <v>1.001838806798646</v>
+        <v>1.209272055771207</v>
       </c>
       <c r="E4">
-        <v>1.443800398608962</v>
+        <v>0.8023018010019171</v>
       </c>
       <c r="F4">
-        <v>1.443800398608962</v>
+        <v>0.8023018010019171</v>
       </c>
       <c r="G4">
-        <v>0.8111440266393395</v>
+        <v>0.9086575922956935</v>
       </c>
       <c r="H4">
-        <v>0.836670235240165</v>
+        <v>0.7704943642754828</v>
       </c>
       <c r="I4">
-        <v>1.803825817211899</v>
+        <v>0.9945940701036247</v>
       </c>
       <c r="J4">
-        <v>2.991034724528391</v>
+        <v>11.42113845864026</v>
       </c>
       <c r="K4">
-        <v>1.443800398609963</v>
+        <v>0.8023018010030486</v>
       </c>
       <c r="L4">
-        <v>2.991034724528391</v>
+        <v>11.42113845864026</v>
       </c>
       <c r="M4">
-        <v>1.79393951256975</v>
+        <v>1.035311385745036</v>
       </c>
       <c r="N4">
-        <v>1.443800398608962</v>
+        <v>0.8023018010019171</v>
       </c>
       <c r="O4">
-        <v>1.803825817211899</v>
+        <v>0.9945940701036247</v>
       </c>
       <c r="P4">
-        <v>2.397430270870145</v>
+        <v>6.207866264371943</v>
       </c>
       <c r="Q4">
-        <v>1.307484921925619</v>
+        <v>0.951625831199659</v>
       </c>
       <c r="R4">
-        <v>2.079553646783084</v>
+        <v>4.406011443248601</v>
       </c>
       <c r="S4">
-        <v>1.868668189459876</v>
+        <v>4.44146337367986</v>
       </c>
       <c r="T4">
-        <v>2.079553646783084</v>
+        <v>4.406011443248601</v>
       </c>
       <c r="U4">
-        <v>1.762451241747148</v>
+        <v>3.531672980510374</v>
       </c>
       <c r="V4">
-        <v>1.698721073119511</v>
+        <v>2.985798744608683</v>
       </c>
       <c r="W4">
-        <v>1.472127520052296</v>
+        <v>2.246615068282077</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2127976468002453</v>
+        <v>0.1478693503367923</v>
       </c>
       <c r="D5">
-        <v>0.3563809111954455</v>
+        <v>1.152231548909165</v>
       </c>
       <c r="E5">
-        <v>4.325800911525429</v>
+        <v>0.08586043116280331</v>
       </c>
       <c r="F5">
-        <v>4.325800911525429</v>
+        <v>0.08586043116280331</v>
       </c>
       <c r="G5">
-        <v>0.8697970861287999</v>
+        <v>0.6332190377172511</v>
       </c>
       <c r="H5">
-        <v>0.6684795119019331</v>
+        <v>0.334944719737574</v>
       </c>
       <c r="I5">
-        <v>1.104178410367038</v>
+        <v>0.3681736606449864</v>
       </c>
       <c r="J5">
-        <v>9.546682800245824</v>
+        <v>28.08878555819068</v>
       </c>
       <c r="K5">
-        <v>4.325800911526835</v>
+        <v>0.08586043116495963</v>
       </c>
       <c r="L5">
-        <v>9.546682800245824</v>
+        <v>28.08878555819068</v>
       </c>
       <c r="M5">
-        <v>2.231337790024087</v>
+        <v>0.852921092427764</v>
       </c>
       <c r="N5">
-        <v>4.325800911525429</v>
+        <v>0.08586043116280331</v>
       </c>
       <c r="O5">
-        <v>1.104178410367038</v>
+        <v>0.3681736606449864</v>
       </c>
       <c r="P5">
-        <v>5.325430605306431</v>
+        <v>14.22847960941783</v>
       </c>
       <c r="Q5">
-        <v>0.9869877482479188</v>
+        <v>0.5006963491811187</v>
       </c>
       <c r="R5">
-        <v>4.99222070737943</v>
+        <v>9.514273216666156</v>
       </c>
       <c r="S5">
-        <v>3.840219432247221</v>
+        <v>9.696726085517639</v>
       </c>
       <c r="T5">
-        <v>4.99222070737943</v>
+        <v>9.514273216666156</v>
       </c>
       <c r="U5">
-        <v>3.961614802066773</v>
+        <v>7.29400967192893</v>
       </c>
       <c r="V5">
-        <v>4.034452023958504</v>
+        <v>5.852379823775705</v>
       </c>
       <c r="W5">
-        <v>2.4144318835236</v>
+        <v>3.958000674890877</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.064405177639875</v>
+        <v>0.08768360332698862</v>
       </c>
       <c r="D6">
-        <v>0.05172949035102603</v>
+        <v>1.848931057136135</v>
       </c>
       <c r="E6">
-        <v>0.01289803527428562</v>
+        <v>0.1947517225497726</v>
       </c>
       <c r="F6">
-        <v>0.01289803527428562</v>
+        <v>0.1947517225497726</v>
       </c>
       <c r="G6">
-        <v>0.01332577028389152</v>
+        <v>0.514368072458522</v>
       </c>
       <c r="H6">
-        <v>0.003654682730435186</v>
+        <v>2.087039623760225</v>
       </c>
       <c r="I6">
-        <v>10.54075553230764</v>
+        <v>6.192191880765054</v>
       </c>
       <c r="J6">
-        <v>19.85370541956058</v>
+        <v>42.66587110349627</v>
       </c>
       <c r="K6">
-        <v>0.01289803527428562</v>
+        <v>0.1947517225497726</v>
       </c>
       <c r="L6">
-        <v>19.85370541956058</v>
+        <v>42.66587110349627</v>
       </c>
       <c r="M6">
-        <v>3.606664172698842</v>
+        <v>1.671494954385113</v>
       </c>
       <c r="N6">
-        <v>0.01289803527428562</v>
+        <v>0.1947517225497726</v>
       </c>
       <c r="O6">
-        <v>10.54075553230764</v>
+        <v>6.192191880765054</v>
       </c>
       <c r="P6">
-        <v>15.19723047593411</v>
+        <v>24.42903149213066</v>
       </c>
       <c r="Q6">
-        <v>5.277040651295764</v>
+        <v>3.353279976611788</v>
       </c>
       <c r="R6">
-        <v>10.1357863290475</v>
+        <v>16.3509382356037</v>
       </c>
       <c r="S6">
-        <v>10.13592890738403</v>
+        <v>16.45747701890662</v>
       </c>
       <c r="T6">
-        <v>10.1357863290475</v>
+        <v>16.3509382356037</v>
       </c>
       <c r="U6">
-        <v>7.605171189356598</v>
+        <v>12.39179569481741</v>
       </c>
       <c r="V6">
-        <v>6.086716558540136</v>
+        <v>9.95238690036388</v>
       </c>
       <c r="W6">
-        <v>4.393392285105821</v>
+        <v>6.90779150223476</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.024943893890108</v>
+        <v>0.005714678729103419</v>
       </c>
       <c r="D7">
-        <v>1.0125102840993</v>
+        <v>-0.002698933704955895</v>
       </c>
       <c r="E7">
-        <v>1.062896450397883</v>
+        <v>0.007184335643263005</v>
       </c>
       <c r="F7">
-        <v>1.062896450397883</v>
+        <v>0.007184335643263005</v>
       </c>
       <c r="G7">
-        <v>0.9684918214344014</v>
+        <v>0.001748111613018092</v>
       </c>
       <c r="H7">
-        <v>0.9884185465195107</v>
+        <v>0.006906523691801818</v>
       </c>
       <c r="I7">
-        <v>1.078871386231728</v>
+        <v>7.975460040316727</v>
       </c>
       <c r="J7">
-        <v>1.25001949770131</v>
+        <v>9.499429036605886</v>
       </c>
       <c r="K7">
-        <v>1.062896450399661</v>
+        <v>0.007184335643263005</v>
       </c>
       <c r="L7">
-        <v>1.25001949770131</v>
+        <v>9.499429036605886</v>
       </c>
       <c r="M7">
-        <v>1.000354597821868</v>
+        <v>7.395630558042197</v>
       </c>
       <c r="N7">
-        <v>1.062896450397883</v>
+        <v>0.007184335643263005</v>
       </c>
       <c r="O7">
-        <v>1.078871386231728</v>
+        <v>7.975460040316727</v>
       </c>
       <c r="P7">
-        <v>1.164445441966519</v>
+        <v>8.737444538461306</v>
       </c>
       <c r="Q7">
-        <v>1.023681603833065</v>
+        <v>3.988604075964873</v>
       </c>
       <c r="R7">
-        <v>1.130595778110307</v>
+        <v>5.827357804188625</v>
       </c>
       <c r="S7">
-        <v>1.099127568455813</v>
+        <v>5.825545729511877</v>
       </c>
       <c r="T7">
-        <v>1.130595778110307</v>
+        <v>5.827357804188625</v>
       </c>
       <c r="U7">
-        <v>1.09006978894133</v>
+        <v>4.370955381044723</v>
       </c>
       <c r="V7">
-        <v>1.084635121232641</v>
+        <v>3.498201171964431</v>
       </c>
       <c r="W7">
-        <v>1.048313309762014</v>
+        <v>3.11117179386713</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.021664274477626</v>
+        <v>0.005686821217464808</v>
       </c>
       <c r="D8">
-        <v>1.01798871746466</v>
+        <v>-0.002697053577534179</v>
       </c>
       <c r="E8">
-        <v>1.068961970420819</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="F8">
-        <v>1.068961970420819</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="G8">
-        <v>0.9714498775150737</v>
+        <v>0.001767806298157122</v>
       </c>
       <c r="H8">
-        <v>0.9591648694763109</v>
+        <v>0.006797690420938631</v>
       </c>
       <c r="I8">
-        <v>1.028985008112402</v>
+        <v>7.932338314292</v>
       </c>
       <c r="J8">
-        <v>1.579652501667978</v>
+        <v>10.37533369913002</v>
       </c>
       <c r="K8">
-        <v>1.068961970422598</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="L8">
-        <v>1.579652501667978</v>
+        <v>10.37533369913002</v>
       </c>
       <c r="M8">
-        <v>0.9995439322213695</v>
+        <v>7.35344715735545</v>
       </c>
       <c r="N8">
-        <v>1.068961970420819</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="O8">
-        <v>1.028985008112402</v>
+        <v>7.932338314292</v>
       </c>
       <c r="P8">
-        <v>1.30431875489019</v>
+        <v>9.153836006711012</v>
       </c>
       <c r="Q8">
-        <v>1.000217442813738</v>
+        <v>3.967053060295079</v>
       </c>
       <c r="R8">
-        <v>1.2258664934004</v>
+        <v>6.104963798678074</v>
       </c>
       <c r="S8">
-        <v>1.193362462431818</v>
+        <v>6.103146606573394</v>
       </c>
       <c r="T8">
-        <v>1.2258664934004</v>
+        <v>6.104963798678074</v>
       </c>
       <c r="U8">
-        <v>1.162262339429068</v>
+        <v>4.579164800583095</v>
       </c>
       <c r="V8">
-        <v>1.143602265627418</v>
+        <v>3.664775716988916</v>
       </c>
       <c r="W8">
-        <v>1.08092639391953</v>
+        <v>3.209986727218587</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9742049012523942</v>
+        <v>0.005661895473879955</v>
       </c>
       <c r="D9">
-        <v>0.9877424830965877</v>
+        <v>-0.002709477166576444</v>
       </c>
       <c r="E9">
-        <v>1.015425301342157</v>
+        <v>0.007249258054367525</v>
       </c>
       <c r="F9">
-        <v>1.015425301342157</v>
+        <v>0.007249258054367525</v>
       </c>
       <c r="G9">
-        <v>0.9865331482597052</v>
+        <v>0.001778124994170824</v>
       </c>
       <c r="H9">
-        <v>0.9861735050139437</v>
+        <v>0.006703260742297735</v>
       </c>
       <c r="I9">
-        <v>1.213106083665407</v>
+        <v>7.904367547207143</v>
       </c>
       <c r="J9">
-        <v>2.031858066989684</v>
+        <v>11.30326671622224</v>
       </c>
       <c r="K9">
-        <v>1.015425301344283</v>
+        <v>0.007249258054367525</v>
       </c>
       <c r="L9">
-        <v>2.031858066989684</v>
+        <v>11.30326671622224</v>
       </c>
       <c r="M9">
-        <v>0.9192412441951973</v>
+        <v>7.320642564678172</v>
       </c>
       <c r="N9">
-        <v>1.015425301342157</v>
+        <v>0.007249258054367525</v>
       </c>
       <c r="O9">
-        <v>1.213106083665407</v>
+        <v>7.904367547207143</v>
       </c>
       <c r="P9">
-        <v>1.622482075327546</v>
+        <v>9.603817131714694</v>
       </c>
       <c r="Q9">
-        <v>1.099819615962556</v>
+        <v>3.953072836100657</v>
       </c>
       <c r="R9">
-        <v>1.420129817332416</v>
+        <v>6.404961173827918</v>
       </c>
       <c r="S9">
-        <v>1.410499099638265</v>
+        <v>6.403137462807853</v>
       </c>
       <c r="T9">
-        <v>1.420129817332416</v>
+        <v>6.404961173827918</v>
       </c>
       <c r="U9">
-        <v>1.311730650064239</v>
+        <v>4.804165411619482</v>
       </c>
       <c r="V9">
-        <v>1.252469580319822</v>
+        <v>3.844782180906459</v>
       </c>
       <c r="W9">
-        <v>1.139285591726884</v>
+        <v>3.318369986275712</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.969201385146827</v>
+        <v>0.00555576334690631</v>
       </c>
       <c r="D10">
-        <v>1.181994563490855</v>
+        <v>-0.002794266398895914</v>
       </c>
       <c r="E10">
-        <v>1.263274683534825</v>
+        <v>0.007346101482294211</v>
       </c>
       <c r="F10">
-        <v>1.263274683534825</v>
+        <v>0.007346101482294211</v>
       </c>
       <c r="G10">
-        <v>0.8677554523987608</v>
+        <v>0.001799740255752188</v>
       </c>
       <c r="H10">
-        <v>1.091409663660522</v>
+        <v>0.00634680394034676</v>
       </c>
       <c r="I10">
-        <v>0.9356322853881383</v>
+        <v>7.789846729990922</v>
       </c>
       <c r="J10">
-        <v>3.387889300122104</v>
+        <v>15.13098804237654</v>
       </c>
       <c r="K10">
-        <v>1.263274683537503</v>
+        <v>0.007346101482294211</v>
       </c>
       <c r="L10">
-        <v>3.387889300122104</v>
+        <v>15.13098804237654</v>
       </c>
       <c r="M10">
-        <v>0.8882846229752197</v>
+        <v>7.203051389042459</v>
       </c>
       <c r="N10">
-        <v>1.263274683534825</v>
+        <v>0.007346101482294211</v>
       </c>
       <c r="O10">
-        <v>0.9356322853881383</v>
+        <v>7.789846729990922</v>
       </c>
       <c r="P10">
-        <v>2.161760792755121</v>
+        <v>11.46041738618373</v>
       </c>
       <c r="Q10">
-        <v>0.9016938688934495</v>
+        <v>3.895823235123337</v>
       </c>
       <c r="R10">
-        <v>1.862265423015022</v>
+        <v>7.642726957949919</v>
       </c>
       <c r="S10">
-        <v>1.730425679303001</v>
+        <v>7.640878170874405</v>
       </c>
       <c r="T10">
-        <v>1.862265423015022</v>
+        <v>7.642726957949919</v>
       </c>
       <c r="U10">
-        <v>1.613637930360957</v>
+        <v>5.732495153526378</v>
       </c>
       <c r="V10">
-        <v>1.54356528099573</v>
+        <v>4.587465343117561</v>
       </c>
       <c r="W10">
-        <v>1.323180244589656</v>
+        <v>3.767767538004541</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.283220587449607</v>
+        <v>0.9733901884775901</v>
       </c>
       <c r="D11">
-        <v>0.9891917288258566</v>
+        <v>0.9708367141743567</v>
       </c>
       <c r="E11">
-        <v>0.2498418413945074</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="F11">
-        <v>0.2498418413945074</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="G11">
-        <v>1.226500934908157</v>
+        <v>0.911339178797671</v>
       </c>
       <c r="H11">
-        <v>1.220456279489805</v>
+        <v>0.9454788830457518</v>
       </c>
       <c r="I11">
-        <v>2.519729572959944</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="J11">
-        <v>5.274845913743877</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="K11">
-        <v>0.2498418413982934</v>
+        <v>1.009520951504552</v>
       </c>
       <c r="L11">
-        <v>5.274845913743877</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="M11">
-        <v>0.8132505138282461</v>
+        <v>1.269316355992821</v>
       </c>
       <c r="N11">
-        <v>0.2498418413945074</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="O11">
-        <v>2.519729572959944</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="P11">
-        <v>3.89728774335191</v>
+        <v>1.538104661428882</v>
       </c>
       <c r="Q11">
-        <v>1.873115253934051</v>
+        <v>1.131126821169848</v>
       </c>
       <c r="R11">
-        <v>2.681472442699443</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="S11">
-        <v>3.007025473870659</v>
+        <v>1.329182833885145</v>
       </c>
       <c r="T11">
-        <v>2.681472442699443</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="U11">
-        <v>2.317729565751621</v>
+        <v>1.249267363289571</v>
       </c>
       <c r="V11">
-        <v>1.904152020880199</v>
+        <v>1.201318080932226</v>
       </c>
       <c r="W11">
-        <v>1.697129671575</v>
+        <v>1.1445114493561</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.001502850586985293</v>
+        <v>1.005629292666663</v>
       </c>
       <c r="D12">
-        <v>0.2744561344533932</v>
+        <v>0.9848852248997714</v>
       </c>
       <c r="E12">
-        <v>0.4085801478222008</v>
+        <v>1.032668150186278</v>
       </c>
       <c r="F12">
-        <v>0.4085801478222008</v>
+        <v>1.032668150186278</v>
       </c>
       <c r="G12">
-        <v>2.614807624490462</v>
+        <v>0.9422672898496941</v>
       </c>
       <c r="H12">
-        <v>0.03254713084656045</v>
+        <v>0.9630644871938258</v>
       </c>
       <c r="I12">
-        <v>0.003429442486612062</v>
+        <v>1.254518425453282</v>
       </c>
       <c r="J12">
-        <v>0.003550294424097217</v>
+        <v>1.451179220309336</v>
       </c>
       <c r="K12">
-        <v>0.4085801478222008</v>
+        <v>1.032668150188009</v>
       </c>
       <c r="L12">
-        <v>0.003550294424097217</v>
+        <v>1.451179220309336</v>
       </c>
       <c r="M12">
-        <v>-0.001257431911578386</v>
+        <v>1.153549486337303</v>
       </c>
       <c r="N12">
-        <v>0.4085801478222008</v>
+        <v>1.032668150186278</v>
       </c>
       <c r="O12">
-        <v>0.003429442486612062</v>
+        <v>1.254518425453282</v>
       </c>
       <c r="P12">
-        <v>0.00348986845535464</v>
+        <v>1.352848822881309</v>
       </c>
       <c r="Q12">
-        <v>1.309118533488537</v>
+        <v>1.098392857651488</v>
       </c>
       <c r="R12">
-        <v>0.1385199615776367</v>
+        <v>1.246121931982965</v>
       </c>
       <c r="S12">
-        <v>0.8739291204670571</v>
+        <v>1.215988311870771</v>
       </c>
       <c r="T12">
-        <v>0.1385199615776367</v>
+        <v>1.246121931982965</v>
       </c>
       <c r="U12">
-        <v>0.757591877305843</v>
+        <v>1.170158271449647</v>
       </c>
       <c r="V12">
-        <v>0.6877895314091146</v>
+        <v>1.142660247196973</v>
       </c>
       <c r="W12">
-        <v>0.4168263115030952</v>
+        <v>1.098470197112019</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.04034612682130263</v>
+        <v>0.2722113117768348</v>
       </c>
       <c r="D13">
-        <v>0.03795029131287164</v>
+        <v>1.019597783539567</v>
       </c>
       <c r="E13">
-        <v>0.2668842195185722</v>
+        <v>0.1507622636442133</v>
       </c>
       <c r="F13">
-        <v>0.2668842195185722</v>
+        <v>0.1507622636442133</v>
       </c>
       <c r="G13">
-        <v>-0.0005346634239876048</v>
+        <v>0.6250705138909759</v>
       </c>
       <c r="H13">
-        <v>0.6139002432027721</v>
+        <v>0.3866796844877623</v>
       </c>
       <c r="I13">
-        <v>1.697254818845404</v>
+        <v>0.5053091765052842</v>
       </c>
       <c r="J13">
-        <v>0.0761201067922304</v>
+        <v>5.340041742398205</v>
       </c>
       <c r="K13">
-        <v>0.2668842195185722</v>
+        <v>0.1507622636458717</v>
       </c>
       <c r="L13">
-        <v>0.0761201067922304</v>
+        <v>5.340041742398205</v>
       </c>
       <c r="M13">
-        <v>2.705339109436882</v>
+        <v>0.9449776926541125</v>
       </c>
       <c r="N13">
-        <v>0.2668842195185722</v>
+        <v>0.1507622636442133</v>
       </c>
       <c r="O13">
-        <v>1.697254818845404</v>
+        <v>0.5053091765052842</v>
       </c>
       <c r="P13">
-        <v>0.8866874628188169</v>
+        <v>2.922675459451745</v>
       </c>
       <c r="Q13">
-        <v>0.848360077710708</v>
+        <v>0.5651898451981301</v>
       </c>
       <c r="R13">
-        <v>0.6800863817187354</v>
+        <v>1.998704394182568</v>
       </c>
       <c r="S13">
-        <v>0.5909467540712154</v>
+        <v>2.156807144264822</v>
       </c>
       <c r="T13">
-        <v>0.6800863817187354</v>
+        <v>1.998704394182568</v>
       </c>
       <c r="U13">
-        <v>0.5099311204330546</v>
+        <v>1.65529592410967</v>
       </c>
       <c r="V13">
-        <v>0.4613217402501581</v>
+        <v>1.354389192016578</v>
       </c>
       <c r="W13">
-        <v>0.6796575315632558</v>
+        <v>1.155581271112119</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.001364000892881431</v>
+        <v>0.03805255715566781</v>
       </c>
       <c r="D14">
-        <v>0.0006595902111376068</v>
+        <v>0.6626510895728048</v>
       </c>
       <c r="E14">
-        <v>0.0009333249709170174</v>
+        <v>0.1172907748335155</v>
       </c>
       <c r="F14">
-        <v>0.0009333249709170174</v>
+        <v>0.1172907748335155</v>
       </c>
       <c r="G14">
-        <v>0.001016163595548628</v>
+        <v>0.8308721078684658</v>
       </c>
       <c r="H14">
-        <v>1.991361344825924</v>
+        <v>1.859295373082106</v>
       </c>
       <c r="I14">
-        <v>5.662840107515391</v>
+        <v>6.376756031858156</v>
       </c>
       <c r="J14">
-        <v>0.00129981862876366</v>
+        <v>11.64251445331799</v>
       </c>
       <c r="K14">
-        <v>0.0009333249709170174</v>
+        <v>0.1172907748335155</v>
       </c>
       <c r="L14">
-        <v>0.00129981862876366</v>
+        <v>11.64251445331799</v>
       </c>
       <c r="M14">
-        <v>1.90253145853039</v>
+        <v>2.130551324715226</v>
       </c>
       <c r="N14">
-        <v>0.0009333249709170174</v>
+        <v>0.1172907748335155</v>
       </c>
       <c r="O14">
-        <v>5.662840107515391</v>
+        <v>6.376756031858156</v>
       </c>
       <c r="P14">
-        <v>2.832069963072077</v>
+        <v>9.009635242588072</v>
       </c>
       <c r="Q14">
-        <v>2.83192813555547</v>
+        <v>3.603814069863311</v>
       </c>
       <c r="R14">
-        <v>1.88835775037169</v>
+        <v>6.04552042000322</v>
       </c>
       <c r="S14">
-        <v>1.888385363246568</v>
+        <v>6.283380864348203</v>
       </c>
       <c r="T14">
-        <v>1.888357750371691</v>
+        <v>6.045520420003219</v>
       </c>
       <c r="U14">
-        <v>1.416522353677655</v>
+        <v>4.741858341969531</v>
       </c>
       <c r="V14">
-        <v>1.133404547936308</v>
+        <v>3.816944828542328</v>
       </c>
       <c r="W14">
-        <v>1.194909725923149</v>
+        <v>2.957247964050491</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.858319634524489</v>
+        <v>0.9518439998348921</v>
       </c>
       <c r="D15">
-        <v>3.807085785628126</v>
+        <v>0.9413475918122129</v>
       </c>
       <c r="E15">
-        <v>0.005684776776117816</v>
+        <v>1.002853755966888</v>
       </c>
       <c r="F15">
-        <v>0.005684776776117816</v>
+        <v>1.002853755966888</v>
       </c>
       <c r="G15">
-        <v>2.93644615733757</v>
+        <v>0.9057265489535908</v>
       </c>
       <c r="H15">
-        <v>0.01875732023250777</v>
+        <v>0.98688276428229</v>
       </c>
       <c r="I15">
-        <v>-0.003057026860527989</v>
+        <v>1.440273933037233</v>
       </c>
       <c r="J15">
-        <v>0.07655865009750248</v>
+        <v>1.862650488274755</v>
       </c>
       <c r="K15">
-        <v>0.005684776776117816</v>
+        <v>1.002853755968567</v>
       </c>
       <c r="L15">
-        <v>0.07655865009750248</v>
+        <v>1.862650488274755</v>
       </c>
       <c r="M15">
-        <v>0.7129752475942677</v>
+        <v>1.286431746921009</v>
       </c>
       <c r="N15">
-        <v>0.005684776776117816</v>
+        <v>1.002853755966888</v>
       </c>
       <c r="O15">
-        <v>-0.003057026860527989</v>
+        <v>1.440273933037233</v>
       </c>
       <c r="P15">
-        <v>0.03675081161848725</v>
+        <v>1.651462210655994</v>
       </c>
       <c r="Q15">
-        <v>1.466694565238521</v>
+        <v>1.173000240995412</v>
       </c>
       <c r="R15">
-        <v>0.02639546667103077</v>
+        <v>1.435259392426292</v>
       </c>
       <c r="S15">
-        <v>1.003315926858181</v>
+        <v>1.402883656755193</v>
       </c>
       <c r="T15">
-        <v>0.02639546667103077</v>
+        <v>1.435259392426292</v>
       </c>
       <c r="U15">
-        <v>0.7539081393376657</v>
+        <v>1.302876181558117</v>
       </c>
       <c r="V15">
-        <v>0.604263466825356</v>
+        <v>1.242871696439871</v>
       </c>
       <c r="W15">
-        <v>1.426596318166256</v>
+        <v>1.172251353635359</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2179671887376412</v>
+        <v>1.094766638821215</v>
       </c>
       <c r="D16">
-        <v>0.3092177493034216</v>
+        <v>1.001838806798646</v>
       </c>
       <c r="E16">
-        <v>0.2119613283250014</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="F16">
-        <v>0.2119613283250014</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="G16">
-        <v>0.2352422879143565</v>
+        <v>0.8111440266393395</v>
       </c>
       <c r="H16">
-        <v>0.2028186778581423</v>
+        <v>0.836670235240165</v>
       </c>
       <c r="I16">
-        <v>5.90432915905315</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="J16">
-        <v>13.47578997523037</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="K16">
-        <v>0.2119613283252929</v>
+        <v>1.443800398609963</v>
       </c>
       <c r="L16">
-        <v>13.47578997523037</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="M16">
-        <v>5.505987311570028</v>
+        <v>1.79393951256975</v>
       </c>
       <c r="N16">
-        <v>0.2119613283250014</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="O16">
-        <v>5.90432915905315</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="P16">
-        <v>9.690059567141759</v>
+        <v>2.397430270870145</v>
       </c>
       <c r="Q16">
-        <v>3.069785723483753</v>
+        <v>1.307484921925619</v>
       </c>
       <c r="R16">
-        <v>6.530693487536173</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="S16">
-        <v>6.538453807399292</v>
+        <v>1.868668189459876</v>
       </c>
       <c r="T16">
-        <v>6.530693487536173</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="U16">
-        <v>4.956830687630719</v>
+        <v>1.762451241747148</v>
       </c>
       <c r="V16">
-        <v>4.007856815769575</v>
+        <v>1.698721073119511</v>
       </c>
       <c r="W16">
-        <v>3.257914209749013</v>
+        <v>1.472127520052296</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4299333893958047</v>
+        <v>0.2127976468002453</v>
       </c>
       <c r="D17">
-        <v>0.6203857807520221</v>
+        <v>0.3563809111954455</v>
       </c>
       <c r="E17">
-        <v>0.4159938373276375</v>
+        <v>4.325800911525429</v>
       </c>
       <c r="F17">
-        <v>0.4159938373276375</v>
+        <v>4.325800911525429</v>
       </c>
       <c r="G17">
-        <v>0.4680117329088131</v>
+        <v>0.8697970861287999</v>
       </c>
       <c r="H17">
-        <v>0.3991036309063067</v>
+        <v>0.6684795119019331</v>
       </c>
       <c r="I17">
-        <v>4.233642389959091</v>
+        <v>1.104178410367038</v>
       </c>
       <c r="J17">
-        <v>11.97567895452779</v>
+        <v>9.546682800245824</v>
       </c>
       <c r="K17">
-        <v>0.4159938373282199</v>
+        <v>4.325800911526835</v>
       </c>
       <c r="L17">
-        <v>11.97567895452779</v>
+        <v>9.546682800245824</v>
       </c>
       <c r="M17">
-        <v>3.98526017832451</v>
+        <v>2.231337790024087</v>
       </c>
       <c r="N17">
-        <v>0.4159938373276375</v>
+        <v>4.325800911525429</v>
       </c>
       <c r="O17">
-        <v>4.233642389959091</v>
+        <v>1.104178410367038</v>
       </c>
       <c r="P17">
-        <v>8.104660672243439</v>
+        <v>5.325430605306431</v>
       </c>
       <c r="Q17">
-        <v>2.350827061433952</v>
+        <v>0.9869877482479188</v>
       </c>
       <c r="R17">
-        <v>5.541771727271505</v>
+        <v>4.99222070737943</v>
       </c>
       <c r="S17">
-        <v>5.559111025798564</v>
+        <v>3.840219432247221</v>
       </c>
       <c r="T17">
-        <v>5.541771727271505</v>
+        <v>4.99222070737943</v>
       </c>
       <c r="U17">
-        <v>4.273331728680832</v>
+        <v>3.961614802066773</v>
       </c>
       <c r="V17">
-        <v>3.501864150410193</v>
+        <v>4.034452023958504</v>
       </c>
       <c r="W17">
-        <v>2.816001236762746</v>
+        <v>2.4144318835236</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6219307062740942</v>
+        <v>1.064405177639875</v>
       </c>
       <c r="D18">
-        <v>1.475463281627245</v>
+        <v>0.05172949035102603</v>
       </c>
       <c r="E18">
-        <v>0.3942072804449904</v>
+        <v>0.01289803527428562</v>
       </c>
       <c r="F18">
-        <v>0.3942072804449904</v>
+        <v>0.01289803527428562</v>
       </c>
       <c r="G18">
-        <v>1.10013486560604</v>
+        <v>0.01332577028389152</v>
       </c>
       <c r="H18">
-        <v>0.7433270848639471</v>
+        <v>0.003654682730435186</v>
       </c>
       <c r="I18">
-        <v>0.900996048696729</v>
+        <v>10.54075553230764</v>
       </c>
       <c r="J18">
-        <v>9.234534788900751</v>
+        <v>19.85370541956058</v>
       </c>
       <c r="K18">
-        <v>0.3942072804474389</v>
+        <v>0.01289803527428562</v>
       </c>
       <c r="L18">
-        <v>9.234534788900751</v>
+        <v>19.85370541956058</v>
       </c>
       <c r="M18">
-        <v>0.9993344601236707</v>
+        <v>3.606664172698842</v>
       </c>
       <c r="N18">
-        <v>0.3942072804449904</v>
+        <v>0.01289803527428562</v>
       </c>
       <c r="O18">
-        <v>0.900996048696729</v>
+        <v>10.54075553230764</v>
       </c>
       <c r="P18">
-        <v>5.06776541879874</v>
+        <v>15.19723047593411</v>
       </c>
       <c r="Q18">
-        <v>1.000565457151384</v>
+        <v>5.277040651295764</v>
       </c>
       <c r="R18">
-        <v>3.509912706014157</v>
+        <v>10.1357863290475</v>
       </c>
       <c r="S18">
-        <v>3.74522190106784</v>
+        <v>10.13592890738403</v>
       </c>
       <c r="T18">
-        <v>3.509912706014157</v>
+        <v>10.1357863290475</v>
       </c>
       <c r="U18">
-        <v>2.907468245912127</v>
+        <v>7.605171189356598</v>
       </c>
       <c r="V18">
-        <v>2.4048160528187</v>
+        <v>6.086716558540136</v>
       </c>
       <c r="W18">
-        <v>1.933741064567183</v>
+        <v>4.393392285105821</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.941458222140377</v>
+        <v>1.024943893890108</v>
       </c>
       <c r="D19">
-        <v>1.21897293243506</v>
+        <v>1.0125102840993</v>
       </c>
       <c r="E19">
-        <v>2.74793539296936</v>
+        <v>1.062896450397883</v>
       </c>
       <c r="F19">
-        <v>2.74793539296936</v>
+        <v>1.062896450397883</v>
       </c>
       <c r="G19">
-        <v>0.9548825966132696</v>
+        <v>0.9684918214344014</v>
       </c>
       <c r="H19">
-        <v>0.8801780364445475</v>
+        <v>0.9884185465195107</v>
       </c>
       <c r="I19">
-        <v>1.868943493929029</v>
+        <v>1.078871386231728</v>
       </c>
       <c r="J19">
-        <v>12.06395099672126</v>
+        <v>1.25001949770131</v>
       </c>
       <c r="K19">
-        <v>2.74793539296936</v>
+        <v>1.062896450399661</v>
       </c>
       <c r="L19">
-        <v>12.06395099672126</v>
+        <v>1.25001949770131</v>
       </c>
       <c r="M19">
-        <v>1.076693989248792</v>
+        <v>1.000354597821868</v>
       </c>
       <c r="N19">
-        <v>2.74793539296936</v>
+        <v>1.062896450397883</v>
       </c>
       <c r="O19">
-        <v>1.868943493929029</v>
+        <v>1.078871386231728</v>
       </c>
       <c r="P19">
-        <v>6.966447245325142</v>
+        <v>1.164445441966519</v>
       </c>
       <c r="Q19">
-        <v>1.411913045271149</v>
+        <v>1.023681603833065</v>
       </c>
       <c r="R19">
-        <v>5.560276627873215</v>
+        <v>1.130595778110307</v>
       </c>
       <c r="S19">
-        <v>4.962592362421185</v>
+        <v>1.099127568455813</v>
       </c>
       <c r="T19">
-        <v>5.560276627873215</v>
+        <v>1.130595778110307</v>
       </c>
       <c r="U19">
-        <v>4.408928120058229</v>
+        <v>1.09006978894133</v>
       </c>
       <c r="V19">
-        <v>4.076729574640455</v>
+        <v>1.084635121232641</v>
       </c>
       <c r="W19">
-        <v>2.719126957562711</v>
+        <v>1.048313309762014</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.026248589124736</v>
+        <v>1.021664274477626</v>
       </c>
       <c r="D20">
-        <v>1.007594885056926</v>
+        <v>1.01798871746466</v>
       </c>
       <c r="E20">
-        <v>1.062218107741694</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="F20">
-        <v>1.062218107741694</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="G20">
-        <v>0.9686661833691709</v>
+        <v>0.9714498775150737</v>
       </c>
       <c r="H20">
-        <v>0.9910141812646016</v>
+        <v>0.9591648694763109</v>
       </c>
       <c r="I20">
-        <v>1.060023662965844</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="J20">
-        <v>1.150893446067454</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="K20">
-        <v>1.062218107743487</v>
+        <v>1.068961970422598</v>
       </c>
       <c r="L20">
-        <v>1.150893446067454</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="M20">
-        <v>1.029839181484026</v>
+        <v>0.9995439322213695</v>
       </c>
       <c r="N20">
-        <v>1.062218107741694</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="O20">
-        <v>1.060023662965844</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="P20">
-        <v>1.105458554516649</v>
+        <v>1.30431875489019</v>
       </c>
       <c r="Q20">
-        <v>1.014344923167507</v>
+        <v>1.000217442813738</v>
       </c>
       <c r="R20">
-        <v>1.091045072258331</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="S20">
-        <v>1.05986109746749</v>
+        <v>1.193362462431818</v>
       </c>
       <c r="T20">
-        <v>1.091045072258331</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="U20">
-        <v>1.060450350036041</v>
+        <v>1.162262339429068</v>
       </c>
       <c r="V20">
-        <v>1.060803901577172</v>
+        <v>1.143602265627418</v>
       </c>
       <c r="W20">
-        <v>1.037062279634307</v>
+        <v>1.08092639391953</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.027091435416442</v>
+        <v>0.9742049012523942</v>
       </c>
       <c r="D21">
-        <v>1.045230815256589</v>
+        <v>0.9877424830965877</v>
       </c>
       <c r="E21">
-        <v>1.049812161454246</v>
+        <v>1.015425301342157</v>
       </c>
       <c r="F21">
-        <v>1.049812161454246</v>
+        <v>1.015425301342157</v>
       </c>
       <c r="G21">
-        <v>0.9527578782761765</v>
+        <v>0.9865331482597052</v>
       </c>
       <c r="H21">
-        <v>0.9725321742630381</v>
+        <v>0.9861735050139437</v>
       </c>
       <c r="I21">
-        <v>1.269180127219735</v>
+        <v>1.213106083665407</v>
       </c>
       <c r="J21">
-        <v>1.034561228736723</v>
+        <v>2.031858066989684</v>
       </c>
       <c r="K21">
-        <v>1.049812161456146</v>
+        <v>1.015425301344283</v>
       </c>
       <c r="L21">
-        <v>1.034561228736723</v>
+        <v>2.031858066989684</v>
       </c>
       <c r="M21">
-        <v>0.9909104060911872</v>
+        <v>0.9192412441951973</v>
       </c>
       <c r="N21">
-        <v>1.049812161454246</v>
+        <v>1.015425301342157</v>
       </c>
       <c r="O21">
-        <v>1.269180127219735</v>
+        <v>1.213106083665407</v>
       </c>
       <c r="P21">
-        <v>1.151870677978229</v>
+        <v>1.622482075327546</v>
       </c>
       <c r="Q21">
-        <v>1.110969002747956</v>
+        <v>1.099819615962556</v>
       </c>
       <c r="R21">
-        <v>1.117851172470234</v>
+        <v>1.420129817332416</v>
       </c>
       <c r="S21">
-        <v>1.085499744744211</v>
+        <v>1.410499099638265</v>
       </c>
       <c r="T21">
-        <v>1.117851172470234</v>
+        <v>1.420129817332416</v>
       </c>
       <c r="U21">
-        <v>1.07657784892172</v>
+        <v>1.311730650064239</v>
       </c>
       <c r="V21">
-        <v>1.071224711428225</v>
+        <v>1.252469580319822</v>
       </c>
       <c r="W21">
-        <v>1.042759528339267</v>
+        <v>1.139285591726884</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.498199338225459</v>
+        <v>0.969201385146827</v>
       </c>
       <c r="D22">
-        <v>0.6992874811572577</v>
+        <v>1.181994563490855</v>
       </c>
       <c r="E22">
-        <v>1.104064999356281</v>
+        <v>1.263274683534825</v>
       </c>
       <c r="F22">
-        <v>1.104064999356281</v>
+        <v>1.263274683534825</v>
       </c>
       <c r="G22">
-        <v>1.104437088293051</v>
+        <v>0.8677554523987608</v>
       </c>
       <c r="H22">
-        <v>1.179108664465079</v>
+        <v>1.091409663660522</v>
       </c>
       <c r="I22">
-        <v>0.8758428683238585</v>
+        <v>0.9356322853881383</v>
       </c>
       <c r="J22">
-        <v>2.775420529397673</v>
+        <v>3.387889300122104</v>
       </c>
       <c r="K22">
-        <v>1.10406499935823</v>
+        <v>1.263274683537503</v>
       </c>
       <c r="L22">
-        <v>2.775420529397673</v>
+        <v>3.387889300122104</v>
       </c>
       <c r="M22">
-        <v>0.9927953269117892</v>
+        <v>0.8882846229752197</v>
       </c>
       <c r="N22">
-        <v>1.104064999356281</v>
+        <v>1.263274683534825</v>
       </c>
       <c r="O22">
-        <v>0.8758428683238585</v>
+        <v>0.9356322853881383</v>
       </c>
       <c r="P22">
-        <v>1.825631698860766</v>
+        <v>2.161760792755121</v>
       </c>
       <c r="Q22">
-        <v>0.9901399783084548</v>
+        <v>0.9016938688934495</v>
       </c>
       <c r="R22">
-        <v>1.585109465692604</v>
+        <v>1.862265423015022</v>
       </c>
       <c r="S22">
-        <v>1.585233495338194</v>
+        <v>1.730425679303001</v>
       </c>
       <c r="T22">
-        <v>1.585109465692604</v>
+        <v>1.862265423015022</v>
       </c>
       <c r="U22">
-        <v>1.464941371342716</v>
+        <v>1.613637930360957</v>
       </c>
       <c r="V22">
-        <v>1.392766096945429</v>
+        <v>1.54356528099573</v>
       </c>
       <c r="W22">
-        <v>1.278644537016306</v>
+        <v>1.323180244589656</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.283220587449607</v>
+      </c>
+      <c r="D23">
+        <v>0.9891917288258566</v>
+      </c>
+      <c r="E23">
+        <v>0.2498418413945074</v>
+      </c>
+      <c r="F23">
+        <v>0.2498418413945074</v>
+      </c>
+      <c r="G23">
+        <v>1.226500934908157</v>
+      </c>
+      <c r="H23">
+        <v>1.220456279489805</v>
+      </c>
+      <c r="I23">
+        <v>2.519729572959944</v>
+      </c>
+      <c r="J23">
+        <v>5.274845913743877</v>
+      </c>
+      <c r="K23">
+        <v>0.2498418413982934</v>
+      </c>
+      <c r="L23">
+        <v>5.274845913743877</v>
+      </c>
+      <c r="M23">
+        <v>0.8132505138282461</v>
+      </c>
+      <c r="N23">
+        <v>0.2498418413945074</v>
+      </c>
+      <c r="O23">
+        <v>2.519729572959944</v>
+      </c>
+      <c r="P23">
+        <v>3.89728774335191</v>
+      </c>
+      <c r="Q23">
+        <v>1.873115253934051</v>
+      </c>
+      <c r="R23">
+        <v>2.681472442699443</v>
+      </c>
+      <c r="S23">
+        <v>3.007025473870659</v>
+      </c>
+      <c r="T23">
+        <v>2.681472442699443</v>
+      </c>
+      <c r="U23">
+        <v>2.317729565751621</v>
+      </c>
+      <c r="V23">
+        <v>1.904152020880199</v>
+      </c>
+      <c r="W23">
+        <v>1.697129671575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-0.001502850586985293</v>
+      </c>
+      <c r="D24">
+        <v>0.2744561344533932</v>
+      </c>
+      <c r="E24">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="F24">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="G24">
+        <v>2.614807624490462</v>
+      </c>
+      <c r="H24">
+        <v>0.03254713084656045</v>
+      </c>
+      <c r="I24">
+        <v>0.003429442486612062</v>
+      </c>
+      <c r="J24">
+        <v>0.003550294424097217</v>
+      </c>
+      <c r="K24">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="L24">
+        <v>0.003550294424097217</v>
+      </c>
+      <c r="M24">
+        <v>-0.001257431911578386</v>
+      </c>
+      <c r="N24">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="O24">
+        <v>0.003429442486612062</v>
+      </c>
+      <c r="P24">
+        <v>0.00348986845535464</v>
+      </c>
+      <c r="Q24">
+        <v>1.309118533488537</v>
+      </c>
+      <c r="R24">
+        <v>0.1385199615776367</v>
+      </c>
+      <c r="S24">
+        <v>0.8739291204670571</v>
+      </c>
+      <c r="T24">
+        <v>0.1385199615776367</v>
+      </c>
+      <c r="U24">
+        <v>0.757591877305843</v>
+      </c>
+      <c r="V24">
+        <v>0.6877895314091146</v>
+      </c>
+      <c r="W24">
+        <v>0.4168263115030952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.04034612682130263</v>
+      </c>
+      <c r="D25">
+        <v>0.03795029131287164</v>
+      </c>
+      <c r="E25">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="F25">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="G25">
+        <v>-0.0005346634239876048</v>
+      </c>
+      <c r="H25">
+        <v>0.6139002432027721</v>
+      </c>
+      <c r="I25">
+        <v>1.697254818845404</v>
+      </c>
+      <c r="J25">
+        <v>0.0761201067922304</v>
+      </c>
+      <c r="K25">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="L25">
+        <v>0.0761201067922304</v>
+      </c>
+      <c r="M25">
+        <v>2.705339109436882</v>
+      </c>
+      <c r="N25">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="O25">
+        <v>1.697254818845404</v>
+      </c>
+      <c r="P25">
+        <v>0.8866874628188169</v>
+      </c>
+      <c r="Q25">
+        <v>0.848360077710708</v>
+      </c>
+      <c r="R25">
+        <v>0.6800863817187354</v>
+      </c>
+      <c r="S25">
+        <v>0.5909467540712154</v>
+      </c>
+      <c r="T25">
+        <v>0.6800863817187354</v>
+      </c>
+      <c r="U25">
+        <v>0.5099311204330546</v>
+      </c>
+      <c r="V25">
+        <v>0.4613217402501581</v>
+      </c>
+      <c r="W25">
+        <v>0.6796575315632558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.001364000892881431</v>
+      </c>
+      <c r="D26">
+        <v>0.0006595902111376068</v>
+      </c>
+      <c r="E26">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="F26">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="G26">
+        <v>0.001016163595548628</v>
+      </c>
+      <c r="H26">
+        <v>1.991361344825924</v>
+      </c>
+      <c r="I26">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="J26">
+        <v>0.00129981862876366</v>
+      </c>
+      <c r="K26">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="L26">
+        <v>0.00129981862876366</v>
+      </c>
+      <c r="M26">
+        <v>1.90253145853039</v>
+      </c>
+      <c r="N26">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="O26">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="P26">
+        <v>2.832069963072077</v>
+      </c>
+      <c r="Q26">
+        <v>2.83192813555547</v>
+      </c>
+      <c r="R26">
+        <v>1.88835775037169</v>
+      </c>
+      <c r="S26">
+        <v>1.888385363246568</v>
+      </c>
+      <c r="T26">
+        <v>1.888357750371691</v>
+      </c>
+      <c r="U26">
+        <v>1.416522353677655</v>
+      </c>
+      <c r="V26">
+        <v>1.133404547936308</v>
+      </c>
+      <c r="W26">
+        <v>1.194909725923149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3.858319634524489</v>
+      </c>
+      <c r="D27">
+        <v>3.807085785628126</v>
+      </c>
+      <c r="E27">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="F27">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="G27">
+        <v>2.93644615733757</v>
+      </c>
+      <c r="H27">
+        <v>0.01875732023250777</v>
+      </c>
+      <c r="I27">
+        <v>-0.003057026860527989</v>
+      </c>
+      <c r="J27">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="K27">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="L27">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="M27">
+        <v>0.7129752475942677</v>
+      </c>
+      <c r="N27">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="O27">
+        <v>-0.003057026860527989</v>
+      </c>
+      <c r="P27">
+        <v>0.03675081161848725</v>
+      </c>
+      <c r="Q27">
+        <v>1.466694565238521</v>
+      </c>
+      <c r="R27">
+        <v>0.02639546667103077</v>
+      </c>
+      <c r="S27">
+        <v>1.003315926858181</v>
+      </c>
+      <c r="T27">
+        <v>0.02639546667103077</v>
+      </c>
+      <c r="U27">
+        <v>0.7539081393376657</v>
+      </c>
+      <c r="V27">
+        <v>0.604263466825356</v>
+      </c>
+      <c r="W27">
+        <v>1.426596318166256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2179671887376412</v>
+      </c>
+      <c r="D28">
+        <v>0.3092177493034216</v>
+      </c>
+      <c r="E28">
+        <v>0.2119613283250014</v>
+      </c>
+      <c r="F28">
+        <v>0.2119613283250014</v>
+      </c>
+      <c r="G28">
+        <v>0.2352422879143565</v>
+      </c>
+      <c r="H28">
+        <v>0.2028186778581423</v>
+      </c>
+      <c r="I28">
+        <v>5.90432915905315</v>
+      </c>
+      <c r="J28">
+        <v>13.47578997523037</v>
+      </c>
+      <c r="K28">
+        <v>0.2119613283252929</v>
+      </c>
+      <c r="L28">
+        <v>13.47578997523037</v>
+      </c>
+      <c r="M28">
+        <v>5.505987311570028</v>
+      </c>
+      <c r="N28">
+        <v>0.2119613283250014</v>
+      </c>
+      <c r="O28">
+        <v>5.90432915905315</v>
+      </c>
+      <c r="P28">
+        <v>9.690059567141759</v>
+      </c>
+      <c r="Q28">
+        <v>3.069785723483753</v>
+      </c>
+      <c r="R28">
+        <v>6.530693487536173</v>
+      </c>
+      <c r="S28">
+        <v>6.538453807399292</v>
+      </c>
+      <c r="T28">
+        <v>6.530693487536173</v>
+      </c>
+      <c r="U28">
+        <v>4.956830687630719</v>
+      </c>
+      <c r="V28">
+        <v>4.007856815769575</v>
+      </c>
+      <c r="W28">
+        <v>3.257914209749013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4299333893958047</v>
+      </c>
+      <c r="D29">
+        <v>0.6203857807520221</v>
+      </c>
+      <c r="E29">
+        <v>0.4159938373276375</v>
+      </c>
+      <c r="F29">
+        <v>0.4159938373276375</v>
+      </c>
+      <c r="G29">
+        <v>0.4680117329088131</v>
+      </c>
+      <c r="H29">
+        <v>0.3991036309063067</v>
+      </c>
+      <c r="I29">
+        <v>4.233642389959091</v>
+      </c>
+      <c r="J29">
+        <v>11.97567895452779</v>
+      </c>
+      <c r="K29">
+        <v>0.4159938373282199</v>
+      </c>
+      <c r="L29">
+        <v>11.97567895452779</v>
+      </c>
+      <c r="M29">
+        <v>3.98526017832451</v>
+      </c>
+      <c r="N29">
+        <v>0.4159938373276375</v>
+      </c>
+      <c r="O29">
+        <v>4.233642389959091</v>
+      </c>
+      <c r="P29">
+        <v>8.104660672243439</v>
+      </c>
+      <c r="Q29">
+        <v>2.350827061433952</v>
+      </c>
+      <c r="R29">
+        <v>5.541771727271505</v>
+      </c>
+      <c r="S29">
+        <v>5.559111025798564</v>
+      </c>
+      <c r="T29">
+        <v>5.541771727271505</v>
+      </c>
+      <c r="U29">
+        <v>4.273331728680832</v>
+      </c>
+      <c r="V29">
+        <v>3.501864150410193</v>
+      </c>
+      <c r="W29">
+        <v>2.816001236762746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.6219307062740942</v>
+      </c>
+      <c r="D30">
+        <v>1.475463281627245</v>
+      </c>
+      <c r="E30">
+        <v>0.3942072804449904</v>
+      </c>
+      <c r="F30">
+        <v>0.3942072804449904</v>
+      </c>
+      <c r="G30">
+        <v>1.10013486560604</v>
+      </c>
+      <c r="H30">
+        <v>0.7433270848639471</v>
+      </c>
+      <c r="I30">
+        <v>0.900996048696729</v>
+      </c>
+      <c r="J30">
+        <v>9.234534788900751</v>
+      </c>
+      <c r="K30">
+        <v>0.3942072804474389</v>
+      </c>
+      <c r="L30">
+        <v>9.234534788900751</v>
+      </c>
+      <c r="M30">
+        <v>0.9993344601236707</v>
+      </c>
+      <c r="N30">
+        <v>0.3942072804449904</v>
+      </c>
+      <c r="O30">
+        <v>0.900996048696729</v>
+      </c>
+      <c r="P30">
+        <v>5.06776541879874</v>
+      </c>
+      <c r="Q30">
+        <v>1.000565457151384</v>
+      </c>
+      <c r="R30">
+        <v>3.509912706014157</v>
+      </c>
+      <c r="S30">
+        <v>3.74522190106784</v>
+      </c>
+      <c r="T30">
+        <v>3.509912706014157</v>
+      </c>
+      <c r="U30">
+        <v>2.907468245912127</v>
+      </c>
+      <c r="V30">
+        <v>2.4048160528187</v>
+      </c>
+      <c r="W30">
+        <v>1.933741064567183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.941458222140377</v>
+      </c>
+      <c r="D31">
+        <v>1.21897293243506</v>
+      </c>
+      <c r="E31">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="F31">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="G31">
+        <v>0.9548825966132696</v>
+      </c>
+      <c r="H31">
+        <v>0.8801780364445475</v>
+      </c>
+      <c r="I31">
+        <v>1.868943493929029</v>
+      </c>
+      <c r="J31">
+        <v>12.06395099672126</v>
+      </c>
+      <c r="K31">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="L31">
+        <v>12.06395099672126</v>
+      </c>
+      <c r="M31">
+        <v>1.076693989248792</v>
+      </c>
+      <c r="N31">
+        <v>2.74793539296936</v>
+      </c>
+      <c r="O31">
+        <v>1.868943493929029</v>
+      </c>
+      <c r="P31">
+        <v>6.966447245325142</v>
+      </c>
+      <c r="Q31">
+        <v>1.411913045271149</v>
+      </c>
+      <c r="R31">
+        <v>5.560276627873215</v>
+      </c>
+      <c r="S31">
+        <v>4.962592362421185</v>
+      </c>
+      <c r="T31">
+        <v>5.560276627873215</v>
+      </c>
+      <c r="U31">
+        <v>4.408928120058229</v>
+      </c>
+      <c r="V31">
+        <v>4.076729574640455</v>
+      </c>
+      <c r="W31">
+        <v>2.719126957562711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.005416145895205478</v>
+      </c>
+      <c r="D32">
+        <v>-0.002792474563835614</v>
+      </c>
+      <c r="E32">
+        <v>0.007520555936986304</v>
+      </c>
+      <c r="F32">
+        <v>0.007520555936986304</v>
+      </c>
+      <c r="G32">
+        <v>0.001933017291780822</v>
+      </c>
+      <c r="H32">
+        <v>0.00578538503561644</v>
+      </c>
+      <c r="I32">
+        <v>7.469306404478766</v>
+      </c>
+      <c r="J32">
+        <v>18.26629903317424</v>
+      </c>
+      <c r="K32">
+        <v>0.007520555936986304</v>
+      </c>
+      <c r="L32">
+        <v>18.26629903317424</v>
+      </c>
+      <c r="M32">
+        <v>6.928513704905475</v>
+      </c>
+      <c r="N32">
+        <v>0.007520555936986304</v>
+      </c>
+      <c r="O32">
+        <v>7.469306404478766</v>
+      </c>
+      <c r="P32">
+        <v>12.8678027188265</v>
+      </c>
+      <c r="Q32">
+        <v>3.735619710885273</v>
+      </c>
+      <c r="R32">
+        <v>8.581041997863331</v>
+      </c>
+      <c r="S32">
+        <v>8.579179484981596</v>
+      </c>
+      <c r="T32">
+        <v>8.581041997863331</v>
+      </c>
+      <c r="U32">
+        <v>6.436264752720443</v>
+      </c>
+      <c r="V32">
+        <v>5.150515913363751</v>
+      </c>
+      <c r="W32">
+        <v>4.08524772151928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.005163764788947369</v>
+      </c>
+      <c r="D33">
+        <v>-0.003174935028421053</v>
+      </c>
+      <c r="E33">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="F33">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="G33">
+        <v>0.001924497757894737</v>
+      </c>
+      <c r="H33">
+        <v>0.00499502907368421</v>
+      </c>
+      <c r="I33">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="J33">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="K33">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="L33">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="M33">
+        <v>6.654707404757893</v>
+      </c>
+      <c r="N33">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="O33">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="P33">
+        <v>17.14170167087605</v>
+      </c>
+      <c r="Q33">
+        <v>3.588208923559474</v>
+      </c>
+      <c r="R33">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="S33">
+        <v>11.42844261317</v>
+      </c>
+      <c r="T33">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="U33">
+        <v>8.573255417766973</v>
+      </c>
+      <c r="V33">
+        <v>6.860143100525157</v>
+      </c>
+      <c r="W33">
+        <v>5.119339116832499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.005163764788947369</v>
+      </c>
+      <c r="D34">
+        <v>-0.003174935028421053</v>
+      </c>
+      <c r="E34">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="F34">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="G34">
+        <v>0.001924497757894737</v>
+      </c>
+      <c r="H34">
+        <v>0.00499502907368421</v>
+      </c>
+      <c r="I34">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="J34">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="K34">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="L34">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="M34">
+        <v>6.654707404757893</v>
+      </c>
+      <c r="N34">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="O34">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="P34">
+        <v>17.14170167087605</v>
+      </c>
+      <c r="Q34">
+        <v>3.588208923559474</v>
+      </c>
+      <c r="R34">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="S34">
+        <v>11.42844261317</v>
+      </c>
+      <c r="T34">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="U34">
+        <v>8.573255417766973</v>
+      </c>
+      <c r="V34">
+        <v>6.860143100525157</v>
+      </c>
+      <c r="W34">
+        <v>5.119339116832499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4197234336776474</v>
+      </c>
+      <c r="D35">
+        <v>0.6217059528823576</v>
+      </c>
+      <c r="E35">
+        <v>0.4079819387887624</v>
+      </c>
+      <c r="F35">
+        <v>0.4079819387887624</v>
+      </c>
+      <c r="G35">
+        <v>0.4716456658105462</v>
+      </c>
+      <c r="H35">
+        <v>0.3827444439333634</v>
+      </c>
+      <c r="I35">
+        <v>0.4118450565698735</v>
+      </c>
+      <c r="J35">
+        <v>125.1642692481925</v>
+      </c>
+      <c r="K35">
+        <v>0.4079819387893496</v>
+      </c>
+      <c r="L35">
+        <v>125.1642692481925</v>
+      </c>
+      <c r="M35">
+        <v>0.4531544099252562</v>
+      </c>
+      <c r="N35">
+        <v>0.4079819387887624</v>
+      </c>
+      <c r="O35">
+        <v>0.4118450565698735</v>
+      </c>
+      <c r="P35">
+        <v>62.78805715238118</v>
+      </c>
+      <c r="Q35">
+        <v>0.4417453611902099</v>
+      </c>
+      <c r="R35">
+        <v>41.99469874785037</v>
+      </c>
+      <c r="S35">
+        <v>42.01591999019097</v>
+      </c>
+      <c r="T35">
+        <v>41.99469874785037</v>
+      </c>
+      <c r="U35">
+        <v>31.61393547734042</v>
+      </c>
+      <c r="V35">
+        <v>25.37274476963008</v>
+      </c>
+      <c r="W35">
+        <v>16.04163376872254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.026248589124736</v>
+      </c>
+      <c r="D36">
+        <v>1.007594885056926</v>
+      </c>
+      <c r="E36">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="F36">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="G36">
+        <v>0.9686661833691709</v>
+      </c>
+      <c r="H36">
+        <v>0.9910141812646016</v>
+      </c>
+      <c r="I36">
+        <v>1.060023662965844</v>
+      </c>
+      <c r="J36">
+        <v>1.150893446067454</v>
+      </c>
+      <c r="K36">
+        <v>1.062218107743487</v>
+      </c>
+      <c r="L36">
+        <v>1.150893446067454</v>
+      </c>
+      <c r="M36">
+        <v>1.029839181484026</v>
+      </c>
+      <c r="N36">
+        <v>1.062218107741694</v>
+      </c>
+      <c r="O36">
+        <v>1.060023662965844</v>
+      </c>
+      <c r="P36">
+        <v>1.105458554516649</v>
+      </c>
+      <c r="Q36">
+        <v>1.014344923167507</v>
+      </c>
+      <c r="R36">
+        <v>1.091045072258331</v>
+      </c>
+      <c r="S36">
+        <v>1.05986109746749</v>
+      </c>
+      <c r="T36">
+        <v>1.091045072258331</v>
+      </c>
+      <c r="U36">
+        <v>1.060450350036041</v>
+      </c>
+      <c r="V36">
+        <v>1.060803901577172</v>
+      </c>
+      <c r="W36">
+        <v>1.037062279634307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.027091435416442</v>
+      </c>
+      <c r="D37">
+        <v>1.045230815256589</v>
+      </c>
+      <c r="E37">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="F37">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="G37">
+        <v>0.9527578782761765</v>
+      </c>
+      <c r="H37">
+        <v>0.9725321742630381</v>
+      </c>
+      <c r="I37">
+        <v>1.269180127219735</v>
+      </c>
+      <c r="J37">
+        <v>1.034561228736723</v>
+      </c>
+      <c r="K37">
+        <v>1.049812161456146</v>
+      </c>
+      <c r="L37">
+        <v>1.034561228736723</v>
+      </c>
+      <c r="M37">
+        <v>0.9909104060911872</v>
+      </c>
+      <c r="N37">
+        <v>1.049812161454246</v>
+      </c>
+      <c r="O37">
+        <v>1.269180127219735</v>
+      </c>
+      <c r="P37">
+        <v>1.151870677978229</v>
+      </c>
+      <c r="Q37">
+        <v>1.110969002747956</v>
+      </c>
+      <c r="R37">
+        <v>1.117851172470234</v>
+      </c>
+      <c r="S37">
+        <v>1.085499744744211</v>
+      </c>
+      <c r="T37">
+        <v>1.117851172470234</v>
+      </c>
+      <c r="U37">
+        <v>1.07657784892172</v>
+      </c>
+      <c r="V37">
+        <v>1.071224711428225</v>
+      </c>
+      <c r="W37">
+        <v>1.042759528339267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.498199338225459</v>
+      </c>
+      <c r="D38">
+        <v>0.6992874811572577</v>
+      </c>
+      <c r="E38">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="F38">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="G38">
+        <v>1.104437088293051</v>
+      </c>
+      <c r="H38">
+        <v>1.179108664465079</v>
+      </c>
+      <c r="I38">
+        <v>0.8758428683238585</v>
+      </c>
+      <c r="J38">
+        <v>2.775420529397673</v>
+      </c>
+      <c r="K38">
+        <v>1.10406499935823</v>
+      </c>
+      <c r="L38">
+        <v>2.775420529397673</v>
+      </c>
+      <c r="M38">
+        <v>0.9927953269117892</v>
+      </c>
+      <c r="N38">
+        <v>1.104064999356281</v>
+      </c>
+      <c r="O38">
+        <v>0.8758428683238585</v>
+      </c>
+      <c r="P38">
+        <v>1.825631698860766</v>
+      </c>
+      <c r="Q38">
+        <v>0.9901399783084548</v>
+      </c>
+      <c r="R38">
+        <v>1.585109465692604</v>
+      </c>
+      <c r="S38">
+        <v>1.585233495338194</v>
+      </c>
+      <c r="T38">
+        <v>1.585109465692604</v>
+      </c>
+      <c r="U38">
+        <v>1.464941371342716</v>
+      </c>
+      <c r="V38">
+        <v>1.392766096945429</v>
+      </c>
+      <c r="W38">
+        <v>1.278644537016306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.7871375055268828</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.6028551504708676</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>4.028139937888379</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>4.028139937888379</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.117218460343187</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.4713707287678641</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>2.310621415691346</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>3.197212598329465</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>4.028139937894657</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>3.197212598329465</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.794258923332996</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>4.028139937888379</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>2.310621415691346</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>2.753917007010406</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.713919938017267</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>3.17865798396973</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>2.208350824787999</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>3.17865798396973</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>2.663298103063094</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>2.936266470028151</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.788601840043873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8266061432774778</v>
+      </c>
+      <c r="D40">
+        <v>1.247487760647926</v>
+      </c>
+      <c r="E40">
+        <v>0.8320681823128715</v>
+      </c>
+      <c r="F40">
+        <v>0.8320681823128715</v>
+      </c>
+      <c r="G40">
+        <v>0.8704281516733394</v>
+      </c>
+      <c r="H40">
+        <v>0.7940972757048157</v>
+      </c>
+      <c r="I40">
+        <v>0.9884293699656532</v>
+      </c>
+      <c r="J40">
+        <v>3.943539348330148</v>
+      </c>
+      <c r="K40">
+        <v>0.8320681823146074</v>
+      </c>
+      <c r="L40">
+        <v>3.943539348330148</v>
+      </c>
+      <c r="M40">
+        <v>1.01458229114939</v>
+      </c>
+      <c r="N40">
+        <v>0.8320681823128715</v>
+      </c>
+      <c r="O40">
+        <v>0.9884293699656532</v>
+      </c>
+      <c r="P40">
+        <v>2.4659843591479</v>
+      </c>
+      <c r="Q40">
+        <v>0.9294287608194963</v>
+      </c>
+      <c r="R40">
+        <v>1.921345633536224</v>
+      </c>
+      <c r="S40">
+        <v>1.934132289989713</v>
+      </c>
+      <c r="T40">
+        <v>1.921345633536224</v>
+      </c>
+      <c r="U40">
+        <v>1.658616263070503</v>
+      </c>
+      <c r="V40">
+        <v>1.493306646918977</v>
+      </c>
+      <c r="W40">
+        <v>1.314654815382703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.190096415105246</v>
+      </c>
+      <c r="D41">
+        <v>0.9032889866339425</v>
+      </c>
+      <c r="E41">
+        <v>1.575057126941665</v>
+      </c>
+      <c r="F41">
+        <v>1.575057126941665</v>
+      </c>
+      <c r="G41">
+        <v>0.8822023021974431</v>
+      </c>
+      <c r="H41">
+        <v>1.018029509630983</v>
+      </c>
+      <c r="I41">
+        <v>1.161044112585928</v>
+      </c>
+      <c r="J41">
+        <v>0.6387898819904565</v>
+      </c>
+      <c r="K41">
+        <v>1.575057126944206</v>
+      </c>
+      <c r="L41">
+        <v>0.6387898819904565</v>
+      </c>
+      <c r="M41">
+        <v>0.8600951571729837</v>
+      </c>
+      <c r="N41">
+        <v>1.575057126941665</v>
+      </c>
+      <c r="O41">
+        <v>1.161044112585928</v>
+      </c>
+      <c r="P41">
+        <v>0.8999169972881924</v>
+      </c>
+      <c r="Q41">
+        <v>1.021623207391686</v>
+      </c>
+      <c r="R41">
+        <v>1.124963707172683</v>
+      </c>
+      <c r="S41">
+        <v>0.8940120989246093</v>
+      </c>
+      <c r="T41">
+        <v>1.124963707172683</v>
+      </c>
+      <c r="U41">
+        <v>1.064273355928873</v>
+      </c>
+      <c r="V41">
+        <v>1.166430110131432</v>
+      </c>
+      <c r="W41">
+        <v>1.028575436532331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6214592460095469</v>
+      </c>
+      <c r="D42">
+        <v>1.166103430338976</v>
+      </c>
+      <c r="E42">
+        <v>0.004716082713470632</v>
+      </c>
+      <c r="F42">
+        <v>0.004716082713470632</v>
+      </c>
+      <c r="G42">
+        <v>0.7405626224046962</v>
+      </c>
+      <c r="H42">
+        <v>0.8183353467191337</v>
+      </c>
+      <c r="I42">
+        <v>0.943431343669193</v>
+      </c>
+      <c r="J42">
+        <v>4.074234638582996</v>
+      </c>
+      <c r="K42">
+        <v>0.004716082716734953</v>
+      </c>
+      <c r="L42">
+        <v>4.074234638582996</v>
+      </c>
+      <c r="M42">
+        <v>1.32132726341155</v>
+      </c>
+      <c r="N42">
+        <v>0.004716082713470632</v>
+      </c>
+      <c r="O42">
+        <v>0.943431343669193</v>
+      </c>
+      <c r="P42">
+        <v>2.508832991126094</v>
+      </c>
+      <c r="Q42">
+        <v>0.8419969830369446</v>
+      </c>
+      <c r="R42">
+        <v>1.674127354988553</v>
+      </c>
+      <c r="S42">
+        <v>1.919409534885628</v>
+      </c>
+      <c r="T42">
+        <v>1.674127354988553</v>
+      </c>
+      <c r="U42">
+        <v>1.440736171842589</v>
+      </c>
+      <c r="V42">
+        <v>1.153532154016765</v>
+      </c>
+      <c r="W42">
+        <v>1.211271246731195</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002853755966888</v>
+        <v>1.021664274477626</v>
       </c>
       <c r="D3">
-        <v>1.862650488274755</v>
+        <v>1.01798871746466</v>
       </c>
       <c r="E3">
-        <v>1.440273933037233</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="F3">
-        <v>1.002853755966888</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="G3">
-        <v>0.9057265489535908</v>
+        <v>0.9714498775150737</v>
       </c>
       <c r="H3">
-        <v>0.98688276428229</v>
+        <v>0.9591648694763109</v>
       </c>
       <c r="I3">
-        <v>1.002853755968567</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="J3">
-        <v>1.862650488274755</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="K3">
-        <v>1.286431746921009</v>
+        <v>1.068961970422598</v>
       </c>
       <c r="L3">
-        <v>0.9518439998348921</v>
+        <v>1.579652501667978</v>
       </c>
       <c r="M3">
-        <v>0.9413475918122129</v>
+        <v>0.9995439322213695</v>
       </c>
       <c r="N3">
-        <v>1.002853755966888</v>
+        <v>1.068961970420819</v>
       </c>
       <c r="O3">
-        <v>1.440273933037233</v>
+        <v>1.028985008112402</v>
       </c>
       <c r="P3">
-        <v>1.651462210655994</v>
+        <v>1.30431875489019</v>
       </c>
       <c r="Q3">
-        <v>1.173000240995412</v>
+        <v>1.000217442813738</v>
       </c>
       <c r="R3">
-        <v>1.435259392426292</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="S3">
-        <v>1.402883656755193</v>
+        <v>1.193362462431818</v>
       </c>
       <c r="T3">
-        <v>1.435259392426292</v>
+        <v>1.2258664934004</v>
       </c>
       <c r="U3">
-        <v>1.302876181558117</v>
+        <v>1.162262339429068</v>
       </c>
       <c r="V3">
-        <v>1.242871696439871</v>
+        <v>1.143602265627418</v>
       </c>
       <c r="W3">
-        <v>1.172251353635359</v>
+        <v>1.08092639391953</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.443800398608962</v>
+        <v>0.8266061432774778</v>
       </c>
       <c r="D4">
-        <v>2.991034724528391</v>
+        <v>1.247487760647926</v>
       </c>
       <c r="E4">
-        <v>1.803825817211899</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="F4">
-        <v>1.443800398608962</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="G4">
-        <v>0.8111440266393396</v>
+        <v>0.8704281516733394</v>
       </c>
       <c r="H4">
-        <v>0.836670235240165</v>
+        <v>0.7940972757048157</v>
       </c>
       <c r="I4">
-        <v>1.443800398609963</v>
+        <v>0.9884293699656532</v>
       </c>
       <c r="J4">
-        <v>2.991034724528391</v>
+        <v>3.943539348330148</v>
       </c>
       <c r="K4">
-        <v>1.79393951256975</v>
+        <v>0.8320681823146074</v>
       </c>
       <c r="L4">
-        <v>1.094766638821215</v>
+        <v>3.943539348330148</v>
       </c>
       <c r="M4">
-        <v>1.001838806798646</v>
+        <v>1.01458229114939</v>
       </c>
       <c r="N4">
-        <v>1.443800398608962</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="O4">
-        <v>1.803825817211899</v>
+        <v>0.9884293699656532</v>
       </c>
       <c r="P4">
-        <v>2.397430270870145</v>
+        <v>2.4659843591479</v>
       </c>
       <c r="Q4">
-        <v>1.307484921925619</v>
+        <v>0.9294287608194963</v>
       </c>
       <c r="R4">
-        <v>2.079553646783084</v>
+        <v>1.921345633536224</v>
       </c>
       <c r="S4">
-        <v>1.868668189459876</v>
+        <v>1.934132289989713</v>
       </c>
       <c r="T4">
-        <v>2.079553646783084</v>
+        <v>1.921345633536224</v>
       </c>
       <c r="U4">
-        <v>1.762451241747148</v>
+        <v>1.658616263070503</v>
       </c>
       <c r="V4">
-        <v>1.698721073119511</v>
+        <v>1.493306646918977</v>
       </c>
       <c r="W4">
-        <v>1.472127520052296</v>
+        <v>1.314654815382703</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.325800911525429</v>
+        <v>0.8033994200670552</v>
       </c>
       <c r="D5">
-        <v>9.546682800245824</v>
+        <v>1.168532644563931</v>
       </c>
       <c r="E5">
-        <v>1.104178410367038</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="F5">
-        <v>4.325800911525429</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="G5">
-        <v>0.8697970861287999</v>
+        <v>0.8782780386560352</v>
       </c>
       <c r="H5">
-        <v>0.6684795119019331</v>
+        <v>0.7445996272450731</v>
       </c>
       <c r="I5">
-        <v>4.325800911526835</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="J5">
-        <v>9.546682800245824</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="K5">
-        <v>2.231337790024087</v>
+        <v>0.7757359682528834</v>
       </c>
       <c r="L5">
-        <v>0.2127976468002453</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="M5">
-        <v>0.3563809111954455</v>
+        <v>1.137166396854141</v>
       </c>
       <c r="N5">
-        <v>4.325800911525429</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="O5">
-        <v>1.104178410367038</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="P5">
-        <v>5.325430605306431</v>
+        <v>7.922845433970477</v>
       </c>
       <c r="Q5">
-        <v>0.9869877482479188</v>
+        <v>0.993437926983901</v>
       </c>
       <c r="R5">
-        <v>4.99222070737943</v>
+        <v>5.540475612064246</v>
       </c>
       <c r="S5">
-        <v>3.840219432247221</v>
+        <v>5.574656302198997</v>
       </c>
       <c r="T5">
-        <v>4.99222070737943</v>
+        <v>5.540475612064248</v>
       </c>
       <c r="U5">
-        <v>3.961614802066773</v>
+        <v>4.374926218712194</v>
       </c>
       <c r="V5">
-        <v>4.034452023958504</v>
+        <v>3.655088168620113</v>
       </c>
       <c r="W5">
-        <v>2.4144318835236</v>
+        <v>2.669175370447372</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.01289803527428562</v>
+        <v>0.4197234336776474</v>
       </c>
       <c r="D6">
-        <v>19.85370541956058</v>
+        <v>0.6217059528823576</v>
       </c>
       <c r="E6">
-        <v>10.54075553230764</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="F6">
-        <v>0.01289803527428562</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="G6">
-        <v>0.01332577028389152</v>
+        <v>0.4716456658105462</v>
       </c>
       <c r="H6">
-        <v>0.003654682730435186</v>
+        <v>0.3827444439333634</v>
       </c>
       <c r="I6">
-        <v>0.01289803527428562</v>
+        <v>0.4118450565698735</v>
       </c>
       <c r="J6">
-        <v>19.85370541956058</v>
+        <v>125.1642692481925</v>
       </c>
       <c r="K6">
-        <v>3.606664172698842</v>
+        <v>0.4079819387893496</v>
       </c>
       <c r="L6">
-        <v>1.064405177639875</v>
+        <v>125.1642692481925</v>
       </c>
       <c r="M6">
-        <v>0.05172949035102603</v>
+        <v>0.4531544099252562</v>
       </c>
       <c r="N6">
-        <v>0.01289803527428562</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="O6">
-        <v>10.54075553230764</v>
+        <v>0.4118450565698735</v>
       </c>
       <c r="P6">
-        <v>15.19723047593411</v>
+        <v>62.78805715238118</v>
       </c>
       <c r="Q6">
-        <v>5.277040651295764</v>
+        <v>0.4417453611902099</v>
       </c>
       <c r="R6">
-        <v>10.1357863290475</v>
+        <v>41.99469874785037</v>
       </c>
       <c r="S6">
-        <v>10.13592890738403</v>
+        <v>42.01591999019097</v>
       </c>
       <c r="T6">
-        <v>10.1357863290475</v>
+        <v>41.99469874785037</v>
       </c>
       <c r="U6">
-        <v>7.605171189356598</v>
+        <v>31.61393547734042</v>
       </c>
       <c r="V6">
-        <v>6.086716558540136</v>
+        <v>25.37274476963008</v>
       </c>
       <c r="W6">
-        <v>4.393392285105821</v>
+        <v>16.04163376872254</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.062896450397883</v>
+        <v>0.9733901884775901</v>
       </c>
       <c r="D7">
-        <v>1.25001949770131</v>
+        <v>0.9708367141743567</v>
       </c>
       <c r="E7">
-        <v>1.078871386231727</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="F7">
-        <v>1.062896450397883</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="G7">
-        <v>0.9684918214344008</v>
+        <v>0.911339178797671</v>
       </c>
       <c r="H7">
-        <v>0.9884185465195101</v>
+        <v>0.9454788830457518</v>
       </c>
       <c r="I7">
-        <v>1.062896450399661</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="J7">
-        <v>1.25001949770131</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="K7">
-        <v>1.000354597821867</v>
+        <v>1.009520951504552</v>
       </c>
       <c r="L7">
-        <v>1.024943893890109</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="M7">
-        <v>1.0125102840993</v>
+        <v>1.269316355992821</v>
       </c>
       <c r="N7">
-        <v>1.062896450397883</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="O7">
-        <v>1.078871386231727</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="P7">
-        <v>1.164445441966518</v>
+        <v>1.538104661428882</v>
       </c>
       <c r="Q7">
-        <v>1.023681603833064</v>
+        <v>1.131126821169848</v>
       </c>
       <c r="R7">
-        <v>1.130595778110306</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="S7">
-        <v>1.099127568455812</v>
+        <v>1.329182833885145</v>
       </c>
       <c r="T7">
-        <v>1.130595778110306</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="U7">
-        <v>1.09006978894133</v>
+        <v>1.249267363289571</v>
       </c>
       <c r="V7">
-        <v>1.084635121232641</v>
+        <v>1.201318080932226</v>
       </c>
       <c r="W7">
-        <v>1.048313309762013</v>
+        <v>1.1445114493561</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.068961970420817</v>
+        <v>1.027091435416442</v>
       </c>
       <c r="D8">
-        <v>1.579652501667937</v>
+        <v>1.045230815256589</v>
       </c>
       <c r="E8">
-        <v>1.028985008112403</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="F8">
-        <v>1.068961970420817</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="G8">
-        <v>0.9714498775150758</v>
+        <v>0.9527578782761765</v>
       </c>
       <c r="H8">
-        <v>0.9591648694763121</v>
+        <v>0.9725321742630381</v>
       </c>
       <c r="I8">
-        <v>1.068961970422596</v>
+        <v>1.269180127219735</v>
       </c>
       <c r="J8">
-        <v>1.579652501667937</v>
+        <v>1.034561228736723</v>
       </c>
       <c r="K8">
-        <v>0.9995439322213686</v>
+        <v>1.049812161456146</v>
       </c>
       <c r="L8">
-        <v>1.021664274477626</v>
+        <v>1.034561228736723</v>
       </c>
       <c r="M8">
-        <v>1.017988717464659</v>
+        <v>0.9909104060911872</v>
       </c>
       <c r="N8">
-        <v>1.068961970420817</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="O8">
-        <v>1.028985008112403</v>
+        <v>1.269180127219735</v>
       </c>
       <c r="P8">
-        <v>1.30431875489017</v>
+        <v>1.151870677978229</v>
       </c>
       <c r="Q8">
-        <v>1.000217442813739</v>
+        <v>1.110969002747956</v>
       </c>
       <c r="R8">
-        <v>1.225866493400386</v>
+        <v>1.117851172470234</v>
       </c>
       <c r="S8">
-        <v>1.193362462431805</v>
+        <v>1.085499744744211</v>
       </c>
       <c r="T8">
-        <v>1.225866493400386</v>
+        <v>1.117851172470234</v>
       </c>
       <c r="U8">
-        <v>1.162262339429058</v>
+        <v>1.07657784892172</v>
       </c>
       <c r="V8">
-        <v>1.14360226562741</v>
+        <v>1.071224711428225</v>
       </c>
       <c r="W8">
-        <v>1.080926393919525</v>
+        <v>1.042759528339267</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.015425301342157</v>
+        <v>1.094766638821215</v>
       </c>
       <c r="D9">
-        <v>2.031858066989684</v>
+        <v>1.001838806798646</v>
       </c>
       <c r="E9">
-        <v>1.213106083665407</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="F9">
-        <v>1.015425301342157</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="G9">
-        <v>0.986533148259705</v>
+        <v>0.8111440266393395</v>
       </c>
       <c r="H9">
-        <v>0.9861735050139437</v>
+        <v>0.836670235240165</v>
       </c>
       <c r="I9">
-        <v>1.015425301344283</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="J9">
-        <v>2.031858066989684</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="K9">
-        <v>0.9192412441951973</v>
+        <v>1.443800398609963</v>
       </c>
       <c r="L9">
-        <v>0.9742049012523942</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="M9">
-        <v>0.9877424830965882</v>
+        <v>1.79393951256975</v>
       </c>
       <c r="N9">
-        <v>1.015425301342157</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="O9">
-        <v>1.213106083665407</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="P9">
-        <v>1.622482075327546</v>
+        <v>2.397430270870145</v>
       </c>
       <c r="Q9">
-        <v>1.099819615962556</v>
+        <v>1.307484921925619</v>
       </c>
       <c r="R9">
-        <v>1.420129817332416</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="S9">
-        <v>1.410499099638265</v>
+        <v>1.868668189459876</v>
       </c>
       <c r="T9">
-        <v>1.420129817332416</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="U9">
-        <v>1.311730650064238</v>
+        <v>1.762451241747148</v>
       </c>
       <c r="V9">
-        <v>1.252469580319822</v>
+        <v>1.698721073119511</v>
       </c>
       <c r="W9">
-        <v>1.139285591726884</v>
+        <v>1.472127520052296</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.263274683534825</v>
+        <v>0.2922593864112845</v>
       </c>
       <c r="D10">
-        <v>3.387889300122104</v>
+        <v>0.6051323889298564</v>
       </c>
       <c r="E10">
-        <v>0.9356322853881385</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="F10">
-        <v>1.263274683534825</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="G10">
-        <v>0.8677554523987608</v>
+        <v>0.396613887665457</v>
       </c>
       <c r="H10">
-        <v>1.091409663660522</v>
+        <v>0.4233923487941683</v>
       </c>
       <c r="I10">
-        <v>1.263274683537503</v>
+        <v>0.4753213228564875</v>
       </c>
       <c r="J10">
-        <v>3.387889300122104</v>
+        <v>126.8212155426665</v>
       </c>
       <c r="K10">
-        <v>0.8882846229752195</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="L10">
-        <v>0.9692013851468267</v>
+        <v>126.8212155426665</v>
       </c>
       <c r="M10">
-        <v>1.181994563490855</v>
+        <v>0.373276229343952</v>
       </c>
       <c r="N10">
-        <v>1.263274683534825</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="O10">
-        <v>0.9356322853881385</v>
+        <v>0.4753213228564875</v>
       </c>
       <c r="P10">
-        <v>2.161760792755121</v>
+        <v>63.64826843276148</v>
       </c>
       <c r="Q10">
-        <v>0.9016938688934497</v>
+        <v>0.4359676052609722</v>
       </c>
       <c r="R10">
-        <v>1.862265423015022</v>
+        <v>42.63828669621871</v>
       </c>
       <c r="S10">
-        <v>1.730425679303001</v>
+        <v>42.56438358439614</v>
       </c>
       <c r="T10">
-        <v>1.862265423015022</v>
+        <v>42.63828669621871</v>
       </c>
       <c r="U10">
-        <v>1.613637930360957</v>
+        <v>32.07786849408039</v>
       </c>
       <c r="V10">
-        <v>1.54356528099573</v>
+        <v>25.78595943989094</v>
       </c>
       <c r="W10">
-        <v>1.323180244589656</v>
+        <v>16.2506917912251</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.249841841394507</v>
+        <v>1.030897050312904</v>
       </c>
       <c r="D11">
-        <v>5.274845913743877</v>
+        <v>1.345752418044766</v>
       </c>
       <c r="E11">
-        <v>2.519729572959945</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="F11">
-        <v>0.249841841394507</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="G11">
-        <v>1.226500934908157</v>
+        <v>0.9517814959163839</v>
       </c>
       <c r="H11">
-        <v>1.220456279489806</v>
+        <v>0.7796731512342111</v>
       </c>
       <c r="I11">
-        <v>0.2498418413982929</v>
+        <v>0.8841208170704691</v>
       </c>
       <c r="J11">
-        <v>5.274845913743877</v>
+        <v>3.644481186987922</v>
       </c>
       <c r="K11">
-        <v>0.8132505138282461</v>
+        <v>1.230241708535772</v>
       </c>
       <c r="L11">
-        <v>1.283220587449607</v>
+        <v>3.644481186987922</v>
       </c>
       <c r="M11">
-        <v>0.9891917288258566</v>
+        <v>0.7659919386006073</v>
       </c>
       <c r="N11">
-        <v>0.249841841394507</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="O11">
-        <v>2.519729572959945</v>
+        <v>0.8841208170704691</v>
       </c>
       <c r="P11">
-        <v>3.897287743351911</v>
+        <v>2.264301002029196</v>
       </c>
       <c r="Q11">
-        <v>1.873115253934051</v>
+        <v>0.9179511564934265</v>
       </c>
       <c r="R11">
-        <v>2.681472442699443</v>
+        <v>1.919614570863865</v>
       </c>
       <c r="S11">
-        <v>3.00702547387066</v>
+        <v>1.826794499991592</v>
       </c>
       <c r="T11">
-        <v>2.681472442699443</v>
+        <v>1.919614570863865</v>
       </c>
       <c r="U11">
-        <v>2.317729565751621</v>
+        <v>1.677656302126995</v>
       </c>
       <c r="V11">
-        <v>1.904152020880199</v>
+        <v>1.588173383408236</v>
       </c>
       <c r="W11">
-        <v>1.697129671575</v>
+        <v>1.329117470837558</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4085801478222011</v>
+        <v>0.5426705065573071</v>
       </c>
       <c r="D12">
-        <v>0.003550294424097214</v>
+        <v>1.11303106033048</v>
       </c>
       <c r="E12">
-        <v>0.003429442486612059</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="F12">
-        <v>0.4085801478222011</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="G12">
-        <v>2.614807624490453</v>
+        <v>0.7193067372863973</v>
       </c>
       <c r="H12">
-        <v>0.03254713084656053</v>
+        <v>0.7859142076343594</v>
       </c>
       <c r="I12">
-        <v>0.4085801478222011</v>
+        <v>1.009984870957052</v>
       </c>
       <c r="J12">
-        <v>0.003550294424097214</v>
+        <v>20.04128921726694</v>
       </c>
       <c r="K12">
-        <v>-0.001257431911578388</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="L12">
-        <v>-0.001502850586985298</v>
+        <v>20.04128921726694</v>
       </c>
       <c r="M12">
-        <v>0.2744561344533947</v>
+        <v>0.8077042865651473</v>
       </c>
       <c r="N12">
-        <v>0.4085801478222011</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="O12">
-        <v>0.003429442486612059</v>
+        <v>1.009984870957052</v>
       </c>
       <c r="P12">
-        <v>0.003489868455354637</v>
+        <v>10.52563704411199</v>
       </c>
       <c r="Q12">
-        <v>1.309118533488532</v>
+        <v>0.8646458041217249</v>
       </c>
       <c r="R12">
-        <v>0.1385199615776368</v>
+        <v>7.394707733140599</v>
       </c>
       <c r="S12">
-        <v>0.8739291204670541</v>
+        <v>7.256860275170129</v>
       </c>
       <c r="T12">
-        <v>0.1385199615776368</v>
+        <v>7.394707733140599</v>
       </c>
       <c r="U12">
-        <v>0.7575918773058409</v>
+        <v>5.725857484177049</v>
       </c>
       <c r="V12">
-        <v>0.6877895314091129</v>
+        <v>4.807255809581202</v>
       </c>
       <c r="W12">
-        <v>0.4168263115030943</v>
+        <v>3.269093749724436</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.2668842195185722</v>
+        <v>0.745773237010726</v>
       </c>
       <c r="D13">
-        <v>0.0761201067922304</v>
+        <v>0.6752601173516907</v>
       </c>
       <c r="E13">
-        <v>1.6972548188454</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="F13">
-        <v>0.2668842195185722</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="G13">
-        <v>-0.0005346634239876027</v>
+        <v>0.6827608806909857</v>
       </c>
       <c r="H13">
-        <v>0.6139002432027741</v>
+        <v>1.282617276912237</v>
       </c>
       <c r="I13">
-        <v>0.2668842195185722</v>
+        <v>1.545495114259217</v>
       </c>
       <c r="J13">
-        <v>0.0761201067922304</v>
+        <v>0.7546786126170315</v>
       </c>
       <c r="K13">
-        <v>2.705339109436881</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="L13">
-        <v>0.0403461268213026</v>
+        <v>0.7546786126170315</v>
       </c>
       <c r="M13">
-        <v>0.03795029131287173</v>
+        <v>0.7819714216931282</v>
       </c>
       <c r="N13">
-        <v>0.2668842195185722</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="O13">
-        <v>1.6972548188454</v>
+        <v>1.545495114259217</v>
       </c>
       <c r="P13">
-        <v>0.8866874628188154</v>
+        <v>1.150086863438124</v>
       </c>
       <c r="Q13">
-        <v>0.8483600777107064</v>
+        <v>1.114127997475101</v>
       </c>
       <c r="R13">
-        <v>0.6800863817187343</v>
+        <v>1.448103302582088</v>
       </c>
       <c r="S13">
-        <v>0.5909467540712144</v>
+        <v>0.9943115358557449</v>
       </c>
       <c r="T13">
-        <v>0.6800863817187343</v>
+        <v>1.448103302582088</v>
       </c>
       <c r="U13">
-        <v>0.5099311204330538</v>
+        <v>1.256767697109312</v>
       </c>
       <c r="V13">
-        <v>0.4613217402501575</v>
+        <v>1.414241393861453</v>
       </c>
       <c r="W13">
-        <v>0.6796575315632556</v>
+        <v>1.064086605175629</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0009333249709170212</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="D14">
-        <v>0.001299818628763659</v>
+        <v>-0.01248147300000001</v>
       </c>
       <c r="E14">
-        <v>5.662840107515388</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="F14">
-        <v>0.0009333249709170212</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="G14">
-        <v>0.001016163595548627</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="H14">
-        <v>1.991361344825924</v>
+        <v>-0.01423696600000001</v>
       </c>
       <c r="I14">
-        <v>0.0009333249709170212</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J14">
-        <v>0.001299818628763659</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="K14">
-        <v>1.902531458530388</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="L14">
-        <v>-0.001364000892881435</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="M14">
-        <v>0.0006595902111376061</v>
+        <v>-0.007912565500000005</v>
       </c>
       <c r="N14">
-        <v>0.0009333249709170212</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="O14">
-        <v>5.662840107515388</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="P14">
-        <v>2.832069963072076</v>
+        <v>121.1399095042149</v>
       </c>
       <c r="Q14">
-        <v>2.831928135555468</v>
+        <v>0.001213098765000001</v>
       </c>
       <c r="R14">
-        <v>1.888357750371689</v>
+        <v>80.76390973780994</v>
       </c>
       <c r="S14">
-        <v>1.888385363246567</v>
+        <v>80.76051206584327</v>
       </c>
       <c r="T14">
-        <v>1.88835775037169</v>
+        <v>80.76390973780994</v>
       </c>
       <c r="U14">
-        <v>1.416522353677654</v>
+        <v>60.57336160063245</v>
       </c>
       <c r="V14">
-        <v>1.133404547936307</v>
+        <v>48.46107132150596</v>
       </c>
       <c r="W14">
-        <v>1.194909725923148</v>
+        <v>30.28222973615373</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.005684776776117817</v>
+        <v>-0.00097750881</v>
       </c>
       <c r="D15">
-        <v>0.07655865009750248</v>
+        <v>-0.012481473</v>
       </c>
       <c r="E15">
-        <v>-0.003057026860527989</v>
+        <v>0.011910205</v>
       </c>
       <c r="F15">
-        <v>0.005684776776117817</v>
+        <v>0.011910205</v>
       </c>
       <c r="G15">
-        <v>2.936446157337572</v>
+        <v>0.0017171891</v>
       </c>
       <c r="H15">
-        <v>0.01875732023250777</v>
+        <v>-0.014236966</v>
       </c>
       <c r="I15">
-        <v>0.005684776776117817</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J15">
-        <v>0.07655865009750248</v>
+        <v>242.27911</v>
       </c>
       <c r="K15">
-        <v>0.7129752475942677</v>
+        <v>0.011910205</v>
       </c>
       <c r="L15">
-        <v>3.858319634524488</v>
+        <v>242.27911</v>
       </c>
       <c r="M15">
-        <v>3.807085785628126</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="N15">
-        <v>0.005684776776117817</v>
+        <v>0.011910205</v>
       </c>
       <c r="O15">
-        <v>-0.003057026860527989</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P15">
-        <v>0.03675081161848725</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q15">
-        <v>1.466694565238522</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R15">
-        <v>0.02639546667103077</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S15">
-        <v>1.003315926858182</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T15">
-        <v>0.02639546667103077</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U15">
-        <v>0.7539081393376661</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V15">
-        <v>0.6042634668253564</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W15">
-        <v>1.426596318166257</v>
+        <v>30.2822297361525</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.062218107741695</v>
+        <v>-0.00097750881</v>
       </c>
       <c r="D16">
-        <v>1.150893446067447</v>
+        <v>-0.012481473</v>
       </c>
       <c r="E16">
-        <v>1.060023662965842</v>
+        <v>0.011910205</v>
       </c>
       <c r="F16">
-        <v>1.062218107741695</v>
+        <v>0.011910205</v>
       </c>
       <c r="G16">
-        <v>0.9686661833691701</v>
+        <v>0.0017171891</v>
       </c>
       <c r="H16">
-        <v>0.9910141812646014</v>
+        <v>-0.014236966</v>
       </c>
       <c r="I16">
-        <v>1.062218107743488</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J16">
-        <v>1.150893446067447</v>
+        <v>242.27911</v>
       </c>
       <c r="K16">
-        <v>1.029839181484024</v>
+        <v>0.011910205</v>
       </c>
       <c r="L16">
-        <v>1.026248589124736</v>
+        <v>242.27911</v>
       </c>
       <c r="M16">
-        <v>1.007594885056926</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="N16">
-        <v>1.062218107741695</v>
+        <v>0.011910205</v>
       </c>
       <c r="O16">
-        <v>1.060023662965842</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P16">
-        <v>1.105458554516645</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q16">
-        <v>1.014344923167506</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R16">
-        <v>1.091045072258328</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S16">
-        <v>1.059861097467486</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T16">
-        <v>1.091045072258328</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U16">
-        <v>1.060450350036038</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V16">
-        <v>1.06080390157717</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W16">
-        <v>1.037062279634305</v>
+        <v>30.2822297361525</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.049812161454246</v>
+        <v>0.020076706</v>
       </c>
       <c r="D17">
-        <v>1.034561228736717</v>
+        <v>0.0030574447</v>
       </c>
       <c r="E17">
-        <v>1.269180127219735</v>
+        <v>-0.014036306</v>
       </c>
       <c r="F17">
-        <v>1.049812161454246</v>
+        <v>-0.014036306</v>
       </c>
       <c r="G17">
-        <v>0.952757878276176</v>
+        <v>0.016826011</v>
       </c>
       <c r="H17">
-        <v>0.9725321742630381</v>
+        <v>-0.0046288862</v>
       </c>
       <c r="I17">
-        <v>1.049812161456146</v>
+        <v>-0.019481421</v>
       </c>
       <c r="J17">
-        <v>1.034561228736717</v>
+        <v>-0.0041019915</v>
       </c>
       <c r="K17">
-        <v>0.9909104060911842</v>
+        <v>-0.014036306</v>
       </c>
       <c r="L17">
-        <v>1.027091435416443</v>
+        <v>-0.0041019915</v>
       </c>
       <c r="M17">
-        <v>1.045230815256589</v>
+        <v>16.389185</v>
       </c>
       <c r="N17">
-        <v>1.049812161454246</v>
+        <v>-0.014036306</v>
       </c>
       <c r="O17">
-        <v>1.269180127219735</v>
+        <v>-0.019481421</v>
       </c>
       <c r="P17">
-        <v>1.151870677978226</v>
+        <v>-0.01179170625</v>
       </c>
       <c r="Q17">
-        <v>1.110969002747956</v>
+        <v>-0.001327705</v>
       </c>
       <c r="R17">
-        <v>1.117851172470232</v>
+        <v>-0.01253990616666666</v>
       </c>
       <c r="S17">
-        <v>1.085499744744209</v>
+        <v>-0.002252467166666666</v>
       </c>
       <c r="T17">
-        <v>1.117851172470232</v>
+        <v>-0.01253990616666666</v>
       </c>
       <c r="U17">
-        <v>1.076577848921718</v>
+        <v>-0.005198426874999999</v>
       </c>
       <c r="V17">
-        <v>1.071224711428224</v>
+        <v>-0.0069660027</v>
       </c>
       <c r="W17">
-        <v>1.042759528339266</v>
+        <v>2.048362069625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.104064999356279</v>
+        <v>0.005416145895205478</v>
       </c>
       <c r="D18">
-        <v>2.775420529397656</v>
+        <v>-0.002792474563835614</v>
       </c>
       <c r="E18">
-        <v>0.8758428683238579</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="F18">
-        <v>1.104064999356279</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="G18">
-        <v>1.104437088293052</v>
+        <v>0.001933017291780822</v>
       </c>
       <c r="H18">
-        <v>1.17910866446508</v>
+        <v>0.00578538503561644</v>
       </c>
       <c r="I18">
-        <v>1.104064999358227</v>
+        <v>7.469306404478766</v>
       </c>
       <c r="J18">
-        <v>2.775420529397656</v>
+        <v>18.26629903317424</v>
       </c>
       <c r="K18">
-        <v>0.992795326911782</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="L18">
-        <v>1.498199338225459</v>
+        <v>18.26629903317424</v>
       </c>
       <c r="M18">
-        <v>0.6992874811572578</v>
+        <v>6.928513704905475</v>
       </c>
       <c r="N18">
-        <v>1.104064999356279</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="O18">
-        <v>0.8758428683238579</v>
+        <v>7.469306404478766</v>
       </c>
       <c r="P18">
-        <v>1.825631698860757</v>
+        <v>12.8678027188265</v>
       </c>
       <c r="Q18">
-        <v>0.9901399783084548</v>
+        <v>3.735619710885273</v>
       </c>
       <c r="R18">
-        <v>1.585109465692598</v>
+        <v>8.581041997863331</v>
       </c>
       <c r="S18">
-        <v>1.585233495338189</v>
+        <v>8.579179484981596</v>
       </c>
       <c r="T18">
-        <v>1.585109465692597</v>
+        <v>8.581041997863331</v>
       </c>
       <c r="U18">
-        <v>1.464941371342711</v>
+        <v>6.436264752720443</v>
       </c>
       <c r="V18">
-        <v>1.392766096945425</v>
+        <v>5.150515913363751</v>
       </c>
       <c r="W18">
-        <v>1.278644537016303</v>
+        <v>4.08524772151928</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.028139937888379</v>
+        <v>0.005163764788947369</v>
       </c>
       <c r="D19">
-        <v>3.197212598329465</v>
+        <v>-0.003174935028421053</v>
       </c>
       <c r="E19">
-        <v>2.310621415691346</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="F19">
-        <v>4.028139937888379</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="G19">
-        <v>1.117218460343187</v>
+        <v>0.001924497757894737</v>
       </c>
       <c r="H19">
-        <v>0.4713707287678641</v>
+        <v>0.00499502907368421</v>
       </c>
       <c r="I19">
-        <v>4.028139937894657</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="J19">
-        <v>3.197212598329465</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="K19">
-        <v>1.794258923332996</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="L19">
-        <v>0.7871375055268828</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="M19">
-        <v>0.6028551504708675</v>
+        <v>6.654707404757893</v>
       </c>
       <c r="N19">
-        <v>4.028139937888379</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="O19">
-        <v>2.310621415691346</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="P19">
-        <v>2.753917007010406</v>
+        <v>17.14170167087605</v>
       </c>
       <c r="Q19">
-        <v>1.713919938017267</v>
+        <v>3.588208923559474</v>
       </c>
       <c r="R19">
-        <v>3.17865798396973</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="S19">
-        <v>2.208350824787999</v>
+        <v>11.42844261317</v>
       </c>
       <c r="T19">
-        <v>3.17865798396973</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="U19">
-        <v>2.663298103063094</v>
+        <v>8.573255417766973</v>
       </c>
       <c r="V19">
-        <v>2.936266470028151</v>
+        <v>6.860143100525157</v>
       </c>
       <c r="W19">
-        <v>1.788601840043873</v>
+        <v>5.119339116832499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.005163764788947369</v>
+      </c>
+      <c r="D20">
+        <v>-0.003174935028421053</v>
+      </c>
+      <c r="E20">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="F20">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="G20">
+        <v>0.001924497757894737</v>
+      </c>
+      <c r="H20">
+        <v>0.00499502907368421</v>
+      </c>
+      <c r="I20">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="J20">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="K20">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="L20">
+        <v>27.10890999239104</v>
+      </c>
+      <c r="M20">
+        <v>6.654707404757893</v>
+      </c>
+      <c r="N20">
+        <v>0.007693831557894736</v>
+      </c>
+      <c r="O20">
+        <v>7.174493349361053</v>
+      </c>
+      <c r="P20">
+        <v>17.14170167087605</v>
+      </c>
+      <c r="Q20">
+        <v>3.588208923559474</v>
+      </c>
+      <c r="R20">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="S20">
+        <v>11.42844261317</v>
+      </c>
+      <c r="T20">
+        <v>11.43036572443666</v>
+      </c>
+      <c r="U20">
+        <v>8.573255417766973</v>
+      </c>
+      <c r="V20">
+        <v>6.860143100525157</v>
+      </c>
+      <c r="W20">
+        <v>5.119339116832499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.001364000892881431</v>
+      </c>
+      <c r="D21">
+        <v>0.0006595902111376068</v>
+      </c>
+      <c r="E21">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="F21">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="G21">
+        <v>0.001016163595548628</v>
+      </c>
+      <c r="H21">
+        <v>1.991361344825924</v>
+      </c>
+      <c r="I21">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="J21">
+        <v>0.00129981862876366</v>
+      </c>
+      <c r="K21">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="L21">
+        <v>0.00129981862876366</v>
+      </c>
+      <c r="M21">
+        <v>1.90253145853039</v>
+      </c>
+      <c r="N21">
+        <v>0.0009333249709170174</v>
+      </c>
+      <c r="O21">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="P21">
+        <v>2.832069963072077</v>
+      </c>
+      <c r="Q21">
+        <v>2.83192813555547</v>
+      </c>
+      <c r="R21">
+        <v>1.88835775037169</v>
+      </c>
+      <c r="S21">
+        <v>1.888385363246568</v>
+      </c>
+      <c r="T21">
+        <v>1.888357750371691</v>
+      </c>
+      <c r="U21">
+        <v>1.416522353677655</v>
+      </c>
+      <c r="V21">
+        <v>1.133404547936308</v>
+      </c>
+      <c r="W21">
+        <v>1.194909725923149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3.858319634524489</v>
+      </c>
+      <c r="D22">
+        <v>3.807085785628126</v>
+      </c>
+      <c r="E22">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="F22">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="G22">
+        <v>2.93644615733757</v>
+      </c>
+      <c r="H22">
+        <v>0.01875732023250777</v>
+      </c>
+      <c r="I22">
+        <v>-0.003057026860527989</v>
+      </c>
+      <c r="J22">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="K22">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="L22">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="M22">
+        <v>0.7129752475942677</v>
+      </c>
+      <c r="N22">
+        <v>0.005684776776117816</v>
+      </c>
+      <c r="O22">
+        <v>-0.003057026860527989</v>
+      </c>
+      <c r="P22">
+        <v>0.03675081161848725</v>
+      </c>
+      <c r="Q22">
+        <v>1.466694565238521</v>
+      </c>
+      <c r="R22">
+        <v>0.02639546667103077</v>
+      </c>
+      <c r="S22">
+        <v>1.003315926858181</v>
+      </c>
+      <c r="T22">
+        <v>0.02639546667103077</v>
+      </c>
+      <c r="U22">
+        <v>0.7539081393376657</v>
+      </c>
+      <c r="V22">
+        <v>0.604263466825356</v>
+      </c>
+      <c r="W22">
+        <v>1.426596318166256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>-0.001502850586985293</v>
+      </c>
+      <c r="D23">
+        <v>0.2744561344533932</v>
+      </c>
+      <c r="E23">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="F23">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="G23">
+        <v>2.614807624490462</v>
+      </c>
+      <c r="H23">
+        <v>0.03254713084656045</v>
+      </c>
+      <c r="I23">
+        <v>0.003429442486612062</v>
+      </c>
+      <c r="J23">
+        <v>0.003550294424097217</v>
+      </c>
+      <c r="K23">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="L23">
+        <v>0.003550294424097217</v>
+      </c>
+      <c r="M23">
+        <v>-0.001257431911578386</v>
+      </c>
+      <c r="N23">
+        <v>0.4085801478222008</v>
+      </c>
+      <c r="O23">
+        <v>0.003429442486612062</v>
+      </c>
+      <c r="P23">
+        <v>0.00348986845535464</v>
+      </c>
+      <c r="Q23">
+        <v>1.309118533488537</v>
+      </c>
+      <c r="R23">
+        <v>0.1385199615776367</v>
+      </c>
+      <c r="S23">
+        <v>0.8739291204670571</v>
+      </c>
+      <c r="T23">
+        <v>0.1385199615776367</v>
+      </c>
+      <c r="U23">
+        <v>0.757591877305843</v>
+      </c>
+      <c r="V23">
+        <v>0.6877895314091146</v>
+      </c>
+      <c r="W23">
+        <v>0.4168263115030952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.04034612682130263</v>
+      </c>
+      <c r="D24">
+        <v>0.03795029131287164</v>
+      </c>
+      <c r="E24">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="F24">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="G24">
+        <v>-0.0005346634239876048</v>
+      </c>
+      <c r="H24">
+        <v>0.6139002432027721</v>
+      </c>
+      <c r="I24">
+        <v>1.697254818845404</v>
+      </c>
+      <c r="J24">
+        <v>0.0761201067922304</v>
+      </c>
+      <c r="K24">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="L24">
+        <v>0.0761201067922304</v>
+      </c>
+      <c r="M24">
+        <v>2.705339109436882</v>
+      </c>
+      <c r="N24">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="O24">
+        <v>1.697254818845404</v>
+      </c>
+      <c r="P24">
+        <v>0.8866874628188169</v>
+      </c>
+      <c r="Q24">
+        <v>0.848360077710708</v>
+      </c>
+      <c r="R24">
+        <v>0.6800863817187354</v>
+      </c>
+      <c r="S24">
+        <v>0.5909467540712154</v>
+      </c>
+      <c r="T24">
+        <v>0.6800863817187354</v>
+      </c>
+      <c r="U24">
+        <v>0.5099311204330546</v>
+      </c>
+      <c r="V24">
+        <v>0.4613217402501581</v>
+      </c>
+      <c r="W24">
+        <v>0.6796575315632558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-0.001364000892881441</v>
+      </c>
+      <c r="D25">
+        <v>0.0006595902111376072</v>
+      </c>
+      <c r="E25">
+        <v>0.0009333249709169949</v>
+      </c>
+      <c r="F25">
+        <v>0.0009333249709169949</v>
+      </c>
+      <c r="G25">
+        <v>0.001016163595548635</v>
+      </c>
+      <c r="H25">
+        <v>1.991361344825923</v>
+      </c>
+      <c r="I25">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="J25">
+        <v>0.001299818628753629</v>
+      </c>
+      <c r="K25">
+        <v>0.0009333249709169949</v>
+      </c>
+      <c r="L25">
+        <v>0.001299818628753629</v>
+      </c>
+      <c r="M25">
+        <v>1.902531458530388</v>
+      </c>
+      <c r="N25">
+        <v>0.0009333249709169949</v>
+      </c>
+      <c r="O25">
+        <v>5.662840107515391</v>
+      </c>
+      <c r="P25">
+        <v>2.832069963072072</v>
+      </c>
+      <c r="Q25">
+        <v>2.83192813555547</v>
+      </c>
+      <c r="R25">
+        <v>1.888357750371687</v>
+      </c>
+      <c r="S25">
+        <v>1.888385363246565</v>
+      </c>
+      <c r="T25">
+        <v>1.888357750371687</v>
+      </c>
+      <c r="U25">
+        <v>1.416522353677653</v>
+      </c>
+      <c r="V25">
+        <v>1.133404547936305</v>
+      </c>
+      <c r="W25">
+        <v>1.194909725923147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.858319634524487</v>
+      </c>
+      <c r="D26">
+        <v>3.807085785628125</v>
+      </c>
+      <c r="E26">
+        <v>0.005684776776117857</v>
+      </c>
+      <c r="F26">
+        <v>0.005684776776117857</v>
+      </c>
+      <c r="G26">
+        <v>2.936446157337568</v>
+      </c>
+      <c r="H26">
+        <v>0.01875732023250772</v>
+      </c>
+      <c r="I26">
+        <v>-0.003057026860527997</v>
+      </c>
+      <c r="J26">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="K26">
+        <v>0.005684776776117857</v>
+      </c>
+      <c r="L26">
+        <v>0.07655865009750248</v>
+      </c>
+      <c r="M26">
+        <v>0.7129752475942684</v>
+      </c>
+      <c r="N26">
+        <v>0.005684776776117857</v>
+      </c>
+      <c r="O26">
+        <v>-0.003057026860527997</v>
+      </c>
+      <c r="P26">
+        <v>0.03675081161848724</v>
+      </c>
+      <c r="Q26">
+        <v>1.46669456523852</v>
+      </c>
+      <c r="R26">
+        <v>0.02639546667103078</v>
+      </c>
+      <c r="S26">
+        <v>1.003315926858181</v>
+      </c>
+      <c r="T26">
+        <v>0.02639546667103078</v>
+      </c>
+      <c r="U26">
+        <v>0.7539081393376651</v>
+      </c>
+      <c r="V26">
+        <v>0.6042634668253556</v>
+      </c>
+      <c r="W26">
+        <v>1.426596318166256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.171919084534543</v>
+      </c>
+      <c r="D27">
+        <v>0.00178680102107821</v>
+      </c>
+      <c r="E27">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="F27">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="G27">
+        <v>1.027456736158563</v>
+      </c>
+      <c r="H27">
+        <v>0.3488859538061379</v>
+      </c>
+      <c r="I27">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="J27">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="K27">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="L27">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="M27">
+        <v>3.545509196122952</v>
+      </c>
+      <c r="N27">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="O27">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="P27">
+        <v>7.122774503470152</v>
+      </c>
+      <c r="Q27">
+        <v>0.5108691223003932</v>
+      </c>
+      <c r="R27">
+        <v>4.74675313237398</v>
+      </c>
+      <c r="S27">
+        <v>5.091001914366289</v>
+      </c>
+      <c r="T27">
+        <v>4.74675313237398</v>
+      </c>
+      <c r="U27">
+        <v>3.816929033320126</v>
+      </c>
+      <c r="V27">
+        <v>3.052485304692428</v>
+      </c>
+      <c r="W27">
+        <v>2.666977146095652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.336595392933981</v>
+      </c>
+      <c r="D28">
+        <v>0.0362514160587174</v>
+      </c>
+      <c r="E28">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="F28">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="G28">
+        <v>0.005482462513331983</v>
+      </c>
+      <c r="H28">
+        <v>0.006297159014118457</v>
+      </c>
+      <c r="I28">
+        <v>1.928284736561503</v>
+      </c>
+      <c r="J28">
+        <v>0.000583113263469607</v>
+      </c>
+      <c r="K28">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="L28">
+        <v>0.000583113263469607</v>
+      </c>
+      <c r="M28">
+        <v>5.634882361288871</v>
+      </c>
+      <c r="N28">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="O28">
+        <v>1.928284736561503</v>
+      </c>
+      <c r="P28">
+        <v>0.9644339249124866</v>
+      </c>
+      <c r="Q28">
+        <v>0.9668835995374178</v>
+      </c>
+      <c r="R28">
+        <v>0.6439694167401473</v>
+      </c>
+      <c r="S28">
+        <v>0.6447834374461018</v>
+      </c>
+      <c r="T28">
+        <v>0.6439694167401473</v>
+      </c>
+      <c r="U28">
+        <v>0.4843476781834435</v>
+      </c>
+      <c r="V28">
+        <v>0.3880862226258485</v>
+      </c>
+      <c r="W28">
+        <v>1.118927130253683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.007173689052899552</v>
+      </c>
+      <c r="D29">
+        <v>-0.001930101628593115</v>
+      </c>
+      <c r="E29">
+        <v>-0.001113364712716354</v>
+      </c>
+      <c r="F29">
+        <v>-0.001113364712716354</v>
+      </c>
+      <c r="G29">
+        <v>0.01204460340347953</v>
+      </c>
+      <c r="H29">
+        <v>0.004838949003011381</v>
+      </c>
+      <c r="I29">
+        <v>0.4025107048938357</v>
+      </c>
+      <c r="J29">
+        <v>-0.001508572268607965</v>
+      </c>
+      <c r="K29">
+        <v>-0.001113364712716354</v>
+      </c>
+      <c r="L29">
+        <v>-0.001508572268607965</v>
+      </c>
+      <c r="M29">
+        <v>3.811658531495391</v>
+      </c>
+      <c r="N29">
+        <v>-0.001113364712716354</v>
+      </c>
+      <c r="O29">
+        <v>0.4025107048938357</v>
+      </c>
+      <c r="P29">
+        <v>0.2005010663126139</v>
+      </c>
+      <c r="Q29">
+        <v>0.2072776541486576</v>
+      </c>
+      <c r="R29">
+        <v>0.1332962559708371</v>
+      </c>
+      <c r="S29">
+        <v>0.1376822453429024</v>
+      </c>
+      <c r="T29">
+        <v>0.1332962559708371</v>
+      </c>
+      <c r="U29">
+        <v>0.1029833428289977</v>
+      </c>
+      <c r="V29">
+        <v>0.08216400132065492</v>
+      </c>
+      <c r="W29">
+        <v>0.5292093049048374</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8266061432774778</v>
+        <v>0.8583405893302233</v>
       </c>
       <c r="D4">
-        <v>1.247487760647926</v>
+        <v>1.249284425082143</v>
       </c>
       <c r="E4">
-        <v>0.8320681823128715</v>
+        <v>0.8283191612645097</v>
       </c>
       <c r="F4">
-        <v>0.8320681823128715</v>
+        <v>0.8283191612645097</v>
       </c>
       <c r="G4">
-        <v>0.8704281516733394</v>
+        <v>0.9384125430195657</v>
       </c>
       <c r="H4">
-        <v>0.7940972757048157</v>
+        <v>0.7958470067306288</v>
       </c>
       <c r="I4">
-        <v>0.9884293699656532</v>
+        <v>0.9101344896594382</v>
       </c>
       <c r="J4">
-        <v>3.943539348330148</v>
+        <v>8.462066328322619</v>
       </c>
       <c r="K4">
-        <v>0.8320681823146074</v>
+        <v>0.8283191612656799</v>
       </c>
       <c r="L4">
-        <v>3.943539348330148</v>
+        <v>8.462066328322619</v>
       </c>
       <c r="M4">
-        <v>1.01458229114939</v>
+        <v>0.9609698426690715</v>
       </c>
       <c r="N4">
-        <v>0.8320681823128715</v>
+        <v>0.8283191612645097</v>
       </c>
       <c r="O4">
-        <v>0.9884293699656532</v>
+        <v>0.9101344896594382</v>
       </c>
       <c r="P4">
-        <v>2.4659843591479</v>
+        <v>4.686100408991028</v>
       </c>
       <c r="Q4">
-        <v>0.9294287608194963</v>
+        <v>0.9242735163395019</v>
       </c>
       <c r="R4">
-        <v>1.921345633536224</v>
+        <v>3.400173326415522</v>
       </c>
       <c r="S4">
-        <v>1.934132289989713</v>
+        <v>3.436871120333874</v>
       </c>
       <c r="T4">
-        <v>1.921345633536224</v>
+        <v>3.400173326415522</v>
       </c>
       <c r="U4">
-        <v>1.658616263070503</v>
+        <v>2.784733130566533</v>
       </c>
       <c r="V4">
-        <v>1.493306646918977</v>
+        <v>2.393450336706128</v>
       </c>
       <c r="W4">
-        <v>1.314654815382703</v>
+        <v>1.875421798259775</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8033994200670552</v>
+        <v>0.005686821217464808</v>
       </c>
       <c r="D5">
-        <v>1.168532644563931</v>
+        <v>-0.002697053577534179</v>
       </c>
       <c r="E5">
-        <v>0.7757359682517873</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="F5">
-        <v>0.7757359682517873</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="G5">
-        <v>0.8782780386560352</v>
+        <v>0.001767806298157122</v>
       </c>
       <c r="H5">
-        <v>0.7445996272450731</v>
+        <v>0.006797690420938631</v>
       </c>
       <c r="I5">
-        <v>1.108597815311767</v>
+        <v>7.932338314292</v>
       </c>
       <c r="J5">
-        <v>14.73709305262919</v>
+        <v>10.37533369913002</v>
       </c>
       <c r="K5">
-        <v>0.7757359682528834</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="L5">
-        <v>14.73709305262919</v>
+        <v>10.37533369913002</v>
       </c>
       <c r="M5">
-        <v>1.137166396854141</v>
+        <v>7.35344715735545</v>
       </c>
       <c r="N5">
-        <v>0.7757359682517873</v>
+        <v>0.007219382612198793</v>
       </c>
       <c r="O5">
-        <v>1.108597815311767</v>
+        <v>7.932338314292</v>
       </c>
       <c r="P5">
-        <v>7.922845433970477</v>
+        <v>9.153836006711012</v>
       </c>
       <c r="Q5">
-        <v>0.993437926983901</v>
+        <v>3.967053060295079</v>
       </c>
       <c r="R5">
-        <v>5.540475612064246</v>
+        <v>6.104963798678074</v>
       </c>
       <c r="S5">
-        <v>5.574656302198997</v>
+        <v>6.103146606573394</v>
       </c>
       <c r="T5">
-        <v>5.540475612064248</v>
+        <v>6.104963798678074</v>
       </c>
       <c r="U5">
-        <v>4.374926218712194</v>
+        <v>4.579164800583095</v>
       </c>
       <c r="V5">
-        <v>3.655088168620113</v>
+        <v>3.664775716988916</v>
       </c>
       <c r="W5">
-        <v>2.669175370447372</v>
+        <v>3.209986727218587</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4197234336776474</v>
+        <v>0.8266061432774778</v>
       </c>
       <c r="D6">
-        <v>0.6217059528823576</v>
+        <v>1.247487760647926</v>
       </c>
       <c r="E6">
-        <v>0.4079819387887624</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="F6">
-        <v>0.4079819387887624</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="G6">
-        <v>0.4716456658105462</v>
+        <v>0.8704281516733394</v>
       </c>
       <c r="H6">
-        <v>0.3827444439333634</v>
+        <v>0.7940972757048157</v>
       </c>
       <c r="I6">
-        <v>0.4118450565698735</v>
+        <v>0.9884293699656532</v>
       </c>
       <c r="J6">
-        <v>125.1642692481925</v>
+        <v>3.943539348330148</v>
       </c>
       <c r="K6">
-        <v>0.4079819387893496</v>
+        <v>0.8320681823146074</v>
       </c>
       <c r="L6">
-        <v>125.1642692481925</v>
+        <v>3.943539348330148</v>
       </c>
       <c r="M6">
-        <v>0.4531544099252562</v>
+        <v>1.01458229114939</v>
       </c>
       <c r="N6">
-        <v>0.4079819387887624</v>
+        <v>0.8320681823128715</v>
       </c>
       <c r="O6">
-        <v>0.4118450565698735</v>
+        <v>0.9884293699656532</v>
       </c>
       <c r="P6">
-        <v>62.78805715238118</v>
+        <v>2.4659843591479</v>
       </c>
       <c r="Q6">
-        <v>0.4417453611902099</v>
+        <v>0.9294287608194963</v>
       </c>
       <c r="R6">
-        <v>41.99469874785037</v>
+        <v>1.921345633536224</v>
       </c>
       <c r="S6">
-        <v>42.01591999019097</v>
+        <v>1.934132289989713</v>
       </c>
       <c r="T6">
-        <v>41.99469874785037</v>
+        <v>1.921345633536224</v>
       </c>
       <c r="U6">
-        <v>31.61393547734042</v>
+        <v>1.658616263070503</v>
       </c>
       <c r="V6">
-        <v>25.37274476963008</v>
+        <v>1.493306646918977</v>
       </c>
       <c r="W6">
-        <v>16.04163376872254</v>
+        <v>1.314654815382703</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9733901884775901</v>
+        <v>0.8033994200670552</v>
       </c>
       <c r="D7">
-        <v>0.9708367141743567</v>
+        <v>1.168532644563931</v>
       </c>
       <c r="E7">
-        <v>1.009520951502848</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="F7">
-        <v>1.009520951502848</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="G7">
-        <v>0.911339178797671</v>
+        <v>0.8782780386560352</v>
       </c>
       <c r="H7">
-        <v>0.9454788830457518</v>
+        <v>0.7445996272450731</v>
       </c>
       <c r="I7">
-        <v>1.350914463542024</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="J7">
-        <v>1.725294859315739</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="K7">
-        <v>1.009520951504552</v>
+        <v>0.7757359682528834</v>
       </c>
       <c r="L7">
-        <v>1.725294859315739</v>
+        <v>14.73709305262919</v>
       </c>
       <c r="M7">
-        <v>1.269316355992821</v>
+        <v>1.137166396854141</v>
       </c>
       <c r="N7">
-        <v>1.009520951502848</v>
+        <v>0.7757359682517873</v>
       </c>
       <c r="O7">
-        <v>1.350914463542024</v>
+        <v>1.108597815311767</v>
       </c>
       <c r="P7">
-        <v>1.538104661428882</v>
+        <v>7.922845433970477</v>
       </c>
       <c r="Q7">
-        <v>1.131126821169848</v>
+        <v>0.993437926983901</v>
       </c>
       <c r="R7">
-        <v>1.361910091453537</v>
+        <v>5.540475612064246</v>
       </c>
       <c r="S7">
-        <v>1.329182833885145</v>
+        <v>5.574656302198997</v>
       </c>
       <c r="T7">
-        <v>1.361910091453537</v>
+        <v>5.540475612064248</v>
       </c>
       <c r="U7">
-        <v>1.249267363289571</v>
+        <v>4.374926218712194</v>
       </c>
       <c r="V7">
-        <v>1.201318080932226</v>
+        <v>3.655088168620113</v>
       </c>
       <c r="W7">
-        <v>1.1445114493561</v>
+        <v>2.669175370447372</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.027091435416442</v>
+        <v>0.4197234336776474</v>
       </c>
       <c r="D8">
-        <v>1.045230815256589</v>
+        <v>0.6217059528823576</v>
       </c>
       <c r="E8">
-        <v>1.049812161454246</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="F8">
-        <v>1.049812161454246</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="G8">
-        <v>0.9527578782761765</v>
+        <v>0.4716456658105462</v>
       </c>
       <c r="H8">
-        <v>0.9725321742630381</v>
+        <v>0.3827444439333634</v>
       </c>
       <c r="I8">
-        <v>1.269180127219735</v>
+        <v>0.4118450565698735</v>
       </c>
       <c r="J8">
-        <v>1.034561228736723</v>
+        <v>125.1642692481925</v>
       </c>
       <c r="K8">
-        <v>1.049812161456146</v>
+        <v>0.4079819387893496</v>
       </c>
       <c r="L8">
-        <v>1.034561228736723</v>
+        <v>125.1642692481925</v>
       </c>
       <c r="M8">
-        <v>0.9909104060911872</v>
+        <v>0.4531544099252562</v>
       </c>
       <c r="N8">
-        <v>1.049812161454246</v>
+        <v>0.4079819387887624</v>
       </c>
       <c r="O8">
-        <v>1.269180127219735</v>
+        <v>0.4118450565698735</v>
       </c>
       <c r="P8">
-        <v>1.151870677978229</v>
+        <v>62.78805715238118</v>
       </c>
       <c r="Q8">
-        <v>1.110969002747956</v>
+        <v>0.4417453611902099</v>
       </c>
       <c r="R8">
-        <v>1.117851172470234</v>
+        <v>41.99469874785037</v>
       </c>
       <c r="S8">
-        <v>1.085499744744211</v>
+        <v>42.01591999019097</v>
       </c>
       <c r="T8">
-        <v>1.117851172470234</v>
+        <v>41.99469874785037</v>
       </c>
       <c r="U8">
-        <v>1.07657784892172</v>
+        <v>31.61393547734042</v>
       </c>
       <c r="V8">
-        <v>1.071224711428225</v>
+        <v>25.37274476963008</v>
       </c>
       <c r="W8">
-        <v>1.042759528339267</v>
+        <v>16.04163376872254</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.094766638821215</v>
+        <v>0.9733901884775901</v>
       </c>
       <c r="D9">
-        <v>1.001838806798646</v>
+        <v>0.9708367141743567</v>
       </c>
       <c r="E9">
-        <v>1.443800398608962</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="F9">
-        <v>1.443800398608962</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="G9">
-        <v>0.8111440266393395</v>
+        <v>0.911339178797671</v>
       </c>
       <c r="H9">
-        <v>0.836670235240165</v>
+        <v>0.9454788830457518</v>
       </c>
       <c r="I9">
-        <v>1.803825817211899</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="J9">
-        <v>2.991034724528391</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="K9">
-        <v>1.443800398609963</v>
+        <v>1.009520951504552</v>
       </c>
       <c r="L9">
-        <v>2.991034724528391</v>
+        <v>1.725294859315739</v>
       </c>
       <c r="M9">
-        <v>1.79393951256975</v>
+        <v>1.269316355992821</v>
       </c>
       <c r="N9">
-        <v>1.443800398608962</v>
+        <v>1.009520951502848</v>
       </c>
       <c r="O9">
-        <v>1.803825817211899</v>
+        <v>1.350914463542024</v>
       </c>
       <c r="P9">
-        <v>2.397430270870145</v>
+        <v>1.538104661428882</v>
       </c>
       <c r="Q9">
-        <v>1.307484921925619</v>
+        <v>1.131126821169848</v>
       </c>
       <c r="R9">
-        <v>2.079553646783084</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="S9">
-        <v>1.868668189459876</v>
+        <v>1.329182833885145</v>
       </c>
       <c r="T9">
-        <v>2.079553646783084</v>
+        <v>1.361910091453537</v>
       </c>
       <c r="U9">
-        <v>1.762451241747148</v>
+        <v>1.249267363289571</v>
       </c>
       <c r="V9">
-        <v>1.698721073119511</v>
+        <v>1.201318080932226</v>
       </c>
       <c r="W9">
-        <v>1.472127520052296</v>
+        <v>1.1445114493561</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2922593864112845</v>
+        <v>1.027091435416442</v>
       </c>
       <c r="D10">
-        <v>0.6051323889298564</v>
+        <v>1.045230815256589</v>
       </c>
       <c r="E10">
-        <v>0.6183232231331404</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="F10">
-        <v>0.6183232231331404</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="G10">
-        <v>0.396613887665457</v>
+        <v>0.9527578782761765</v>
       </c>
       <c r="H10">
-        <v>0.4233923487941683</v>
+        <v>0.9725321742630381</v>
       </c>
       <c r="I10">
-        <v>0.4753213228564875</v>
+        <v>1.269180127219735</v>
       </c>
       <c r="J10">
-        <v>126.8212155426665</v>
+        <v>1.034561228736723</v>
       </c>
       <c r="K10">
-        <v>0.6183232231331404</v>
+        <v>1.049812161456146</v>
       </c>
       <c r="L10">
-        <v>126.8212155426665</v>
+        <v>1.034561228736723</v>
       </c>
       <c r="M10">
-        <v>0.373276229343952</v>
+        <v>0.9909104060911872</v>
       </c>
       <c r="N10">
-        <v>0.6183232231331404</v>
+        <v>1.049812161454246</v>
       </c>
       <c r="O10">
-        <v>0.4753213228564875</v>
+        <v>1.269180127219735</v>
       </c>
       <c r="P10">
-        <v>63.64826843276148</v>
+        <v>1.151870677978229</v>
       </c>
       <c r="Q10">
-        <v>0.4359676052609722</v>
+        <v>1.110969002747956</v>
       </c>
       <c r="R10">
-        <v>42.63828669621871</v>
+        <v>1.117851172470234</v>
       </c>
       <c r="S10">
-        <v>42.56438358439614</v>
+        <v>1.085499744744211</v>
       </c>
       <c r="T10">
-        <v>42.63828669621871</v>
+        <v>1.117851172470234</v>
       </c>
       <c r="U10">
-        <v>32.07786849408039</v>
+        <v>1.07657784892172</v>
       </c>
       <c r="V10">
-        <v>25.78595943989094</v>
+        <v>1.071224711428225</v>
       </c>
       <c r="W10">
-        <v>16.2506917912251</v>
+        <v>1.042759528339267</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.030897050312904</v>
+        <v>1.094766638821215</v>
       </c>
       <c r="D11">
-        <v>1.345752418044766</v>
+        <v>1.001838806798646</v>
       </c>
       <c r="E11">
-        <v>1.230241708533203</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="F11">
-        <v>1.230241708533203</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="G11">
-        <v>0.9517814959163839</v>
+        <v>0.8111440266393395</v>
       </c>
       <c r="H11">
-        <v>0.7796731512342111</v>
+        <v>0.836670235240165</v>
       </c>
       <c r="I11">
-        <v>0.8841208170704691</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="J11">
-        <v>3.644481186987922</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="K11">
-        <v>1.230241708535772</v>
+        <v>1.443800398609963</v>
       </c>
       <c r="L11">
-        <v>3.644481186987922</v>
+        <v>2.991034724528391</v>
       </c>
       <c r="M11">
-        <v>0.7659919386006073</v>
+        <v>1.79393951256975</v>
       </c>
       <c r="N11">
-        <v>1.230241708533203</v>
+        <v>1.443800398608962</v>
       </c>
       <c r="O11">
-        <v>0.8841208170704691</v>
+        <v>1.803825817211899</v>
       </c>
       <c r="P11">
-        <v>2.264301002029196</v>
+        <v>2.397430270870145</v>
       </c>
       <c r="Q11">
-        <v>0.9179511564934265</v>
+        <v>1.307484921925619</v>
       </c>
       <c r="R11">
-        <v>1.919614570863865</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="S11">
-        <v>1.826794499991592</v>
+        <v>1.868668189459876</v>
       </c>
       <c r="T11">
-        <v>1.919614570863865</v>
+        <v>2.079553646783084</v>
       </c>
       <c r="U11">
-        <v>1.677656302126995</v>
+        <v>1.762451241747148</v>
       </c>
       <c r="V11">
-        <v>1.588173383408236</v>
+        <v>1.698721073119511</v>
       </c>
       <c r="W11">
-        <v>1.329117470837558</v>
+        <v>1.472127520052296</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5426705065573071</v>
+        <v>0.2922593864112845</v>
       </c>
       <c r="D12">
-        <v>1.11303106033048</v>
+        <v>0.6051323889298564</v>
       </c>
       <c r="E12">
-        <v>1.132849111197811</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="F12">
-        <v>1.132849111197811</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="G12">
-        <v>0.7193067372863973</v>
+        <v>0.396613887665457</v>
       </c>
       <c r="H12">
-        <v>0.7859142076343594</v>
+        <v>0.4233923487941683</v>
       </c>
       <c r="I12">
-        <v>1.009984870957052</v>
+        <v>0.4753213228564875</v>
       </c>
       <c r="J12">
-        <v>20.04128921726694</v>
+        <v>126.8212155426665</v>
       </c>
       <c r="K12">
-        <v>1.132849111197811</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="L12">
-        <v>20.04128921726694</v>
+        <v>126.8212155426665</v>
       </c>
       <c r="M12">
-        <v>0.8077042865651473</v>
+        <v>0.373276229343952</v>
       </c>
       <c r="N12">
-        <v>1.132849111197811</v>
+        <v>0.6183232231331404</v>
       </c>
       <c r="O12">
-        <v>1.009984870957052</v>
+        <v>0.4753213228564875</v>
       </c>
       <c r="P12">
-        <v>10.52563704411199</v>
+        <v>63.64826843276148</v>
       </c>
       <c r="Q12">
-        <v>0.8646458041217249</v>
+        <v>0.4359676052609722</v>
       </c>
       <c r="R12">
-        <v>7.394707733140599</v>
+        <v>42.63828669621871</v>
       </c>
       <c r="S12">
-        <v>7.256860275170129</v>
+        <v>42.56438358439614</v>
       </c>
       <c r="T12">
-        <v>7.394707733140599</v>
+        <v>42.63828669621871</v>
       </c>
       <c r="U12">
-        <v>5.725857484177049</v>
+        <v>32.07786849408039</v>
       </c>
       <c r="V12">
-        <v>4.807255809581202</v>
+        <v>25.78595943989094</v>
       </c>
       <c r="W12">
-        <v>3.269093749724436</v>
+        <v>16.2506917912251</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.745773237010726</v>
+        <v>1.030897050312904</v>
       </c>
       <c r="D13">
-        <v>0.6752601173516907</v>
+        <v>1.345752418044766</v>
       </c>
       <c r="E13">
-        <v>2.044136180870014</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="F13">
-        <v>2.044136180870014</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="G13">
-        <v>0.6827608806909857</v>
+        <v>0.9517814959163839</v>
       </c>
       <c r="H13">
-        <v>1.282617276912237</v>
+        <v>0.7796731512342111</v>
       </c>
       <c r="I13">
-        <v>1.545495114259217</v>
+        <v>0.8841208170704691</v>
       </c>
       <c r="J13">
-        <v>0.7546786126170315</v>
+        <v>3.644481186987922</v>
       </c>
       <c r="K13">
-        <v>2.044136180870014</v>
+        <v>1.230241708535772</v>
       </c>
       <c r="L13">
-        <v>0.7546786126170315</v>
+        <v>3.644481186987922</v>
       </c>
       <c r="M13">
-        <v>0.7819714216931282</v>
+        <v>0.7659919386006073</v>
       </c>
       <c r="N13">
-        <v>2.044136180870014</v>
+        <v>1.230241708533203</v>
       </c>
       <c r="O13">
-        <v>1.545495114259217</v>
+        <v>0.8841208170704691</v>
       </c>
       <c r="P13">
-        <v>1.150086863438124</v>
+        <v>2.264301002029196</v>
       </c>
       <c r="Q13">
-        <v>1.114127997475101</v>
+        <v>0.9179511564934265</v>
       </c>
       <c r="R13">
-        <v>1.448103302582088</v>
+        <v>1.919614570863865</v>
       </c>
       <c r="S13">
-        <v>0.9943115358557449</v>
+        <v>1.826794499991592</v>
       </c>
       <c r="T13">
-        <v>1.448103302582088</v>
+        <v>1.919614570863865</v>
       </c>
       <c r="U13">
-        <v>1.256767697109312</v>
+        <v>1.677656302126995</v>
       </c>
       <c r="V13">
-        <v>1.414241393861453</v>
+        <v>1.588173383408236</v>
       </c>
       <c r="W13">
-        <v>1.064086605175629</v>
+        <v>1.329117470837558</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0009775087999999992</v>
+        <v>0.5426705065573071</v>
       </c>
       <c r="D14">
-        <v>-0.01248147300000001</v>
+        <v>1.11303106033048</v>
       </c>
       <c r="E14">
-        <v>0.01191020499999998</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="F14">
-        <v>0.01191020499999998</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="G14">
-        <v>0.001717189100000001</v>
+        <v>0.7193067372863973</v>
       </c>
       <c r="H14">
-        <v>-0.01423696600000001</v>
+        <v>0.7859142076343594</v>
       </c>
       <c r="I14">
-        <v>0.0007090084299999996</v>
+        <v>1.009984870957052</v>
       </c>
       <c r="J14">
-        <v>242.2791099999998</v>
+        <v>20.04128921726694</v>
       </c>
       <c r="K14">
-        <v>0.01191020499999998</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="L14">
-        <v>242.2791099999998</v>
+        <v>20.04128921726694</v>
       </c>
       <c r="M14">
-        <v>-0.007912565500000005</v>
+        <v>0.8077042865651473</v>
       </c>
       <c r="N14">
-        <v>0.01191020499999998</v>
+        <v>1.132849111197811</v>
       </c>
       <c r="O14">
-        <v>0.0007090084299999996</v>
+        <v>1.009984870957052</v>
       </c>
       <c r="P14">
-        <v>121.1399095042149</v>
+        <v>10.52563704411199</v>
       </c>
       <c r="Q14">
-        <v>0.001213098765000001</v>
+        <v>0.8646458041217249</v>
       </c>
       <c r="R14">
-        <v>80.76390973780994</v>
+        <v>7.394707733140599</v>
       </c>
       <c r="S14">
-        <v>80.76051206584327</v>
+        <v>7.256860275170129</v>
       </c>
       <c r="T14">
-        <v>80.76390973780994</v>
+        <v>7.394707733140599</v>
       </c>
       <c r="U14">
-        <v>60.57336160063245</v>
+        <v>5.725857484177049</v>
       </c>
       <c r="V14">
-        <v>48.46107132150596</v>
+        <v>4.807255809581202</v>
       </c>
       <c r="W14">
-        <v>30.28222973615373</v>
+        <v>3.269093749724436</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.00097750881</v>
+        <v>0.745773237010726</v>
       </c>
       <c r="D15">
-        <v>-0.012481473</v>
+        <v>0.6752601173516907</v>
       </c>
       <c r="E15">
-        <v>0.011910205</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="F15">
-        <v>0.011910205</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="G15">
-        <v>0.0017171891</v>
+        <v>0.6827608806909857</v>
       </c>
       <c r="H15">
-        <v>-0.014236966</v>
+        <v>1.282617276912237</v>
       </c>
       <c r="I15">
-        <v>0.00070900843</v>
+        <v>1.545495114259217</v>
       </c>
       <c r="J15">
-        <v>242.27911</v>
+        <v>0.7546786126170315</v>
       </c>
       <c r="K15">
-        <v>0.011910205</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="L15">
-        <v>242.27911</v>
+        <v>0.7546786126170315</v>
       </c>
       <c r="M15">
-        <v>-0.0079125655</v>
+        <v>0.7819714216931282</v>
       </c>
       <c r="N15">
-        <v>0.011910205</v>
+        <v>2.044136180870014</v>
       </c>
       <c r="O15">
-        <v>0.00070900843</v>
+        <v>1.545495114259217</v>
       </c>
       <c r="P15">
-        <v>121.139909504215</v>
+        <v>1.150086863438124</v>
       </c>
       <c r="Q15">
-        <v>0.001213098765</v>
+        <v>1.114127997475101</v>
       </c>
       <c r="R15">
-        <v>80.76390973781</v>
+        <v>1.448103302582088</v>
       </c>
       <c r="S15">
-        <v>80.76051206584333</v>
+        <v>0.9943115358557449</v>
       </c>
       <c r="T15">
-        <v>80.76390973781</v>
+        <v>1.448103302582088</v>
       </c>
       <c r="U15">
-        <v>60.5733616006325</v>
+        <v>1.256767697109312</v>
       </c>
       <c r="V15">
-        <v>48.461071321506</v>
+        <v>1.414241393861453</v>
       </c>
       <c r="W15">
-        <v>30.2822297361525</v>
+        <v>1.064086605175629</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.00097750881</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="D16">
-        <v>-0.012481473</v>
+        <v>-0.01248147300000001</v>
       </c>
       <c r="E16">
-        <v>0.011910205</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="F16">
-        <v>0.011910205</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="G16">
-        <v>0.0017171891</v>
+        <v>0.001717189100000001</v>
       </c>
       <c r="H16">
-        <v>-0.014236966</v>
+        <v>-0.01423696600000001</v>
       </c>
       <c r="I16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J16">
-        <v>242.27911</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="K16">
-        <v>0.011910205</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="L16">
-        <v>242.27911</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="M16">
-        <v>-0.0079125655</v>
+        <v>-0.007912565500000005</v>
       </c>
       <c r="N16">
-        <v>0.011910205</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="O16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="P16">
-        <v>121.139909504215</v>
+        <v>121.1399095042149</v>
       </c>
       <c r="Q16">
-        <v>0.001213098765</v>
+        <v>0.001213098765000001</v>
       </c>
       <c r="R16">
-        <v>80.76390973781</v>
+        <v>80.76390973780994</v>
       </c>
       <c r="S16">
-        <v>80.76051206584333</v>
+        <v>80.76051206584327</v>
       </c>
       <c r="T16">
-        <v>80.76390973781</v>
+        <v>80.76390973780994</v>
       </c>
       <c r="U16">
-        <v>60.5733616006325</v>
+        <v>60.57336160063245</v>
       </c>
       <c r="V16">
-        <v>48.461071321506</v>
+        <v>48.46107132150596</v>
       </c>
       <c r="W16">
-        <v>30.2822297361525</v>
+        <v>30.28222973615373</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.020076706</v>
+        <v>-0.00097750881</v>
       </c>
       <c r="D17">
-        <v>0.0030574447</v>
+        <v>-0.012481473</v>
       </c>
       <c r="E17">
-        <v>-0.014036306</v>
+        <v>0.011910205</v>
       </c>
       <c r="F17">
-        <v>-0.014036306</v>
+        <v>0.011910205</v>
       </c>
       <c r="G17">
-        <v>0.016826011</v>
+        <v>0.0017171891</v>
       </c>
       <c r="H17">
-        <v>-0.0046288862</v>
+        <v>-0.014236966</v>
       </c>
       <c r="I17">
-        <v>-0.019481421</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J17">
-        <v>-0.0041019915</v>
+        <v>242.27911</v>
       </c>
       <c r="K17">
-        <v>-0.014036306</v>
+        <v>0.011910205</v>
       </c>
       <c r="L17">
-        <v>-0.0041019915</v>
+        <v>242.27911</v>
       </c>
       <c r="M17">
-        <v>16.389185</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="N17">
-        <v>-0.014036306</v>
+        <v>0.011910205</v>
       </c>
       <c r="O17">
-        <v>-0.019481421</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P17">
-        <v>-0.01179170625</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q17">
-        <v>-0.001327705</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R17">
-        <v>-0.01253990616666666</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S17">
-        <v>-0.002252467166666666</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T17">
-        <v>-0.01253990616666666</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U17">
-        <v>-0.005198426874999999</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V17">
-        <v>-0.0069660027</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W17">
-        <v>2.048362069625</v>
+        <v>30.2822297361525</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.005416145895205478</v>
+        <v>-0.00097750881</v>
       </c>
       <c r="D18">
-        <v>-0.002792474563835614</v>
+        <v>-0.012481473</v>
       </c>
       <c r="E18">
-        <v>0.007520555936986304</v>
+        <v>0.011910205</v>
       </c>
       <c r="F18">
-        <v>0.007520555936986304</v>
+        <v>0.011910205</v>
       </c>
       <c r="G18">
-        <v>0.001933017291780822</v>
+        <v>0.0017171891</v>
       </c>
       <c r="H18">
-        <v>0.00578538503561644</v>
+        <v>-0.014236966</v>
       </c>
       <c r="I18">
-        <v>7.469306404478766</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J18">
-        <v>18.26629903317424</v>
+        <v>242.27911</v>
       </c>
       <c r="K18">
-        <v>0.007520555936986304</v>
+        <v>0.011910205</v>
       </c>
       <c r="L18">
-        <v>18.26629903317424</v>
+        <v>242.27911</v>
       </c>
       <c r="M18">
-        <v>6.928513704905475</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="N18">
-        <v>0.007520555936986304</v>
+        <v>0.011910205</v>
       </c>
       <c r="O18">
-        <v>7.469306404478766</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P18">
-        <v>12.8678027188265</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q18">
-        <v>3.735619710885273</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R18">
-        <v>8.581041997863331</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S18">
-        <v>8.579179484981596</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T18">
-        <v>8.581041997863331</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U18">
-        <v>6.436264752720443</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V18">
-        <v>5.150515913363751</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W18">
-        <v>4.08524772151928</v>
+        <v>30.2822297361525</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.005163764788947369</v>
+        <v>0.020076706</v>
       </c>
       <c r="D19">
-        <v>-0.003174935028421053</v>
+        <v>0.0030574447</v>
       </c>
       <c r="E19">
-        <v>0.007693831557894736</v>
+        <v>-0.014036306</v>
       </c>
       <c r="F19">
-        <v>0.007693831557894736</v>
+        <v>-0.014036306</v>
       </c>
       <c r="G19">
-        <v>0.001924497757894737</v>
+        <v>0.016826011</v>
       </c>
       <c r="H19">
-        <v>0.00499502907368421</v>
+        <v>-0.0046288862</v>
       </c>
       <c r="I19">
-        <v>7.174493349361053</v>
+        <v>-0.019481421</v>
       </c>
       <c r="J19">
-        <v>27.10890999239104</v>
+        <v>-0.0041019915</v>
       </c>
       <c r="K19">
-        <v>0.007693831557894736</v>
+        <v>-0.014036306</v>
       </c>
       <c r="L19">
-        <v>27.10890999239104</v>
+        <v>-0.0041019915</v>
       </c>
       <c r="M19">
-        <v>6.654707404757893</v>
+        <v>16.389185</v>
       </c>
       <c r="N19">
-        <v>0.007693831557894736</v>
+        <v>-0.014036306</v>
       </c>
       <c r="O19">
-        <v>7.174493349361053</v>
+        <v>-0.019481421</v>
       </c>
       <c r="P19">
-        <v>17.14170167087605</v>
+        <v>-0.01179170625</v>
       </c>
       <c r="Q19">
-        <v>3.588208923559474</v>
+        <v>-0.001327705</v>
       </c>
       <c r="R19">
-        <v>11.43036572443666</v>
+        <v>-0.01253990616666666</v>
       </c>
       <c r="S19">
-        <v>11.42844261317</v>
+        <v>-0.002252467166666666</v>
       </c>
       <c r="T19">
-        <v>11.43036572443666</v>
+        <v>-0.01253990616666666</v>
       </c>
       <c r="U19">
-        <v>8.573255417766973</v>
+        <v>-0.005198426874999999</v>
       </c>
       <c r="V19">
-        <v>6.860143100525157</v>
+        <v>-0.0069660027</v>
       </c>
       <c r="W19">
-        <v>5.119339116832499</v>
+        <v>2.048362069625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.005163764788947369</v>
+        <v>0.005416145895205478</v>
       </c>
       <c r="D20">
-        <v>-0.003174935028421053</v>
+        <v>-0.002792474563835614</v>
       </c>
       <c r="E20">
-        <v>0.007693831557894736</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="F20">
-        <v>0.007693831557894736</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="G20">
-        <v>0.001924497757894737</v>
+        <v>0.001933017291780822</v>
       </c>
       <c r="H20">
-        <v>0.00499502907368421</v>
+        <v>0.00578538503561644</v>
       </c>
       <c r="I20">
-        <v>7.174493349361053</v>
+        <v>7.469306404478766</v>
       </c>
       <c r="J20">
-        <v>27.10890999239104</v>
+        <v>18.26629903317424</v>
       </c>
       <c r="K20">
-        <v>0.007693831557894736</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="L20">
-        <v>27.10890999239104</v>
+        <v>18.26629903317424</v>
       </c>
       <c r="M20">
-        <v>6.654707404757893</v>
+        <v>6.928513704905475</v>
       </c>
       <c r="N20">
-        <v>0.007693831557894736</v>
+        <v>0.007520555936986304</v>
       </c>
       <c r="O20">
-        <v>7.174493349361053</v>
+        <v>7.469306404478766</v>
       </c>
       <c r="P20">
-        <v>17.14170167087605</v>
+        <v>12.8678027188265</v>
       </c>
       <c r="Q20">
-        <v>3.588208923559474</v>
+        <v>3.735619710885273</v>
       </c>
       <c r="R20">
-        <v>11.43036572443666</v>
+        <v>8.581041997863331</v>
       </c>
       <c r="S20">
-        <v>11.42844261317</v>
+        <v>8.579179484981596</v>
       </c>
       <c r="T20">
-        <v>11.43036572443666</v>
+        <v>8.581041997863331</v>
       </c>
       <c r="U20">
-        <v>8.573255417766973</v>
+        <v>6.436264752720443</v>
       </c>
       <c r="V20">
-        <v>6.860143100525157</v>
+        <v>5.150515913363751</v>
       </c>
       <c r="W20">
-        <v>5.119339116832499</v>
+        <v>4.08524772151928</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.001364000892881431</v>
+        <v>0.005163764788947369</v>
       </c>
       <c r="D21">
-        <v>0.0006595902111376068</v>
+        <v>-0.003174935028421053</v>
       </c>
       <c r="E21">
-        <v>0.0009333249709170174</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="F21">
-        <v>0.0009333249709170174</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="G21">
-        <v>0.001016163595548628</v>
+        <v>0.001924497757894737</v>
       </c>
       <c r="H21">
-        <v>1.991361344825924</v>
+        <v>0.00499502907368421</v>
       </c>
       <c r="I21">
-        <v>5.662840107515391</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="J21">
-        <v>0.00129981862876366</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="K21">
-        <v>0.0009333249709170174</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="L21">
-        <v>0.00129981862876366</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="M21">
-        <v>1.90253145853039</v>
+        <v>6.654707404757893</v>
       </c>
       <c r="N21">
-        <v>0.0009333249709170174</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="O21">
-        <v>5.662840107515391</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="P21">
-        <v>2.832069963072077</v>
+        <v>17.14170167087605</v>
       </c>
       <c r="Q21">
-        <v>2.83192813555547</v>
+        <v>3.588208923559474</v>
       </c>
       <c r="R21">
-        <v>1.88835775037169</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="S21">
-        <v>1.888385363246568</v>
+        <v>11.42844261317</v>
       </c>
       <c r="T21">
-        <v>1.888357750371691</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="U21">
-        <v>1.416522353677655</v>
+        <v>8.573255417766973</v>
       </c>
       <c r="V21">
-        <v>1.133404547936308</v>
+        <v>6.860143100525157</v>
       </c>
       <c r="W21">
-        <v>1.194909725923149</v>
+        <v>5.119339116832499</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.858319634524489</v>
+        <v>0.005163764788947369</v>
       </c>
       <c r="D22">
-        <v>3.807085785628126</v>
+        <v>-0.003174935028421053</v>
       </c>
       <c r="E22">
-        <v>0.005684776776117816</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="F22">
-        <v>0.005684776776117816</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="G22">
-        <v>2.93644615733757</v>
+        <v>0.001924497757894737</v>
       </c>
       <c r="H22">
-        <v>0.01875732023250777</v>
+        <v>0.00499502907368421</v>
       </c>
       <c r="I22">
-        <v>-0.003057026860527989</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="J22">
-        <v>0.07655865009750248</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="K22">
-        <v>0.005684776776117816</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="L22">
-        <v>0.07655865009750248</v>
+        <v>27.10890999239104</v>
       </c>
       <c r="M22">
-        <v>0.7129752475942677</v>
+        <v>6.654707404757893</v>
       </c>
       <c r="N22">
-        <v>0.005684776776117816</v>
+        <v>0.007693831557894736</v>
       </c>
       <c r="O22">
-        <v>-0.003057026860527989</v>
+        <v>7.174493349361053</v>
       </c>
       <c r="P22">
-        <v>0.03675081161848725</v>
+        <v>17.14170167087605</v>
       </c>
       <c r="Q22">
-        <v>1.466694565238521</v>
+        <v>3.588208923559474</v>
       </c>
       <c r="R22">
-        <v>0.02639546667103077</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="S22">
-        <v>1.003315926858181</v>
+        <v>11.42844261317</v>
       </c>
       <c r="T22">
-        <v>0.02639546667103077</v>
+        <v>11.43036572443666</v>
       </c>
       <c r="U22">
-        <v>0.7539081393376657</v>
+        <v>8.573255417766973</v>
       </c>
       <c r="V22">
-        <v>0.604263466825356</v>
+        <v>6.860143100525157</v>
       </c>
       <c r="W22">
-        <v>1.426596318166256</v>
+        <v>5.119339116832499</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-0.001502850586985293</v>
+        <v>-0.001364000892881431</v>
       </c>
       <c r="D23">
-        <v>0.2744561344533932</v>
+        <v>0.0006595902111376068</v>
       </c>
       <c r="E23">
-        <v>0.4085801478222008</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="F23">
-        <v>0.4085801478222008</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="G23">
-        <v>2.614807624490462</v>
+        <v>0.001016163595548628</v>
       </c>
       <c r="H23">
-        <v>0.03254713084656045</v>
+        <v>1.991361344825924</v>
       </c>
       <c r="I23">
-        <v>0.003429442486612062</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="J23">
-        <v>0.003550294424097217</v>
+        <v>0.00129981862876366</v>
       </c>
       <c r="K23">
-        <v>0.4085801478222008</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="L23">
-        <v>0.003550294424097217</v>
+        <v>0.00129981862876366</v>
       </c>
       <c r="M23">
-        <v>-0.001257431911578386</v>
+        <v>1.90253145853039</v>
       </c>
       <c r="N23">
-        <v>0.4085801478222008</v>
+        <v>0.0009333249709170174</v>
       </c>
       <c r="O23">
-        <v>0.003429442486612062</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="P23">
-        <v>0.00348986845535464</v>
+        <v>2.832069963072077</v>
       </c>
       <c r="Q23">
-        <v>1.309118533488537</v>
+        <v>2.83192813555547</v>
       </c>
       <c r="R23">
-        <v>0.1385199615776367</v>
+        <v>1.88835775037169</v>
       </c>
       <c r="S23">
-        <v>0.8739291204670571</v>
+        <v>1.888385363246568</v>
       </c>
       <c r="T23">
-        <v>0.1385199615776367</v>
+        <v>1.888357750371691</v>
       </c>
       <c r="U23">
-        <v>0.757591877305843</v>
+        <v>1.416522353677655</v>
       </c>
       <c r="V23">
-        <v>0.6877895314091146</v>
+        <v>1.133404547936308</v>
       </c>
       <c r="W23">
-        <v>0.4168263115030952</v>
+        <v>1.194909725923149</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.04034612682130263</v>
+        <v>3.858319634524489</v>
       </c>
       <c r="D24">
-        <v>0.03795029131287164</v>
+        <v>3.807085785628126</v>
       </c>
       <c r="E24">
-        <v>0.2668842195185722</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="F24">
-        <v>0.2668842195185722</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="G24">
-        <v>-0.0005346634239876048</v>
+        <v>2.93644615733757</v>
       </c>
       <c r="H24">
-        <v>0.6139002432027721</v>
+        <v>0.01875732023250777</v>
       </c>
       <c r="I24">
-        <v>1.697254818845404</v>
+        <v>-0.003057026860527989</v>
       </c>
       <c r="J24">
-        <v>0.0761201067922304</v>
+        <v>0.07655865009750248</v>
       </c>
       <c r="K24">
-        <v>0.2668842195185722</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="L24">
-        <v>0.0761201067922304</v>
+        <v>0.07655865009750248</v>
       </c>
       <c r="M24">
-        <v>2.705339109436882</v>
+        <v>0.7129752475942677</v>
       </c>
       <c r="N24">
-        <v>0.2668842195185722</v>
+        <v>0.005684776776117816</v>
       </c>
       <c r="O24">
-        <v>1.697254818845404</v>
+        <v>-0.003057026860527989</v>
       </c>
       <c r="P24">
-        <v>0.8866874628188169</v>
+        <v>0.03675081161848725</v>
       </c>
       <c r="Q24">
-        <v>0.848360077710708</v>
+        <v>1.466694565238521</v>
       </c>
       <c r="R24">
-        <v>0.6800863817187354</v>
+        <v>0.02639546667103077</v>
       </c>
       <c r="S24">
-        <v>0.5909467540712154</v>
+        <v>1.003315926858181</v>
       </c>
       <c r="T24">
-        <v>0.6800863817187354</v>
+        <v>0.02639546667103077</v>
       </c>
       <c r="U24">
-        <v>0.5099311204330546</v>
+        <v>0.7539081393376657</v>
       </c>
       <c r="V24">
-        <v>0.4613217402501581</v>
+        <v>0.604263466825356</v>
       </c>
       <c r="W24">
-        <v>0.6796575315632558</v>
+        <v>1.426596318166256</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-0.001364000892881441</v>
+        <v>-0.001502850586985293</v>
       </c>
       <c r="D25">
-        <v>0.0006595902111376072</v>
+        <v>0.2744561344533932</v>
       </c>
       <c r="E25">
-        <v>0.0009333249709169949</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="F25">
-        <v>0.0009333249709169949</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="G25">
-        <v>0.001016163595548635</v>
+        <v>2.614807624490462</v>
       </c>
       <c r="H25">
-        <v>1.991361344825923</v>
+        <v>0.03254713084656045</v>
       </c>
       <c r="I25">
-        <v>5.662840107515391</v>
+        <v>0.003429442486612062</v>
       </c>
       <c r="J25">
-        <v>0.001299818628753629</v>
+        <v>0.003550294424097217</v>
       </c>
       <c r="K25">
-        <v>0.0009333249709169949</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="L25">
-        <v>0.001299818628753629</v>
+        <v>0.003550294424097217</v>
       </c>
       <c r="M25">
-        <v>1.902531458530388</v>
+        <v>-0.001257431911578386</v>
       </c>
       <c r="N25">
-        <v>0.0009333249709169949</v>
+        <v>0.4085801478222008</v>
       </c>
       <c r="O25">
-        <v>5.662840107515391</v>
+        <v>0.003429442486612062</v>
       </c>
       <c r="P25">
-        <v>2.832069963072072</v>
+        <v>0.00348986845535464</v>
       </c>
       <c r="Q25">
-        <v>2.83192813555547</v>
+        <v>1.309118533488537</v>
       </c>
       <c r="R25">
-        <v>1.888357750371687</v>
+        <v>0.1385199615776367</v>
       </c>
       <c r="S25">
-        <v>1.888385363246565</v>
+        <v>0.8739291204670571</v>
       </c>
       <c r="T25">
-        <v>1.888357750371687</v>
+        <v>0.1385199615776367</v>
       </c>
       <c r="U25">
-        <v>1.416522353677653</v>
+        <v>0.757591877305843</v>
       </c>
       <c r="V25">
-        <v>1.133404547936305</v>
+        <v>0.6877895314091146</v>
       </c>
       <c r="W25">
-        <v>1.194909725923147</v>
+        <v>0.4168263115030952</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>3.858319634524487</v>
+        <v>0.04034612682130263</v>
       </c>
       <c r="D26">
-        <v>3.807085785628125</v>
+        <v>0.03795029131287164</v>
       </c>
       <c r="E26">
-        <v>0.005684776776117857</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="F26">
-        <v>0.005684776776117857</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="G26">
-        <v>2.936446157337568</v>
+        <v>-0.0005346634239876048</v>
       </c>
       <c r="H26">
-        <v>0.01875732023250772</v>
+        <v>0.6139002432027721</v>
       </c>
       <c r="I26">
-        <v>-0.003057026860527997</v>
+        <v>1.697254818845404</v>
       </c>
       <c r="J26">
-        <v>0.07655865009750248</v>
+        <v>0.0761201067922304</v>
       </c>
       <c r="K26">
-        <v>0.005684776776117857</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="L26">
-        <v>0.07655865009750248</v>
+        <v>0.0761201067922304</v>
       </c>
       <c r="M26">
-        <v>0.7129752475942684</v>
+        <v>2.705339109436882</v>
       </c>
       <c r="N26">
-        <v>0.005684776776117857</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="O26">
-        <v>-0.003057026860527997</v>
+        <v>1.697254818845404</v>
       </c>
       <c r="P26">
-        <v>0.03675081161848724</v>
+        <v>0.8866874628188169</v>
       </c>
       <c r="Q26">
-        <v>1.46669456523852</v>
+        <v>0.848360077710708</v>
       </c>
       <c r="R26">
-        <v>0.02639546667103078</v>
+        <v>0.6800863817187354</v>
       </c>
       <c r="S26">
-        <v>1.003315926858181</v>
+        <v>0.5909467540712154</v>
       </c>
       <c r="T26">
-        <v>0.02639546667103078</v>
+        <v>0.6800863817187354</v>
       </c>
       <c r="U26">
-        <v>0.7539081393376651</v>
+        <v>0.5099311204330546</v>
       </c>
       <c r="V26">
-        <v>0.6042634668253556</v>
+        <v>0.4613217402501581</v>
       </c>
       <c r="W26">
-        <v>1.426596318166256</v>
+        <v>0.6796575315632558</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.171919084534543</v>
+        <v>-0.001364000892881441</v>
       </c>
       <c r="D27">
-        <v>0.00178680102107821</v>
+        <v>0.0006595902111376072</v>
       </c>
       <c r="E27">
-        <v>-0.005289609818362497</v>
+        <v>0.0009333249709169949</v>
       </c>
       <c r="F27">
-        <v>-0.005289609818362497</v>
+        <v>0.0009333249709169949</v>
       </c>
       <c r="G27">
-        <v>1.027456736158563</v>
+        <v>0.001016163595548635</v>
       </c>
       <c r="H27">
-        <v>0.3488859538061379</v>
+        <v>1.991361344825923</v>
       </c>
       <c r="I27">
-        <v>-0.005718491557776391</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="J27">
-        <v>14.25126749849808</v>
+        <v>0.001299818628753629</v>
       </c>
       <c r="K27">
-        <v>-0.005289609818362497</v>
+        <v>0.0009333249709169949</v>
       </c>
       <c r="L27">
-        <v>14.25126749849808</v>
+        <v>0.001299818628753629</v>
       </c>
       <c r="M27">
-        <v>3.545509196122952</v>
+        <v>1.902531458530388</v>
       </c>
       <c r="N27">
-        <v>-0.005289609818362497</v>
+        <v>0.0009333249709169949</v>
       </c>
       <c r="O27">
-        <v>-0.005718491557776391</v>
+        <v>5.662840107515391</v>
       </c>
       <c r="P27">
-        <v>7.122774503470152</v>
+        <v>2.832069963072072</v>
       </c>
       <c r="Q27">
-        <v>0.5108691223003932</v>
+        <v>2.83192813555547</v>
       </c>
       <c r="R27">
-        <v>4.74675313237398</v>
+        <v>1.888357750371687</v>
       </c>
       <c r="S27">
-        <v>5.091001914366289</v>
+        <v>1.888385363246565</v>
       </c>
       <c r="T27">
-        <v>4.74675313237398</v>
+        <v>1.888357750371687</v>
       </c>
       <c r="U27">
-        <v>3.816929033320126</v>
+        <v>1.416522353677653</v>
       </c>
       <c r="V27">
-        <v>3.052485304692428</v>
+        <v>1.133404547936305</v>
       </c>
       <c r="W27">
-        <v>2.666977146095652</v>
+        <v>1.194909725923147</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.336595392933981</v>
+        <v>3.858319634524487</v>
       </c>
       <c r="D28">
-        <v>0.0362514160587174</v>
+        <v>3.807085785628125</v>
       </c>
       <c r="E28">
-        <v>0.003040400395468805</v>
+        <v>0.005684776776117857</v>
       </c>
       <c r="F28">
-        <v>0.003040400395468805</v>
+        <v>0.005684776776117857</v>
       </c>
       <c r="G28">
-        <v>0.005482462513331983</v>
+        <v>2.936446157337568</v>
       </c>
       <c r="H28">
-        <v>0.006297159014118457</v>
+        <v>0.01875732023250772</v>
       </c>
       <c r="I28">
-        <v>1.928284736561503</v>
+        <v>-0.003057026860527997</v>
       </c>
       <c r="J28">
-        <v>0.000583113263469607</v>
+        <v>0.07655865009750248</v>
       </c>
       <c r="K28">
-        <v>0.003040400395468805</v>
+        <v>0.005684776776117857</v>
       </c>
       <c r="L28">
-        <v>0.000583113263469607</v>
+        <v>0.07655865009750248</v>
       </c>
       <c r="M28">
-        <v>5.634882361288871</v>
+        <v>0.7129752475942684</v>
       </c>
       <c r="N28">
-        <v>0.003040400395468805</v>
+        <v>0.005684776776117857</v>
       </c>
       <c r="O28">
-        <v>1.928284736561503</v>
+        <v>-0.003057026860527997</v>
       </c>
       <c r="P28">
-        <v>0.9644339249124866</v>
+        <v>0.03675081161848724</v>
       </c>
       <c r="Q28">
-        <v>0.9668835995374178</v>
+        <v>1.46669456523852</v>
       </c>
       <c r="R28">
-        <v>0.6439694167401473</v>
+        <v>0.02639546667103078</v>
       </c>
       <c r="S28">
-        <v>0.6447834374461018</v>
+        <v>1.003315926858181</v>
       </c>
       <c r="T28">
-        <v>0.6439694167401473</v>
+        <v>0.02639546667103078</v>
       </c>
       <c r="U28">
-        <v>0.4843476781834435</v>
+        <v>0.7539081393376651</v>
       </c>
       <c r="V28">
-        <v>0.3880862226258485</v>
+        <v>0.6042634668253556</v>
       </c>
       <c r="W28">
-        <v>1.118927130253683</v>
+        <v>1.426596318166256</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>2.171919084534543</v>
+      </c>
+      <c r="D29">
+        <v>0.00178680102107821</v>
+      </c>
+      <c r="E29">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="F29">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="G29">
+        <v>1.027456736158563</v>
+      </c>
+      <c r="H29">
+        <v>0.3488859538061379</v>
+      </c>
+      <c r="I29">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="J29">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="K29">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="L29">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="M29">
+        <v>3.545509196122952</v>
+      </c>
+      <c r="N29">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="O29">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="P29">
+        <v>7.122774503470152</v>
+      </c>
+      <c r="Q29">
+        <v>0.5108691223003932</v>
+      </c>
+      <c r="R29">
+        <v>4.74675313237398</v>
+      </c>
+      <c r="S29">
+        <v>5.091001914366289</v>
+      </c>
+      <c r="T29">
+        <v>4.74675313237398</v>
+      </c>
+      <c r="U29">
+        <v>3.816929033320126</v>
+      </c>
+      <c r="V29">
+        <v>3.052485304692428</v>
+      </c>
+      <c r="W29">
+        <v>2.666977146095652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.336595392933981</v>
+      </c>
+      <c r="D30">
+        <v>0.0362514160587174</v>
+      </c>
+      <c r="E30">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="F30">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="G30">
+        <v>0.005482462513331983</v>
+      </c>
+      <c r="H30">
+        <v>0.006297159014118457</v>
+      </c>
+      <c r="I30">
+        <v>1.928284736561503</v>
+      </c>
+      <c r="J30">
+        <v>0.000583113263469607</v>
+      </c>
+      <c r="K30">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="L30">
+        <v>0.000583113263469607</v>
+      </c>
+      <c r="M30">
+        <v>5.634882361288871</v>
+      </c>
+      <c r="N30">
+        <v>0.003040400395468805</v>
+      </c>
+      <c r="O30">
+        <v>1.928284736561503</v>
+      </c>
+      <c r="P30">
+        <v>0.9644339249124866</v>
+      </c>
+      <c r="Q30">
+        <v>0.9668835995374178</v>
+      </c>
+      <c r="R30">
+        <v>0.6439694167401473</v>
+      </c>
+      <c r="S30">
+        <v>0.6447834374461018</v>
+      </c>
+      <c r="T30">
+        <v>0.6439694167401473</v>
+      </c>
+      <c r="U30">
+        <v>0.4843476781834435</v>
+      </c>
+      <c r="V30">
+        <v>0.3880862226258485</v>
+      </c>
+      <c r="W30">
+        <v>1.118927130253683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.007173689052899552</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.001930101628593115</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>-0.001113364712716354</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>-0.001113364712716354</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.01204460340347953</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.004838949003011381</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.4025107048938357</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.001508572268607965</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.001113364712716354</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>-0.001508572268607965</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>3.811658531495391</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>-0.001113364712716354</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.4025107048938357</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.2005010663126139</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.2072776541486576</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.1332962559708371</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.1376822453429024</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.1332962559708371</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.1029833428289977</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.08216400132065492</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.5292093049048374</v>
       </c>
     </row>
